--- a/TonTunaDungeon/src/pisosproyecto.xlsx
+++ b/TonTunaDungeon/src/pisosproyecto.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Piso1" sheetId="1" r:id="rId1"/>
     <sheet name="Piso2" sheetId="2" r:id="rId2"/>
+    <sheet name="Piso3" sheetId="3" r:id="rId3"/>
+    <sheet name="Piso4" sheetId="4" r:id="rId4"/>
+    <sheet name="Piso5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,8 +73,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,8 +114,13 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -142,25 +158,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="6"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Celda de comprobación" xfId="6" builtinId="23"/>
     <cellStyle name="Entrada" xfId="4" builtinId="20"/>
     <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
@@ -480,7 +514,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="A1:J10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,19 +844,29 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
+      <c r="C3" s="4"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="5"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
+      <c r="C4" s="5"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
+      <c r="M4" s="4"/>
+      <c r="O4" s="2"/>
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="O5" s="3"/>
@@ -830,12 +874,18 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
+      <c r="F6" s="2"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="5"/>
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="5"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="T7" s="1"/>
@@ -898,38 +948,54 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
+      <c r="D12" s="4"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
+      <c r="O13" s="2"/>
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
+      <c r="E14" s="2"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
+      <c r="O14" s="5"/>
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="5"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="2"/>
       <c r="O15" s="3"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="4"/>
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
+      <c r="E16" s="2"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
+      <c r="O16" s="2"/>
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
+      <c r="E17" s="5"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="T17" s="1"/>
@@ -990,27 +1056,35 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
+      <c r="G24" s="4"/>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="2"/>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
+      <c r="E26" s="2"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
+      <c r="E27" s="2"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
+      <c r="E28" s="2"/>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="2"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -1028,4 +1102,940 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="M4" s="5"/>
+      <c r="O4" s="6"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="O6" s="2"/>
+      <c r="Q6" s="5"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="O7" s="4"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="M13" s="2"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="M14" s="5"/>
+      <c r="O14" s="2"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="5"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="3"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="H16" s="4"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="M16" s="5"/>
+      <c r="O16" s="2"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="2"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="M17" s="2"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="4"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="E24" s="2"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="C26" s="6"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="C27" s="5"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T30" sqref="A1:T30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="5"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="Q3" s="4"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="Q4" s="2"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="5"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="3"/>
+      <c r="Q5" s="2"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4"/>
+      <c r="E6" s="2"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="N6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="5"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="2"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="M13" s="2"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="M14" s="2"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="3"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="H16" s="5"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="M16" s="5"/>
+      <c r="O16" s="2"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="2"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="2"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="E24" s="2"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="G26" s="5"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="G27" s="2"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="C4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="5"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="C6" s="5"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="M6" s="5"/>
+      <c r="O6" s="2"/>
+      <c r="Q6" s="4"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="C7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="2"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="2"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="5"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="5"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="M14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="G15" s="2"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="6"/>
+      <c r="O15" s="3"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="M16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="2"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="2"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="6"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="C26" s="4"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TonTunaDungeon/src/pisosproyecto.xlsx
+++ b/TonTunaDungeon/src/pisosproyecto.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Piso1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,11 @@
     <sheet name="Piso3" sheetId="3" r:id="rId3"/>
     <sheet name="Piso4" sheetId="4" r:id="rId4"/>
     <sheet name="Piso5" sheetId="5" r:id="rId5"/>
+    <sheet name="Piso6" sheetId="6" r:id="rId6"/>
+    <sheet name="Piso7" sheetId="7" r:id="rId7"/>
+    <sheet name="Piso8" sheetId="8" r:id="rId8"/>
+    <sheet name="Piso9" sheetId="9" r:id="rId9"/>
+    <sheet name="Piso10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -183,7 +188,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -191,6 +196,8 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -514,7 +521,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,6 +792,370 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="2"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="5"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="M4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="M5" s="2"/>
+      <c r="O5" s="3"/>
+      <c r="Q5" s="2"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="2"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="4"/>
+      <c r="Q7" s="5"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="E9" s="5"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="E12" s="5"/>
+      <c r="H12" s="2"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="M12" s="2"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="M13" s="2"/>
+      <c r="O13" s="5"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="2"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="5"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="H15" s="5"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="6"/>
+      <c r="O15" s="3"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="Q17" s="5"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="E18" s="5"/>
+      <c r="H18" s="2"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="Q18" s="2"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="Q19" s="4"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="5"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="I29" s="2"/>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -1412,7 +1783,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T30" sqref="A1:T30"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1725,8 +2096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2038,4 +2409,1363 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="4"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="2"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="N4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="4"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="C6" s="5"/>
+      <c r="F6" s="2"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="N6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="5"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="2"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="2"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="O14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="5"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="5"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="O16" s="2"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="O17" s="2"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="D18" s="5"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="O18" s="2"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="O19" s="4"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="G26" s="2"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="5"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="E29" s="4"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="N4" s="5"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="6"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="C6" s="4"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="M6" s="4"/>
+      <c r="Q6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="5"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="6"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="4"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="2"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="N14" s="2"/>
+      <c r="P14" s="7"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="5"/>
+      <c r="E15" s="3"/>
+      <c r="G15" s="6"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="N16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="G17" s="5"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="5"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="O18" s="4"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="6"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="5"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="E25" s="3"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="2"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="5"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="C3" s="5"/>
+      <c r="E3" s="2"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="6"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="M4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="M5" s="2"/>
+      <c r="O5" s="3"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="5"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="5"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="O7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="4"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="E9" s="4"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="G12" s="4"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="G13" s="5"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="5"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="G15" s="2"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="M15" s="2"/>
+      <c r="O15" s="3"/>
+      <c r="Q15" s="2"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="C16" s="6"/>
+      <c r="G16" s="5"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="5"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="4"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="G23" s="2"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="G24" s="2"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="5"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="4"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="5"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="E3" s="5"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="E7" s="5"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="5"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="5"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="2"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="O13" s="2"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="O14" s="2"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="5"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="4"/>
+      <c r="D16" s="2"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="5"/>
+      <c r="O16" s="2"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="O17" s="2"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="5"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="O18" s="2"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="4"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="C22" s="4"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="C23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="5"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="G25" s="2"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="5"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TonTunaDungeon/src/pisosproyecto.xlsx
+++ b/TonTunaDungeon/src/pisosproyecto.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SrCharles\Documents\ApuntesCiclo\Programacion\Ejercicios\TonTuna-Dungeon\TonTunaDungeon\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\NetBeansProjects\TonTuna-Dungeon\TonTunaDungeon\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940"/>
   </bookViews>
   <sheets>
     <sheet name="Piso1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Piso9" sheetId="9" r:id="rId9"/>
     <sheet name="Piso10" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -188,7 +188,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -198,9 +198,11 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="6"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Buena" xfId="1" builtinId="26"/>
     <cellStyle name="Celda de comprobación" xfId="6" builtinId="23"/>
     <cellStyle name="Entrada" xfId="4" builtinId="20"/>
     <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
@@ -520,23 +522,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1">
+        <v>61</v>
+      </c>
+      <c r="H1" s="1">
+        <v>71</v>
+      </c>
+      <c r="I1" s="1">
+        <v>81</v>
+      </c>
+      <c r="J1" s="1">
+        <v>91</v>
+      </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -549,39 +571,59 @@
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>92</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>93</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1">
+        <v>94</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1">
+        <v>95</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="O5" s="3"/>
       <c r="P5" s="2"/>
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="4"/>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1">
+        <v>96</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="M6" s="4"/>
       <c r="N6" s="2"/>
@@ -589,11 +631,15 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="5"/>
       <c r="G7" s="2"/>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1">
+        <v>97</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="N7" s="2"/>
       <c r="O7" s="5"/>
@@ -601,28 +647,56 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="J8" s="1">
+        <v>98</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="J9" s="1">
+        <v>99</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1">
+        <v>60</v>
+      </c>
+      <c r="G10" s="1">
+        <v>70</v>
+      </c>
+      <c r="H10" s="1">
+        <v>80</v>
+      </c>
+      <c r="I10" s="1">
+        <v>90</v>
+      </c>
+      <c r="J10" s="1">
+        <v>100</v>
+      </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -815,33 +889,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+      <c r="A1" s="9"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="D1" s="9"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="G1" s="9"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>7</v>
+      </c>
+      <c r="R1" s="1">
+        <v>8</v>
+      </c>
+      <c r="S1" s="1">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -850,7 +944,7 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="9"/>
       <c r="D3" s="2"/>
       <c r="E3" s="5"/>
       <c r="F3" s="2"/>
@@ -868,6 +962,7 @@
       <c r="C4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="2"/>
+      <c r="I4" s="2"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="M4" s="2"/>
@@ -875,7 +970,7 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
       <c r="D5" s="2"/>
@@ -896,6 +991,7 @@
       <c r="C6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="2"/>
+      <c r="I6" s="2"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="M6" s="2"/>
@@ -905,7 +1001,7 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="9"/>
       <c r="D7" s="2"/>
       <c r="E7" s="5"/>
       <c r="F7" s="2"/>
@@ -929,8 +1025,10 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="9"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="5"/>
+      <c r="F9" s="10"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="T9" s="1"/>

--- a/TonTunaDungeon/src/pisosproyecto.xlsx
+++ b/TonTunaDungeon/src/pisosproyecto.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\NetBeansProjects\TonTuna-Dungeon\TonTunaDungeon\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CFGS\PROGRAMACION\Java\NetBeans\TonTuna-Dungeon\TonTunaDungeon\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Piso1" sheetId="1" r:id="rId1"/>
@@ -522,7 +522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -2194,315 +2194,675 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1">
+        <v>61</v>
+      </c>
+      <c r="H1" s="1">
+        <v>71</v>
+      </c>
+      <c r="I1" s="1">
+        <v>81</v>
+      </c>
+      <c r="J1" s="1">
+        <v>91</v>
+      </c>
+      <c r="K1" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1">
+        <v>31</v>
+      </c>
+      <c r="O1" s="1">
+        <v>41</v>
+      </c>
+      <c r="P1" s="1">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>61</v>
+      </c>
+      <c r="R1" s="1">
+        <v>71</v>
+      </c>
+      <c r="S1" s="1">
+        <v>81</v>
+      </c>
+      <c r="T1" s="1">
+        <v>91</v>
+      </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>92</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2</v>
+      </c>
+      <c r="T2" s="1">
+        <v>92</v>
+      </c>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
       <c r="C3" s="2"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="T3" s="1"/>
+      <c r="J3" s="1">
+        <v>93</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3</v>
+      </c>
+      <c r="T3" s="1">
+        <v>93</v>
+      </c>
     </row>
     <row r="4" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="F4" s="6"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="T4" s="1"/>
+      <c r="J4" s="1">
+        <v>94</v>
+      </c>
+      <c r="K4" s="1">
+        <v>4</v>
+      </c>
+      <c r="T4" s="1">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
       <c r="F5" s="2"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="J5" s="1">
+        <v>95</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="5"/>
-      <c r="T5" s="1"/>
+      <c r="T5" s="1">
+        <v>95</v>
+      </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
       <c r="C6" s="5"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="J6" s="1">
+        <v>96</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6</v>
+      </c>
       <c r="M6" s="5"/>
       <c r="O6" s="2"/>
       <c r="Q6" s="4"/>
-      <c r="T6" s="1"/>
+      <c r="T6" s="1">
+        <v>96</v>
+      </c>
     </row>
     <row r="7" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="G7" s="5"/>
       <c r="H7" s="2"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="J7" s="1">
+        <v>97</v>
+      </c>
+      <c r="K7" s="1">
+        <v>7</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="5"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="2"/>
-      <c r="T7" s="1"/>
+      <c r="T7" s="1">
+        <v>97</v>
+      </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="T8" s="1"/>
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="J8" s="1">
+        <v>98</v>
+      </c>
+      <c r="K8" s="1">
+        <v>8</v>
+      </c>
+      <c r="T8" s="1">
+        <v>98</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="T9" s="1"/>
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="J9" s="1">
+        <v>99</v>
+      </c>
+      <c r="K9" s="1">
+        <v>9</v>
+      </c>
+      <c r="T9" s="1">
+        <v>99</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1">
+        <v>60</v>
+      </c>
+      <c r="G10" s="1">
+        <v>70</v>
+      </c>
+      <c r="H10" s="1">
+        <v>80</v>
+      </c>
+      <c r="I10" s="1">
+        <v>90</v>
+      </c>
+      <c r="J10" s="1">
+        <v>100</v>
+      </c>
+      <c r="K10" s="1">
+        <v>10</v>
+      </c>
+      <c r="L10" s="1">
+        <v>20</v>
+      </c>
+      <c r="M10" s="1">
+        <v>30</v>
+      </c>
+      <c r="N10" s="1">
+        <v>40</v>
+      </c>
+      <c r="O10" s="1">
+        <v>50</v>
+      </c>
+      <c r="P10" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>70</v>
+      </c>
+      <c r="R10" s="1">
+        <v>80</v>
+      </c>
+      <c r="S10" s="1">
+        <v>90</v>
+      </c>
+      <c r="T10" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1">
+        <v>51</v>
+      </c>
+      <c r="G11" s="1">
+        <v>61</v>
+      </c>
+      <c r="H11" s="1">
+        <v>71</v>
+      </c>
+      <c r="I11" s="1">
+        <v>81</v>
+      </c>
+      <c r="J11" s="1">
+        <v>91</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>11</v>
+      </c>
+      <c r="M11" s="1">
+        <v>21</v>
+      </c>
+      <c r="N11" s="1">
+        <v>31</v>
+      </c>
+      <c r="O11" s="1">
+        <v>41</v>
+      </c>
+      <c r="P11" s="1">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>61</v>
+      </c>
+      <c r="R11" s="1">
+        <v>71</v>
+      </c>
+      <c r="S11" s="1">
+        <v>81</v>
+      </c>
+      <c r="T11" s="1">
+        <v>91</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="T12" s="1"/>
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>92</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+      <c r="T12" s="1">
+        <v>92</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1">
+        <v>93</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3</v>
+      </c>
       <c r="M13" s="5"/>
       <c r="N13" s="2"/>
       <c r="O13" s="5"/>
-      <c r="T13" s="1"/>
+      <c r="T13" s="1">
+        <v>93</v>
+      </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="5"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="J14" s="1">
+        <v>94</v>
+      </c>
+      <c r="K14" s="1">
+        <v>4</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="T14" s="1"/>
+      <c r="T14" s="1">
+        <v>94</v>
+      </c>
     </row>
     <row r="15" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>5</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="G15" s="2"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="J15" s="1">
+        <v>95</v>
+      </c>
+      <c r="K15" s="1">
+        <v>5</v>
+      </c>
       <c r="L15" s="4"/>
       <c r="M15" s="6"/>
       <c r="O15" s="3"/>
-      <c r="T15" s="1"/>
+      <c r="T15" s="1">
+        <v>95</v>
+      </c>
     </row>
     <row r="16" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1">
+        <v>6</v>
+      </c>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="G16" s="6"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="J16" s="1">
+        <v>96</v>
+      </c>
+      <c r="K16" s="1">
+        <v>6</v>
+      </c>
       <c r="M16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="T16" s="1"/>
+      <c r="T16" s="1">
+        <v>96</v>
+      </c>
     </row>
     <row r="17" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1">
+        <v>7</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="J17" s="1">
+        <v>97</v>
+      </c>
+      <c r="K17" s="1">
+        <v>7</v>
+      </c>
       <c r="M17" s="2"/>
       <c r="N17" s="5"/>
       <c r="O17" s="2"/>
-      <c r="T17" s="1"/>
+      <c r="T17" s="1">
+        <v>97</v>
+      </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="T18" s="1"/>
+      <c r="A18" s="1">
+        <v>8</v>
+      </c>
+      <c r="J18" s="1">
+        <v>98</v>
+      </c>
+      <c r="K18" s="1">
+        <v>8</v>
+      </c>
+      <c r="T18" s="1">
+        <v>98</v>
+      </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="T19" s="1"/>
+      <c r="A19" s="1">
+        <v>9</v>
+      </c>
+      <c r="J19" s="1">
+        <v>99</v>
+      </c>
+      <c r="K19" s="1">
+        <v>9</v>
+      </c>
+      <c r="T19" s="1">
+        <v>99</v>
+      </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
+      <c r="A20" s="1">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1">
+        <v>40</v>
+      </c>
+      <c r="E20" s="1">
+        <v>50</v>
+      </c>
+      <c r="F20" s="1">
+        <v>60</v>
+      </c>
+      <c r="G20" s="1">
+        <v>70</v>
+      </c>
+      <c r="H20" s="1">
+        <v>80</v>
+      </c>
+      <c r="I20" s="1">
+        <v>90</v>
+      </c>
+      <c r="J20" s="1">
+        <v>100</v>
+      </c>
+      <c r="K20" s="1">
+        <v>10</v>
+      </c>
+      <c r="L20" s="1">
+        <v>20</v>
+      </c>
+      <c r="M20" s="1">
+        <v>30</v>
+      </c>
+      <c r="N20" s="1">
+        <v>40</v>
+      </c>
+      <c r="O20" s="1">
+        <v>50</v>
+      </c>
+      <c r="P20" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>70</v>
+      </c>
+      <c r="R20" s="1">
+        <v>80</v>
+      </c>
+      <c r="S20" s="1">
+        <v>90</v>
+      </c>
+      <c r="T20" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1">
+        <v>21</v>
+      </c>
+      <c r="D21" s="1">
+        <v>31</v>
+      </c>
+      <c r="E21" s="1">
+        <v>41</v>
+      </c>
+      <c r="F21" s="1">
+        <v>51</v>
+      </c>
+      <c r="G21" s="1">
+        <v>61</v>
+      </c>
+      <c r="H21" s="1">
+        <v>71</v>
+      </c>
+      <c r="I21" s="1">
+        <v>81</v>
+      </c>
+      <c r="J21" s="1">
+        <v>91</v>
+      </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1">
+        <v>92</v>
+      </c>
     </row>
     <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1">
+        <v>3</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
       <c r="F23" s="5"/>
       <c r="G23" s="2"/>
-      <c r="J23" s="1"/>
+      <c r="J23" s="1">
+        <v>93</v>
+      </c>
     </row>
     <row r="24" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1">
+        <v>4</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="E24" s="2"/>
       <c r="G24" s="6"/>
-      <c r="J24" s="1"/>
+      <c r="J24" s="1">
+        <v>94</v>
+      </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1">
+        <v>5</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="E25" s="3"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="J25" s="1"/>
+      <c r="J25" s="1">
+        <v>95</v>
+      </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1">
+        <v>6</v>
+      </c>
       <c r="C26" s="4"/>
-      <c r="J26" s="1"/>
+      <c r="J26" s="1">
+        <v>96</v>
+      </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="A27" s="1">
+        <v>7</v>
+      </c>
+      <c r="J27" s="1">
+        <v>97</v>
+      </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="A28" s="1">
+        <v>8</v>
+      </c>
+      <c r="J28" s="1">
+        <v>98</v>
+      </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="A29" s="1">
+        <v>9</v>
+      </c>
+      <c r="J29" s="1">
+        <v>99</v>
+      </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="A30" s="1">
+        <v>10</v>
+      </c>
+      <c r="B30" s="1">
+        <v>20</v>
+      </c>
+      <c r="C30" s="1">
+        <v>30</v>
+      </c>
+      <c r="D30" s="1">
+        <v>40</v>
+      </c>
+      <c r="E30" s="1">
+        <v>50</v>
+      </c>
+      <c r="F30" s="1">
+        <v>60</v>
+      </c>
+      <c r="G30" s="1">
+        <v>70</v>
+      </c>
+      <c r="H30" s="1">
+        <v>80</v>
+      </c>
+      <c r="I30" s="1">
+        <v>90</v>
+      </c>
+      <c r="J30" s="1">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2513,321 +2873,681 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1">
+        <v>61</v>
+      </c>
+      <c r="H1" s="1">
+        <v>71</v>
+      </c>
+      <c r="I1" s="1">
+        <v>81</v>
+      </c>
+      <c r="J1" s="1">
+        <v>91</v>
+      </c>
+      <c r="K1" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1">
+        <v>31</v>
+      </c>
+      <c r="O1" s="1">
+        <v>41</v>
+      </c>
+      <c r="P1" s="1">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>61</v>
+      </c>
+      <c r="R1" s="1">
+        <v>71</v>
+      </c>
+      <c r="S1" s="1">
+        <v>81</v>
+      </c>
+      <c r="T1" s="1">
+        <v>91</v>
+      </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>92</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2</v>
+      </c>
+      <c r="T2" s="1">
+        <v>92</v>
+      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
       <c r="F3" s="4"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="J3" s="1">
+        <v>93</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3</v>
+      </c>
       <c r="N3" s="2"/>
       <c r="O3" s="5"/>
       <c r="P3" s="2"/>
-      <c r="T3" s="1"/>
+      <c r="T3" s="1">
+        <v>93</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
       <c r="C4" s="2"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="J4" s="1">
+        <v>94</v>
+      </c>
+      <c r="K4" s="1">
+        <v>4</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="T4" s="1"/>
+      <c r="T4" s="1">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="E5" s="3"/>
       <c r="F5" s="2"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="J5" s="1">
+        <v>95</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="4"/>
-      <c r="T5" s="1"/>
+      <c r="T5" s="1">
+        <v>95</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
       <c r="C6" s="5"/>
       <c r="F6" s="2"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="J6" s="1">
+        <v>96</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6</v>
+      </c>
       <c r="N6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="T6" s="1"/>
+      <c r="T6" s="1">
+        <v>96</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="5"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="J7" s="1">
+        <v>97</v>
+      </c>
+      <c r="K7" s="1">
+        <v>7</v>
+      </c>
       <c r="N7" s="2"/>
       <c r="O7" s="5"/>
       <c r="P7" s="2"/>
-      <c r="T7" s="1"/>
+      <c r="T7" s="1">
+        <v>97</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="T8" s="1"/>
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="J8" s="1">
+        <v>98</v>
+      </c>
+      <c r="K8" s="1">
+        <v>8</v>
+      </c>
+      <c r="T8" s="1">
+        <v>98</v>
+      </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="T9" s="1"/>
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="J9" s="1">
+        <v>99</v>
+      </c>
+      <c r="K9" s="1">
+        <v>9</v>
+      </c>
+      <c r="T9" s="1">
+        <v>99</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1">
+        <v>60</v>
+      </c>
+      <c r="G10" s="1">
+        <v>70</v>
+      </c>
+      <c r="H10" s="1">
+        <v>80</v>
+      </c>
+      <c r="I10" s="1">
+        <v>90</v>
+      </c>
+      <c r="J10" s="1">
+        <v>100</v>
+      </c>
+      <c r="K10" s="1">
+        <v>10</v>
+      </c>
+      <c r="L10" s="1">
+        <v>20</v>
+      </c>
+      <c r="M10" s="1">
+        <v>30</v>
+      </c>
+      <c r="N10" s="1">
+        <v>40</v>
+      </c>
+      <c r="O10" s="1">
+        <v>50</v>
+      </c>
+      <c r="P10" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>70</v>
+      </c>
+      <c r="R10" s="1">
+        <v>80</v>
+      </c>
+      <c r="S10" s="1">
+        <v>90</v>
+      </c>
+      <c r="T10" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1">
+        <v>51</v>
+      </c>
+      <c r="G11" s="1">
+        <v>61</v>
+      </c>
+      <c r="H11" s="1">
+        <v>71</v>
+      </c>
+      <c r="I11" s="1">
+        <v>81</v>
+      </c>
+      <c r="J11" s="1">
+        <v>91</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>11</v>
+      </c>
+      <c r="M11" s="1">
+        <v>21</v>
+      </c>
+      <c r="N11" s="1">
+        <v>31</v>
+      </c>
+      <c r="O11" s="1">
+        <v>41</v>
+      </c>
+      <c r="P11" s="1">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>61</v>
+      </c>
+      <c r="R11" s="1">
+        <v>71</v>
+      </c>
+      <c r="S11" s="1">
+        <v>81</v>
+      </c>
+      <c r="T11" s="1">
+        <v>91</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="T12" s="1"/>
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>92</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+      <c r="T12" s="1">
+        <v>92</v>
+      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="4"/>
       <c r="G13" s="2"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="J13" s="1">
+        <v>93</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3</v>
+      </c>
       <c r="O13" s="5"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="T13" s="1"/>
+      <c r="T13" s="1">
+        <v>93</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="J14" s="1">
+        <v>94</v>
+      </c>
+      <c r="K14" s="1">
+        <v>4</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="Q14" s="2"/>
-      <c r="T14" s="1"/>
+      <c r="T14" s="1">
+        <v>94</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>5</v>
+      </c>
       <c r="C15" s="5"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3"/>
       <c r="F15" s="2"/>
       <c r="G15" s="5"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="J15" s="1">
+        <v>95</v>
+      </c>
+      <c r="K15" s="1">
+        <v>5</v>
+      </c>
       <c r="M15" s="5"/>
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="5"/>
-      <c r="T15" s="1"/>
+      <c r="T15" s="1">
+        <v>95</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1">
+        <v>6</v>
+      </c>
       <c r="C16" s="2"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="J16" s="1">
+        <v>96</v>
+      </c>
+      <c r="K16" s="1">
+        <v>6</v>
+      </c>
       <c r="O16" s="2"/>
-      <c r="T16" s="1"/>
+      <c r="T16" s="1">
+        <v>96</v>
+      </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1">
+        <v>7</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="J17" s="1">
+        <v>97</v>
+      </c>
+      <c r="K17" s="1">
+        <v>7</v>
+      </c>
       <c r="O17" s="2"/>
-      <c r="T17" s="1"/>
+      <c r="T17" s="1">
+        <v>97</v>
+      </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1">
+        <v>8</v>
+      </c>
       <c r="D18" s="5"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="J18" s="1">
+        <v>98</v>
+      </c>
+      <c r="K18" s="1">
+        <v>8</v>
+      </c>
       <c r="O18" s="2"/>
-      <c r="T18" s="1"/>
+      <c r="T18" s="1">
+        <v>98</v>
+      </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="A19" s="1">
+        <v>9</v>
+      </c>
+      <c r="J19" s="1">
+        <v>99</v>
+      </c>
+      <c r="K19" s="1">
+        <v>9</v>
+      </c>
       <c r="O19" s="4"/>
-      <c r="T19" s="1"/>
+      <c r="T19" s="1">
+        <v>99</v>
+      </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
+      <c r="A20" s="1">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1">
+        <v>40</v>
+      </c>
+      <c r="E20" s="1">
+        <v>50</v>
+      </c>
+      <c r="F20" s="1">
+        <v>60</v>
+      </c>
+      <c r="G20" s="1">
+        <v>70</v>
+      </c>
+      <c r="H20" s="1">
+        <v>80</v>
+      </c>
+      <c r="I20" s="1">
+        <v>90</v>
+      </c>
+      <c r="J20" s="1">
+        <v>100</v>
+      </c>
+      <c r="K20" s="1">
+        <v>10</v>
+      </c>
+      <c r="L20" s="1">
+        <v>20</v>
+      </c>
+      <c r="M20" s="1">
+        <v>30</v>
+      </c>
+      <c r="N20" s="1">
+        <v>40</v>
+      </c>
+      <c r="O20" s="1">
+        <v>50</v>
+      </c>
+      <c r="P20" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>70</v>
+      </c>
+      <c r="R20" s="1">
+        <v>80</v>
+      </c>
+      <c r="S20" s="1">
+        <v>90</v>
+      </c>
+      <c r="T20" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1">
+        <v>21</v>
+      </c>
+      <c r="D21" s="1">
+        <v>31</v>
+      </c>
+      <c r="E21" s="1">
+        <v>41</v>
+      </c>
+      <c r="F21" s="1">
+        <v>51</v>
+      </c>
+      <c r="G21" s="1">
+        <v>61</v>
+      </c>
+      <c r="H21" s="1">
+        <v>71</v>
+      </c>
+      <c r="I21" s="1">
+        <v>81</v>
+      </c>
+      <c r="J21" s="1">
+        <v>91</v>
+      </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1">
+        <v>92</v>
+      </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="A23" s="1">
+        <v>3</v>
+      </c>
+      <c r="J23" s="1">
+        <v>93</v>
+      </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1">
+        <v>4</v>
+      </c>
       <c r="G24" s="5"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="1"/>
+      <c r="J24" s="1">
+        <v>94</v>
+      </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1">
+        <v>5</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="1"/>
+      <c r="J25" s="1">
+        <v>95</v>
+      </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1">
+        <v>6</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="1"/>
+      <c r="J26" s="1">
+        <v>96</v>
+      </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1">
+        <v>7</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="J27" s="1"/>
+      <c r="J27" s="1">
+        <v>97</v>
+      </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1">
+        <v>8</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="5"/>
-      <c r="J28" s="1"/>
+      <c r="J28" s="1">
+        <v>98</v>
+      </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1">
+        <v>9</v>
+      </c>
       <c r="E29" s="4"/>
-      <c r="J29" s="1"/>
+      <c r="J29" s="1">
+        <v>99</v>
+      </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="A30" s="1">
+        <v>10</v>
+      </c>
+      <c r="B30" s="1">
+        <v>20</v>
+      </c>
+      <c r="C30" s="1">
+        <v>30</v>
+      </c>
+      <c r="D30" s="1">
+        <v>40</v>
+      </c>
+      <c r="E30" s="1">
+        <v>50</v>
+      </c>
+      <c r="F30" s="1">
+        <v>60</v>
+      </c>
+      <c r="G30" s="1">
+        <v>70</v>
+      </c>
+      <c r="H30" s="1">
+        <v>80</v>
+      </c>
+      <c r="I30" s="1">
+        <v>90</v>
+      </c>
+      <c r="J30" s="1">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TonTunaDungeon/src/pisosproyecto.xlsx
+++ b/TonTunaDungeon/src/pisosproyecto.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CFGS\PROGRAMACION\Java\NetBeans\TonTuna-Dungeon\TonTunaDungeon\src\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Piso1" sheetId="1" r:id="rId1"/>
@@ -23,18 +18,41 @@
     <sheet name="Piso9" sheetId="9" r:id="rId9"/>
     <sheet name="Piso10" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>//El tipo de contenido se utiliza con un entero:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //0 = Vacia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //1 = Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //2 = Tesoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //3 = Guardado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //4 = Siguiente nivel</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,7 +284,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -318,7 +336,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -512,23 +530,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -570,7 +588,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -580,7 +598,7 @@
       <c r="K2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -590,7 +608,7 @@
       <c r="K3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -600,7 +618,7 @@
       <c r="K4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -615,7 +633,7 @@
       <c r="P5" s="2"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -630,7 +648,7 @@
       <c r="P6" s="2"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -646,7 +664,7 @@
       <c r="P7" s="2"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -656,7 +674,7 @@
       <c r="K8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -666,7 +684,7 @@
       <c r="K9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -708,7 +726,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -730,13 +748,13 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="1"/>
       <c r="C13" s="4"/>
       <c r="D13" s="2"/>
@@ -746,7 +764,7 @@
       <c r="K13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14" s="1"/>
       <c r="E14" s="2"/>
       <c r="J14" s="1"/>
@@ -754,7 +772,7 @@
       <c r="O14" s="2"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" s="1"/>
       <c r="E15" s="3"/>
       <c r="J15" s="1"/>
@@ -764,7 +782,7 @@
       <c r="P15" s="2"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16" s="1"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -773,28 +791,28 @@
       <c r="O16" s="2"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20">
       <c r="A17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="O17" s="2"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="O18" s="2"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="O19" s="4"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -816,7 +834,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -828,21 +846,21 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20">
       <c r="A22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20">
       <c r="A23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24" s="1"/>
       <c r="B24" s="5"/>
       <c r="C24" s="2"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25" s="1"/>
       <c r="B25" s="4"/>
       <c r="C25" s="2"/>
@@ -850,25 +868,25 @@
       <c r="E25" s="3"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20">
       <c r="A27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20">
       <c r="A28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20">
       <c r="A29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -886,16 +904,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="9"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -937,13 +955,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" s="9"/>
       <c r="D3" s="2"/>
       <c r="E3" s="5"/>
@@ -957,7 +975,7 @@
       <c r="Q3" s="5"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1">
       <c r="A4" s="1"/>
       <c r="C4" s="2"/>
       <c r="E4" s="2"/>
@@ -969,7 +987,7 @@
       <c r="Q4" s="2"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="9"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
@@ -986,7 +1004,7 @@
       <c r="Q5" s="2"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="15.75" thickTop="1">
       <c r="A6" s="1"/>
       <c r="C6" s="2"/>
       <c r="E6" s="2"/>
@@ -1000,7 +1018,7 @@
       <c r="Q6" s="2"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="15.75" thickBot="1">
       <c r="A7" s="9"/>
       <c r="D7" s="2"/>
       <c r="E7" s="5"/>
@@ -1011,7 +1029,7 @@
       <c r="Q7" s="5"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="1"/>
       <c r="E8" s="2"/>
       <c r="J8" s="1"/>
@@ -1024,7 +1042,7 @@
       <c r="Q8" s="2"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="15.75" thickTop="1">
       <c r="A9" s="9"/>
       <c r="D9" s="10"/>
       <c r="E9" s="5"/>
@@ -1033,7 +1051,7 @@
       <c r="K9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1055,7 +1073,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1077,7 +1095,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" s="1"/>
       <c r="E12" s="5"/>
       <c r="H12" s="2"/>
@@ -1086,7 +1104,7 @@
       <c r="M12" s="2"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="15.75" thickBot="1">
       <c r="A13" s="1"/>
       <c r="E13" s="2"/>
       <c r="H13" s="2"/>
@@ -1096,7 +1114,7 @@
       <c r="O13" s="5"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="5"/>
@@ -1113,7 +1131,7 @@
       <c r="Q14" s="5"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="1"/>
       <c r="E15" s="3"/>
       <c r="H15" s="5"/>
@@ -1126,7 +1144,7 @@
       <c r="R15" s="2"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="15.75" thickTop="1">
       <c r="A16" s="1"/>
       <c r="C16" s="4"/>
       <c r="D16" s="2"/>
@@ -1143,7 +1161,7 @@
       <c r="Q16" s="2"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20">
       <c r="A17" s="1"/>
       <c r="E17" s="2"/>
       <c r="H17" s="2"/>
@@ -1152,7 +1170,7 @@
       <c r="Q17" s="5"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18" s="1"/>
       <c r="E18" s="5"/>
       <c r="H18" s="2"/>
@@ -1161,14 +1179,14 @@
       <c r="Q18" s="2"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="Q19" s="4"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1190,7 +1208,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1202,22 +1220,22 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20">
       <c r="A22" s="1"/>
       <c r="I22" s="4"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20">
       <c r="A23" s="1"/>
       <c r="I23" s="5"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24" s="1"/>
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25" s="1"/>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
@@ -1227,7 +1245,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="15.75" thickBot="1">
       <c r="A26" s="1"/>
       <c r="B26" s="5"/>
       <c r="C26" s="2"/>
@@ -1236,7 +1254,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="1"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1246,17 +1264,17 @@
       <c r="I27" s="2"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="15.75" thickTop="1">
       <c r="A28" s="1"/>
       <c r="I28" s="2"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20">
       <c r="A29" s="1"/>
       <c r="I29" s="2"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1274,16 +1292,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1305,13 +1323,13 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" s="1"/>
       <c r="C3" s="4"/>
       <c r="J3" s="1"/>
@@ -1321,7 +1339,7 @@
       <c r="O3" s="5"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" s="1"/>
       <c r="C4" s="5"/>
       <c r="J4" s="1"/>
@@ -1330,7 +1348,7 @@
       <c r="O4" s="2"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1341,7 +1359,7 @@
       <c r="O5" s="3"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" s="1"/>
       <c r="F6" s="2"/>
       <c r="J6" s="1"/>
@@ -1351,7 +1369,7 @@
       <c r="O6" s="5"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" s="1"/>
       <c r="F7" s="2"/>
       <c r="G7" s="5"/>
@@ -1359,19 +1377,19 @@
       <c r="K7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1393,7 +1411,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1415,14 +1433,14 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" s="1"/>
       <c r="D12" s="4"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="1"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1431,7 +1449,7 @@
       <c r="O13" s="2"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14" s="1"/>
       <c r="E14" s="2"/>
       <c r="J14" s="1"/>
@@ -1439,7 +1457,7 @@
       <c r="O14" s="5"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" s="1"/>
       <c r="E15" s="3"/>
       <c r="F15" s="2"/>
@@ -1454,7 +1472,7 @@
       <c r="R15" s="4"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16" s="1"/>
       <c r="E16" s="2"/>
       <c r="J16" s="1"/>
@@ -1462,26 +1480,26 @@
       <c r="O16" s="2"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20">
       <c r="A17" s="1"/>
       <c r="E17" s="5"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1503,7 +1521,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1515,48 +1533,48 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20">
       <c r="A22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20">
       <c r="A23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24" s="1"/>
       <c r="G24" s="4"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25" s="1"/>
       <c r="E25" s="3"/>
       <c r="F25" s="5"/>
       <c r="G25" s="2"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20">
       <c r="A26" s="1"/>
       <c r="E26" s="2"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20">
       <c r="A27" s="1"/>
       <c r="E27" s="2"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20">
       <c r="A28" s="1"/>
       <c r="E28" s="2"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20">
       <c r="A29" s="1"/>
       <c r="E29" s="5"/>
       <c r="F29" s="2"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1574,16 +1592,458 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="5.42578125" customWidth="1"/>
+    <col min="14" max="14" width="4.7109375" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" customWidth="1"/>
+    <col min="17" max="17" width="5.42578125" customWidth="1"/>
+    <col min="18" max="18" width="4.5703125" customWidth="1"/>
+    <col min="19" max="19" width="4" customWidth="1"/>
+    <col min="20" max="20" width="5.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1">
+        <v>4</v>
+      </c>
+      <c r="P1" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>6</v>
+      </c>
+      <c r="R1" s="1">
+        <v>7</v>
+      </c>
+      <c r="S1" s="1">
+        <v>8</v>
+      </c>
+      <c r="T1" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="M4" s="5"/>
+      <c r="O4" s="6"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" thickTop="1">
+      <c r="A5" s="1"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="O6" s="2"/>
+      <c r="Q6" s="5"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A7" s="1"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="O7" s="4"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" thickTop="1">
+      <c r="A8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1">
+        <v>8</v>
+      </c>
+      <c r="J11" s="1">
+        <v>9</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2</v>
+      </c>
+      <c r="N11" s="1">
+        <v>3</v>
+      </c>
+      <c r="O11" s="1">
+        <v>4</v>
+      </c>
+      <c r="P11" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>6</v>
+      </c>
+      <c r="R11" s="1">
+        <v>7</v>
+      </c>
+      <c r="S11" s="1">
+        <v>8</v>
+      </c>
+      <c r="T11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="M13" s="2"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="M14" s="5"/>
+      <c r="O14" s="2"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A15" s="1"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="5"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="3"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="H16" s="4"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="M16" s="5"/>
+      <c r="O16" s="2"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A17" s="1"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="2"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="M17" s="2"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" ht="15.75" thickTop="1">
+      <c r="A18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1">
+        <v>6</v>
+      </c>
+      <c r="H21" s="1">
+        <v>7</v>
+      </c>
+      <c r="I21" s="1">
+        <v>8</v>
+      </c>
+      <c r="J21" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="L22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="4"/>
+      <c r="J23" s="1"/>
+      <c r="L23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1"/>
+      <c r="E24" s="2"/>
+      <c r="J24" s="1"/>
+      <c r="L24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A25" s="1"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="J25" s="1"/>
+      <c r="L25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A26" s="1"/>
+      <c r="C26" s="6"/>
+      <c r="J26" s="1"/>
+      <c r="L26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="15.75" thickTop="1">
+      <c r="A27" s="1"/>
+      <c r="C27" s="5"/>
+      <c r="J27" s="1"/>
+      <c r="L27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1605,74 +2065,78 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20">
       <c r="A3" s="1"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="5"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
+      <c r="Q3" s="4"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20">
       <c r="A4" s="1"/>
       <c r="E4" s="2"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="M4" s="5"/>
-      <c r="O4" s="6"/>
+      <c r="Q4" s="2"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="3"/>
       <c r="F5" s="2"/>
+      <c r="G5" s="5"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20">
       <c r="A6" s="1"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="E6" s="2"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="O6" s="2"/>
-      <c r="Q6" s="5"/>
+      <c r="N6" s="2"/>
+      <c r="Q6" s="2"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20">
       <c r="A7" s="1"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
+      <c r="E7" s="2"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="O7" s="4"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="5"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1694,7 +2158,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1716,75 +2180,79 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="2"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="M13" s="2"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20">
       <c r="A14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="4"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="M14" s="5"/>
-      <c r="O14" s="2"/>
+      <c r="M14" s="2"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20">
       <c r="A15" s="1"/>
       <c r="E15" s="3"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="5"/>
+      <c r="H15" s="2"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="6"/>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20">
       <c r="A16" s="1"/>
-      <c r="E16" s="2"/>
-      <c r="H16" s="4"/>
+      <c r="H16" s="5"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="M16" s="5"/>
       <c r="O16" s="2"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20">
       <c r="A17" s="1"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="2"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="M17" s="2"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="2"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1806,7 +2274,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1818,48 +2286,51 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20">
       <c r="A22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20">
       <c r="A23" s="1"/>
+      <c r="D23" s="2"/>
       <c r="E23" s="5"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="4"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24" s="1"/>
       <c r="E24" s="2"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20">
       <c r="A25" s="1"/>
+      <c r="B25" s="4"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20">
       <c r="A26" s="1"/>
-      <c r="C26" s="6"/>
+      <c r="G26" s="5"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20">
       <c r="A27" s="1"/>
-      <c r="C27" s="5"/>
+      <c r="G27" s="2"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20">
       <c r="A28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20">
       <c r="A29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1876,17 +2347,1381 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1">
+        <v>61</v>
+      </c>
+      <c r="H1" s="1">
+        <v>71</v>
+      </c>
+      <c r="I1" s="1">
+        <v>81</v>
+      </c>
+      <c r="J1" s="1">
+        <v>91</v>
+      </c>
+      <c r="K1" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1">
+        <v>31</v>
+      </c>
+      <c r="O1" s="1">
+        <v>41</v>
+      </c>
+      <c r="P1" s="1">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>61</v>
+      </c>
+      <c r="R1" s="1">
+        <v>71</v>
+      </c>
+      <c r="S1" s="1">
+        <v>81</v>
+      </c>
+      <c r="T1" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>92</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2</v>
+      </c>
+      <c r="T2" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="J3" s="1">
+        <v>93</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3</v>
+      </c>
+      <c r="T3" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="J4" s="1">
+        <v>94</v>
+      </c>
+      <c r="K4" s="1">
+        <v>4</v>
+      </c>
+      <c r="T4" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" thickTop="1">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="J5" s="1">
+        <v>95</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="5"/>
+      <c r="T5" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="J6" s="1">
+        <v>96</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="O6" s="2"/>
+      <c r="Q6" s="4"/>
+      <c r="T6" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="2"/>
+      <c r="J7" s="1">
+        <v>97</v>
+      </c>
+      <c r="K7" s="1">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="2"/>
+      <c r="T7" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" thickTop="1">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="J8" s="1">
+        <v>98</v>
+      </c>
+      <c r="K8" s="1">
+        <v>8</v>
+      </c>
+      <c r="T8" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="J9" s="1">
+        <v>99</v>
+      </c>
+      <c r="K9" s="1">
+        <v>9</v>
+      </c>
+      <c r="T9" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1">
+        <v>60</v>
+      </c>
+      <c r="G10" s="1">
+        <v>70</v>
+      </c>
+      <c r="H10" s="1">
+        <v>80</v>
+      </c>
+      <c r="I10" s="1">
+        <v>90</v>
+      </c>
+      <c r="J10" s="1">
+        <v>100</v>
+      </c>
+      <c r="K10" s="1">
+        <v>10</v>
+      </c>
+      <c r="L10" s="1">
+        <v>20</v>
+      </c>
+      <c r="M10" s="1">
+        <v>30</v>
+      </c>
+      <c r="N10" s="1">
+        <v>40</v>
+      </c>
+      <c r="O10" s="1">
+        <v>50</v>
+      </c>
+      <c r="P10" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>70</v>
+      </c>
+      <c r="R10" s="1">
+        <v>80</v>
+      </c>
+      <c r="S10" s="1">
+        <v>90</v>
+      </c>
+      <c r="T10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1">
+        <v>51</v>
+      </c>
+      <c r="G11" s="1">
+        <v>61</v>
+      </c>
+      <c r="H11" s="1">
+        <v>71</v>
+      </c>
+      <c r="I11" s="1">
+        <v>81</v>
+      </c>
+      <c r="J11" s="1">
+        <v>91</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>11</v>
+      </c>
+      <c r="M11" s="1">
+        <v>21</v>
+      </c>
+      <c r="N11" s="1">
+        <v>31</v>
+      </c>
+      <c r="O11" s="1">
+        <v>41</v>
+      </c>
+      <c r="P11" s="1">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>61</v>
+      </c>
+      <c r="R11" s="1">
+        <v>71</v>
+      </c>
+      <c r="S11" s="1">
+        <v>81</v>
+      </c>
+      <c r="T11" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>92</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+      <c r="T12" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1">
+        <v>93</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="5"/>
+      <c r="T13" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="5"/>
+      <c r="J14" s="1">
+        <v>94</v>
+      </c>
+      <c r="K14" s="1">
+        <v>4</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="T14" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="G15" s="2"/>
+      <c r="J15" s="1">
+        <v>95</v>
+      </c>
+      <c r="K15" s="1">
+        <v>5</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="6"/>
+      <c r="O15" s="3"/>
+      <c r="T15" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A16" s="1">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="J16" s="1">
+        <v>96</v>
+      </c>
+      <c r="K16" s="1">
+        <v>6</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="T16" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="15.75" thickTop="1">
+      <c r="A17" s="1">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="J17" s="1">
+        <v>97</v>
+      </c>
+      <c r="K17" s="1">
+        <v>7</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="2"/>
+      <c r="T17" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="1">
+        <v>8</v>
+      </c>
+      <c r="J18" s="1">
+        <v>98</v>
+      </c>
+      <c r="K18" s="1">
+        <v>8</v>
+      </c>
+      <c r="T18" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="1">
+        <v>9</v>
+      </c>
+      <c r="J19" s="1">
+        <v>99</v>
+      </c>
+      <c r="K19" s="1">
+        <v>9</v>
+      </c>
+      <c r="T19" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1">
+        <v>40</v>
+      </c>
+      <c r="E20" s="1">
+        <v>50</v>
+      </c>
+      <c r="F20" s="1">
+        <v>60</v>
+      </c>
+      <c r="G20" s="1">
+        <v>70</v>
+      </c>
+      <c r="H20" s="1">
+        <v>80</v>
+      </c>
+      <c r="I20" s="1">
+        <v>90</v>
+      </c>
+      <c r="J20" s="1">
+        <v>100</v>
+      </c>
+      <c r="K20" s="1">
+        <v>10</v>
+      </c>
+      <c r="L20" s="1">
+        <v>20</v>
+      </c>
+      <c r="M20" s="1">
+        <v>30</v>
+      </c>
+      <c r="N20" s="1">
+        <v>40</v>
+      </c>
+      <c r="O20" s="1">
+        <v>50</v>
+      </c>
+      <c r="P20" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>70</v>
+      </c>
+      <c r="R20" s="1">
+        <v>80</v>
+      </c>
+      <c r="S20" s="1">
+        <v>90</v>
+      </c>
+      <c r="T20" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1">
+        <v>21</v>
+      </c>
+      <c r="D21" s="1">
+        <v>31</v>
+      </c>
+      <c r="E21" s="1">
+        <v>41</v>
+      </c>
+      <c r="F21" s="1">
+        <v>51</v>
+      </c>
+      <c r="G21" s="1">
+        <v>61</v>
+      </c>
+      <c r="H21" s="1">
+        <v>71</v>
+      </c>
+      <c r="I21" s="1">
+        <v>81</v>
+      </c>
+      <c r="J21" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A23" s="1">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="2"/>
+      <c r="J23" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A24" s="1">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="6"/>
+      <c r="J24" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" thickTop="1">
+      <c r="A25" s="1">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="J25" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>6</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="J26" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>7</v>
+      </c>
+      <c r="J27" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>8</v>
+      </c>
+      <c r="J28" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>9</v>
+      </c>
+      <c r="J29" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>10</v>
+      </c>
+      <c r="B30" s="1">
+        <v>20</v>
+      </c>
+      <c r="C30" s="1">
+        <v>30</v>
+      </c>
+      <c r="D30" s="1">
+        <v>40</v>
+      </c>
+      <c r="E30" s="1">
+        <v>50</v>
+      </c>
+      <c r="F30" s="1">
+        <v>60</v>
+      </c>
+      <c r="G30" s="1">
+        <v>70</v>
+      </c>
+      <c r="H30" s="1">
+        <v>80</v>
+      </c>
+      <c r="I30" s="1">
+        <v>90</v>
+      </c>
+      <c r="J30" s="1">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T30"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11:K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1">
+        <v>61</v>
+      </c>
+      <c r="H1" s="1">
+        <v>71</v>
+      </c>
+      <c r="I1" s="1">
+        <v>81</v>
+      </c>
+      <c r="J1" s="1">
+        <v>91</v>
+      </c>
+      <c r="K1" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1">
+        <v>31</v>
+      </c>
+      <c r="O1" s="1">
+        <v>41</v>
+      </c>
+      <c r="P1" s="1">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>61</v>
+      </c>
+      <c r="R1" s="1">
+        <v>71</v>
+      </c>
+      <c r="S1" s="1">
+        <v>81</v>
+      </c>
+      <c r="T1" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>92</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2</v>
+      </c>
+      <c r="T2" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="4"/>
+      <c r="J3" s="1">
+        <v>93</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="2"/>
+      <c r="T3" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="J4" s="1">
+        <v>94</v>
+      </c>
+      <c r="K4" s="1">
+        <v>4</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="T4" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="J5" s="1">
+        <v>95</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="4"/>
+      <c r="T5" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="F6" s="2"/>
+      <c r="J6" s="1">
+        <v>96</v>
+      </c>
+      <c r="K6" s="1">
+        <v>6</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="T6" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="5"/>
+      <c r="J7" s="1">
+        <v>97</v>
+      </c>
+      <c r="K7" s="1">
+        <v>7</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="2"/>
+      <c r="T7" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="J8" s="1">
+        <v>98</v>
+      </c>
+      <c r="K8" s="1">
+        <v>8</v>
+      </c>
+      <c r="T8" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="J9" s="1">
+        <v>99</v>
+      </c>
+      <c r="K9" s="1">
+        <v>9</v>
+      </c>
+      <c r="T9" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1">
+        <v>50</v>
+      </c>
+      <c r="F10" s="1">
+        <v>60</v>
+      </c>
+      <c r="G10" s="1">
+        <v>70</v>
+      </c>
+      <c r="H10" s="1">
+        <v>80</v>
+      </c>
+      <c r="I10" s="1">
+        <v>90</v>
+      </c>
+      <c r="J10" s="1">
+        <v>100</v>
+      </c>
+      <c r="K10" s="1">
+        <v>10</v>
+      </c>
+      <c r="L10" s="1">
+        <v>20</v>
+      </c>
+      <c r="M10" s="1">
+        <v>30</v>
+      </c>
+      <c r="N10" s="1">
+        <v>40</v>
+      </c>
+      <c r="O10" s="1">
+        <v>50</v>
+      </c>
+      <c r="P10" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>70</v>
+      </c>
+      <c r="R10" s="1">
+        <v>80</v>
+      </c>
+      <c r="S10" s="1">
+        <v>90</v>
+      </c>
+      <c r="T10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1">
+        <v>51</v>
+      </c>
+      <c r="G11" s="1">
+        <v>61</v>
+      </c>
+      <c r="H11" s="1">
+        <v>71</v>
+      </c>
+      <c r="I11" s="1">
+        <v>81</v>
+      </c>
+      <c r="J11" s="1">
+        <v>91</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>11</v>
+      </c>
+      <c r="M11" s="1">
+        <v>21</v>
+      </c>
+      <c r="N11" s="1">
+        <v>31</v>
+      </c>
+      <c r="O11" s="1">
+        <v>41</v>
+      </c>
+      <c r="P11" s="1">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>61</v>
+      </c>
+      <c r="R11" s="1">
+        <v>71</v>
+      </c>
+      <c r="S11" s="1">
+        <v>81</v>
+      </c>
+      <c r="T11" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>92</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+      <c r="T12" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="2"/>
+      <c r="J13" s="1">
+        <v>93</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3</v>
+      </c>
+      <c r="O13" s="5"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="T13" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="J14" s="1">
+        <v>94</v>
+      </c>
+      <c r="K14" s="1">
+        <v>4</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="T14" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="1">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="5"/>
+      <c r="J15" s="1">
+        <v>95</v>
+      </c>
+      <c r="K15" s="1">
+        <v>5</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="5"/>
+      <c r="T15" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="1">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="J16" s="1">
+        <v>96</v>
+      </c>
+      <c r="K16" s="1">
+        <v>6</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="T16" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="1">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="J17" s="1">
+        <v>97</v>
+      </c>
+      <c r="K17" s="1">
+        <v>7</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="T17" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="1">
+        <v>8</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="J18" s="1">
+        <v>98</v>
+      </c>
+      <c r="K18" s="1">
+        <v>8</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="T18" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="1">
+        <v>9</v>
+      </c>
+      <c r="J19" s="1">
+        <v>99</v>
+      </c>
+      <c r="K19" s="1">
+        <v>9</v>
+      </c>
+      <c r="O19" s="4"/>
+      <c r="T19" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1">
+        <v>40</v>
+      </c>
+      <c r="E20" s="1">
+        <v>50</v>
+      </c>
+      <c r="F20" s="1">
+        <v>60</v>
+      </c>
+      <c r="G20" s="1">
+        <v>70</v>
+      </c>
+      <c r="H20" s="1">
+        <v>80</v>
+      </c>
+      <c r="I20" s="1">
+        <v>90</v>
+      </c>
+      <c r="J20" s="1">
+        <v>100</v>
+      </c>
+      <c r="K20" s="1">
+        <v>10</v>
+      </c>
+      <c r="L20" s="1">
+        <v>20</v>
+      </c>
+      <c r="M20" s="1">
+        <v>30</v>
+      </c>
+      <c r="N20" s="1">
+        <v>40</v>
+      </c>
+      <c r="O20" s="1">
+        <v>50</v>
+      </c>
+      <c r="P20" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>70</v>
+      </c>
+      <c r="R20" s="1">
+        <v>80</v>
+      </c>
+      <c r="S20" s="1">
+        <v>90</v>
+      </c>
+      <c r="T20" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1">
+        <v>21</v>
+      </c>
+      <c r="D21" s="1">
+        <v>31</v>
+      </c>
+      <c r="E21" s="1">
+        <v>41</v>
+      </c>
+      <c r="F21" s="1">
+        <v>51</v>
+      </c>
+      <c r="G21" s="1">
+        <v>61</v>
+      </c>
+      <c r="H21" s="1">
+        <v>71</v>
+      </c>
+      <c r="I21" s="1">
+        <v>81</v>
+      </c>
+      <c r="J21" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>3</v>
+      </c>
+      <c r="J23" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>4</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>6</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>7</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="J27" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="5"/>
+      <c r="J28" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>9</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="J29" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>10</v>
+      </c>
+      <c r="B30" s="1">
+        <v>20</v>
+      </c>
+      <c r="C30" s="1">
+        <v>30</v>
+      </c>
+      <c r="D30" s="1">
+        <v>40</v>
+      </c>
+      <c r="E30" s="1">
+        <v>50</v>
+      </c>
+      <c r="F30" s="1">
+        <v>60</v>
+      </c>
+      <c r="G30" s="1">
+        <v>70</v>
+      </c>
+      <c r="H30" s="1">
+        <v>80</v>
+      </c>
+      <c r="I30" s="1">
+        <v>90</v>
+      </c>
+      <c r="J30" s="1">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:20">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1908,78 +3743,87 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" s="1"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="5"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="Q3" s="4"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1">
       <c r="A4" s="1"/>
+      <c r="C4" s="2"/>
       <c r="E4" s="2"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="Q4" s="2"/>
+      <c r="N4" s="5"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="5"/>
+      <c r="G5" s="6"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
+      <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
       <c r="E6" s="2"/>
+      <c r="G6" s="2"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="N6" s="2"/>
-      <c r="Q6" s="2"/>
+      <c r="M6" s="4"/>
+      <c r="Q6" s="5"/>
+      <c r="S6" s="5"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="1"/>
       <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="5"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="5"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="2"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="15.75" thickTop="1">
       <c r="A8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2001,7 +3845,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2023,79 +3867,87 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="15.75" thickBot="1">
       <c r="A12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="2"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
       <c r="A13" s="1"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="F13" s="2"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="M13" s="2"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="6"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="1"/>
-      <c r="E14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="2"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="P14" s="7"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="5"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="G15" s="6"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="3"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="15.75" thickTop="1">
       <c r="A16" s="1"/>
-      <c r="H16" s="5"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="M16" s="5"/>
-      <c r="O16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="P16" s="2"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20">
       <c r="A17" s="1"/>
+      <c r="G17" s="5"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="M17" s="2"/>
       <c r="N17" s="5"/>
       <c r="O17" s="2"/>
+      <c r="P17" s="5"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
+      <c r="O18" s="4"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2117,7 +3969,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2129,51 +3981,54 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="15.75" thickBot="1">
       <c r="A22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
       <c r="A23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="6"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="15.75" thickTop="1">
       <c r="A24" s="1"/>
       <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="5"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25" s="1"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20">
       <c r="A26" s="1"/>
-      <c r="G26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20">
       <c r="A27" s="1"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
       <c r="G27" s="2"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20">
       <c r="A28" s="1"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="2"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20">
       <c r="A29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2190,1381 +4045,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T30"/>
-  <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1">
-        <v>41</v>
-      </c>
-      <c r="F1" s="1">
-        <v>51</v>
-      </c>
-      <c r="G1" s="1">
-        <v>61</v>
-      </c>
-      <c r="H1" s="1">
-        <v>71</v>
-      </c>
-      <c r="I1" s="1">
-        <v>81</v>
-      </c>
-      <c r="J1" s="1">
-        <v>91</v>
-      </c>
-      <c r="K1" s="1">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1">
-        <v>21</v>
-      </c>
-      <c r="N1" s="1">
-        <v>31</v>
-      </c>
-      <c r="O1" s="1">
-        <v>41</v>
-      </c>
-      <c r="P1" s="1">
-        <v>51</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>61</v>
-      </c>
-      <c r="R1" s="1">
-        <v>71</v>
-      </c>
-      <c r="S1" s="1">
-        <v>81</v>
-      </c>
-      <c r="T1" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1">
-        <v>92</v>
-      </c>
-      <c r="K2" s="1">
-        <v>2</v>
-      </c>
-      <c r="T2" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="J3" s="1">
-        <v>93</v>
-      </c>
-      <c r="K3" s="1">
-        <v>3</v>
-      </c>
-      <c r="T3" s="1">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="J4" s="1">
-        <v>94</v>
-      </c>
-      <c r="K4" s="1">
-        <v>4</v>
-      </c>
-      <c r="T4" s="1">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2"/>
-      <c r="J5" s="1">
-        <v>95</v>
-      </c>
-      <c r="K5" s="1">
-        <v>5</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="5"/>
-      <c r="T5" s="1">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="J6" s="1">
-        <v>96</v>
-      </c>
-      <c r="K6" s="1">
-        <v>6</v>
-      </c>
-      <c r="M6" s="5"/>
-      <c r="O6" s="2"/>
-      <c r="Q6" s="4"/>
-      <c r="T6" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="2"/>
-      <c r="J7" s="1">
-        <v>97</v>
-      </c>
-      <c r="K7" s="1">
-        <v>7</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="2"/>
-      <c r="T7" s="1">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>8</v>
-      </c>
-      <c r="J8" s="1">
-        <v>98</v>
-      </c>
-      <c r="K8" s="1">
-        <v>8</v>
-      </c>
-      <c r="T8" s="1">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>9</v>
-      </c>
-      <c r="J9" s="1">
-        <v>99</v>
-      </c>
-      <c r="K9" s="1">
-        <v>9</v>
-      </c>
-      <c r="T9" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1">
-        <v>40</v>
-      </c>
-      <c r="E10" s="1">
-        <v>50</v>
-      </c>
-      <c r="F10" s="1">
-        <v>60</v>
-      </c>
-      <c r="G10" s="1">
-        <v>70</v>
-      </c>
-      <c r="H10" s="1">
-        <v>80</v>
-      </c>
-      <c r="I10" s="1">
-        <v>90</v>
-      </c>
-      <c r="J10" s="1">
-        <v>100</v>
-      </c>
-      <c r="K10" s="1">
-        <v>10</v>
-      </c>
-      <c r="L10" s="1">
-        <v>20</v>
-      </c>
-      <c r="M10" s="1">
-        <v>30</v>
-      </c>
-      <c r="N10" s="1">
-        <v>40</v>
-      </c>
-      <c r="O10" s="1">
-        <v>50</v>
-      </c>
-      <c r="P10" s="1">
-        <v>60</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>70</v>
-      </c>
-      <c r="R10" s="1">
-        <v>80</v>
-      </c>
-      <c r="S10" s="1">
-        <v>90</v>
-      </c>
-      <c r="T10" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1">
-        <v>21</v>
-      </c>
-      <c r="D11" s="1">
-        <v>31</v>
-      </c>
-      <c r="E11" s="1">
-        <v>41</v>
-      </c>
-      <c r="F11" s="1">
-        <v>51</v>
-      </c>
-      <c r="G11" s="1">
-        <v>61</v>
-      </c>
-      <c r="H11" s="1">
-        <v>71</v>
-      </c>
-      <c r="I11" s="1">
-        <v>81</v>
-      </c>
-      <c r="J11" s="1">
-        <v>91</v>
-      </c>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1">
-        <v>11</v>
-      </c>
-      <c r="M11" s="1">
-        <v>21</v>
-      </c>
-      <c r="N11" s="1">
-        <v>31</v>
-      </c>
-      <c r="O11" s="1">
-        <v>41</v>
-      </c>
-      <c r="P11" s="1">
-        <v>51</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>61</v>
-      </c>
-      <c r="R11" s="1">
-        <v>71</v>
-      </c>
-      <c r="S11" s="1">
-        <v>81</v>
-      </c>
-      <c r="T11" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2</v>
-      </c>
-      <c r="J12" s="1">
-        <v>92</v>
-      </c>
-      <c r="K12" s="1">
-        <v>2</v>
-      </c>
-      <c r="T12" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>3</v>
-      </c>
-      <c r="J13" s="1">
-        <v>93</v>
-      </c>
-      <c r="K13" s="1">
-        <v>3</v>
-      </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="5"/>
-      <c r="T13" s="1">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>4</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="5"/>
-      <c r="J14" s="1">
-        <v>94</v>
-      </c>
-      <c r="K14" s="1">
-        <v>4</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="T14" s="1">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="G15" s="2"/>
-      <c r="J15" s="1">
-        <v>95</v>
-      </c>
-      <c r="K15" s="1">
-        <v>5</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="6"/>
-      <c r="O15" s="3"/>
-      <c r="T15" s="1">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>6</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="J16" s="1">
-        <v>96</v>
-      </c>
-      <c r="K16" s="1">
-        <v>6</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="T16" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>7</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="J17" s="1">
-        <v>97</v>
-      </c>
-      <c r="K17" s="1">
-        <v>7</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="2"/>
-      <c r="T17" s="1">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>8</v>
-      </c>
-      <c r="J18" s="1">
-        <v>98</v>
-      </c>
-      <c r="K18" s="1">
-        <v>8</v>
-      </c>
-      <c r="T18" s="1">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>9</v>
-      </c>
-      <c r="J19" s="1">
-        <v>99</v>
-      </c>
-      <c r="K19" s="1">
-        <v>9</v>
-      </c>
-      <c r="T19" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>10</v>
-      </c>
-      <c r="B20" s="1">
-        <v>20</v>
-      </c>
-      <c r="C20" s="1">
-        <v>30</v>
-      </c>
-      <c r="D20" s="1">
-        <v>40</v>
-      </c>
-      <c r="E20" s="1">
-        <v>50</v>
-      </c>
-      <c r="F20" s="1">
-        <v>60</v>
-      </c>
-      <c r="G20" s="1">
-        <v>70</v>
-      </c>
-      <c r="H20" s="1">
-        <v>80</v>
-      </c>
-      <c r="I20" s="1">
-        <v>90</v>
-      </c>
-      <c r="J20" s="1">
-        <v>100</v>
-      </c>
-      <c r="K20" s="1">
-        <v>10</v>
-      </c>
-      <c r="L20" s="1">
-        <v>20</v>
-      </c>
-      <c r="M20" s="1">
-        <v>30</v>
-      </c>
-      <c r="N20" s="1">
-        <v>40</v>
-      </c>
-      <c r="O20" s="1">
-        <v>50</v>
-      </c>
-      <c r="P20" s="1">
-        <v>60</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>70</v>
-      </c>
-      <c r="R20" s="1">
-        <v>80</v>
-      </c>
-      <c r="S20" s="1">
-        <v>90</v>
-      </c>
-      <c r="T20" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1">
-        <v>11</v>
-      </c>
-      <c r="C21" s="1">
-        <v>21</v>
-      </c>
-      <c r="D21" s="1">
-        <v>31</v>
-      </c>
-      <c r="E21" s="1">
-        <v>41</v>
-      </c>
-      <c r="F21" s="1">
-        <v>51</v>
-      </c>
-      <c r="G21" s="1">
-        <v>61</v>
-      </c>
-      <c r="H21" s="1">
-        <v>71</v>
-      </c>
-      <c r="I21" s="1">
-        <v>81</v>
-      </c>
-      <c r="J21" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>2</v>
-      </c>
-      <c r="J22" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>3</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="2"/>
-      <c r="J23" s="1">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>4</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="G24" s="6"/>
-      <c r="J24" s="1">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>5</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="J25" s="1">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>6</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="J26" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>7</v>
-      </c>
-      <c r="J27" s="1">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>8</v>
-      </c>
-      <c r="J28" s="1">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>9</v>
-      </c>
-      <c r="J29" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>10</v>
-      </c>
-      <c r="B30" s="1">
-        <v>20</v>
-      </c>
-      <c r="C30" s="1">
-        <v>30</v>
-      </c>
-      <c r="D30" s="1">
-        <v>40</v>
-      </c>
-      <c r="E30" s="1">
-        <v>50</v>
-      </c>
-      <c r="F30" s="1">
-        <v>60</v>
-      </c>
-      <c r="G30" s="1">
-        <v>70</v>
-      </c>
-      <c r="H30" s="1">
-        <v>80</v>
-      </c>
-      <c r="I30" s="1">
-        <v>90</v>
-      </c>
-      <c r="J30" s="1">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:K20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1">
-        <v>41</v>
-      </c>
-      <c r="F1" s="1">
-        <v>51</v>
-      </c>
-      <c r="G1" s="1">
-        <v>61</v>
-      </c>
-      <c r="H1" s="1">
-        <v>71</v>
-      </c>
-      <c r="I1" s="1">
-        <v>81</v>
-      </c>
-      <c r="J1" s="1">
-        <v>91</v>
-      </c>
-      <c r="K1" s="1">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1">
-        <v>21</v>
-      </c>
-      <c r="N1" s="1">
-        <v>31</v>
-      </c>
-      <c r="O1" s="1">
-        <v>41</v>
-      </c>
-      <c r="P1" s="1">
-        <v>51</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>61</v>
-      </c>
-      <c r="R1" s="1">
-        <v>71</v>
-      </c>
-      <c r="S1" s="1">
-        <v>81</v>
-      </c>
-      <c r="T1" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1">
-        <v>92</v>
-      </c>
-      <c r="K2" s="1">
-        <v>2</v>
-      </c>
-      <c r="T2" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="4"/>
-      <c r="J3" s="1">
-        <v>93</v>
-      </c>
-      <c r="K3" s="1">
-        <v>3</v>
-      </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="2"/>
-      <c r="T3" s="1">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="J4" s="1">
-        <v>94</v>
-      </c>
-      <c r="K4" s="1">
-        <v>4</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="T4" s="1">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2"/>
-      <c r="J5" s="1">
-        <v>95</v>
-      </c>
-      <c r="K5" s="1">
-        <v>5</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="4"/>
-      <c r="T5" s="1">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="F6" s="2"/>
-      <c r="J6" s="1">
-        <v>96</v>
-      </c>
-      <c r="K6" s="1">
-        <v>6</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="T6" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="5"/>
-      <c r="J7" s="1">
-        <v>97</v>
-      </c>
-      <c r="K7" s="1">
-        <v>7</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="2"/>
-      <c r="T7" s="1">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>8</v>
-      </c>
-      <c r="J8" s="1">
-        <v>98</v>
-      </c>
-      <c r="K8" s="1">
-        <v>8</v>
-      </c>
-      <c r="T8" s="1">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>9</v>
-      </c>
-      <c r="J9" s="1">
-        <v>99</v>
-      </c>
-      <c r="K9" s="1">
-        <v>9</v>
-      </c>
-      <c r="T9" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1">
-        <v>40</v>
-      </c>
-      <c r="E10" s="1">
-        <v>50</v>
-      </c>
-      <c r="F10" s="1">
-        <v>60</v>
-      </c>
-      <c r="G10" s="1">
-        <v>70</v>
-      </c>
-      <c r="H10" s="1">
-        <v>80</v>
-      </c>
-      <c r="I10" s="1">
-        <v>90</v>
-      </c>
-      <c r="J10" s="1">
-        <v>100</v>
-      </c>
-      <c r="K10" s="1">
-        <v>10</v>
-      </c>
-      <c r="L10" s="1">
-        <v>20</v>
-      </c>
-      <c r="M10" s="1">
-        <v>30</v>
-      </c>
-      <c r="N10" s="1">
-        <v>40</v>
-      </c>
-      <c r="O10" s="1">
-        <v>50</v>
-      </c>
-      <c r="P10" s="1">
-        <v>60</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>70</v>
-      </c>
-      <c r="R10" s="1">
-        <v>80</v>
-      </c>
-      <c r="S10" s="1">
-        <v>90</v>
-      </c>
-      <c r="T10" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1">
-        <v>21</v>
-      </c>
-      <c r="D11" s="1">
-        <v>31</v>
-      </c>
-      <c r="E11" s="1">
-        <v>41</v>
-      </c>
-      <c r="F11" s="1">
-        <v>51</v>
-      </c>
-      <c r="G11" s="1">
-        <v>61</v>
-      </c>
-      <c r="H11" s="1">
-        <v>71</v>
-      </c>
-      <c r="I11" s="1">
-        <v>81</v>
-      </c>
-      <c r="J11" s="1">
-        <v>91</v>
-      </c>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
-      <c r="L11" s="1">
-        <v>11</v>
-      </c>
-      <c r="M11" s="1">
-        <v>21</v>
-      </c>
-      <c r="N11" s="1">
-        <v>31</v>
-      </c>
-      <c r="O11" s="1">
-        <v>41</v>
-      </c>
-      <c r="P11" s="1">
-        <v>51</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>61</v>
-      </c>
-      <c r="R11" s="1">
-        <v>71</v>
-      </c>
-      <c r="S11" s="1">
-        <v>81</v>
-      </c>
-      <c r="T11" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2</v>
-      </c>
-      <c r="J12" s="1">
-        <v>92</v>
-      </c>
-      <c r="K12" s="1">
-        <v>2</v>
-      </c>
-      <c r="T12" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="2"/>
-      <c r="J13" s="1">
-        <v>93</v>
-      </c>
-      <c r="K13" s="1">
-        <v>3</v>
-      </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="T13" s="1">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>4</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="J14" s="1">
-        <v>94</v>
-      </c>
-      <c r="K14" s="1">
-        <v>4</v>
-      </c>
-      <c r="O14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="T14" s="1">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>5</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="5"/>
-      <c r="J15" s="1">
-        <v>95</v>
-      </c>
-      <c r="K15" s="1">
-        <v>5</v>
-      </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="5"/>
-      <c r="T15" s="1">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>6</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="J16" s="1">
-        <v>96</v>
-      </c>
-      <c r="K16" s="1">
-        <v>6</v>
-      </c>
-      <c r="O16" s="2"/>
-      <c r="T16" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>7</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="J17" s="1">
-        <v>97</v>
-      </c>
-      <c r="K17" s="1">
-        <v>7</v>
-      </c>
-      <c r="O17" s="2"/>
-      <c r="T17" s="1">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>8</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="J18" s="1">
-        <v>98</v>
-      </c>
-      <c r="K18" s="1">
-        <v>8</v>
-      </c>
-      <c r="O18" s="2"/>
-      <c r="T18" s="1">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>9</v>
-      </c>
-      <c r="J19" s="1">
-        <v>99</v>
-      </c>
-      <c r="K19" s="1">
-        <v>9</v>
-      </c>
-      <c r="O19" s="4"/>
-      <c r="T19" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>10</v>
-      </c>
-      <c r="B20" s="1">
-        <v>20</v>
-      </c>
-      <c r="C20" s="1">
-        <v>30</v>
-      </c>
-      <c r="D20" s="1">
-        <v>40</v>
-      </c>
-      <c r="E20" s="1">
-        <v>50</v>
-      </c>
-      <c r="F20" s="1">
-        <v>60</v>
-      </c>
-      <c r="G20" s="1">
-        <v>70</v>
-      </c>
-      <c r="H20" s="1">
-        <v>80</v>
-      </c>
-      <c r="I20" s="1">
-        <v>90</v>
-      </c>
-      <c r="J20" s="1">
-        <v>100</v>
-      </c>
-      <c r="K20" s="1">
-        <v>10</v>
-      </c>
-      <c r="L20" s="1">
-        <v>20</v>
-      </c>
-      <c r="M20" s="1">
-        <v>30</v>
-      </c>
-      <c r="N20" s="1">
-        <v>40</v>
-      </c>
-      <c r="O20" s="1">
-        <v>50</v>
-      </c>
-      <c r="P20" s="1">
-        <v>60</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>70</v>
-      </c>
-      <c r="R20" s="1">
-        <v>80</v>
-      </c>
-      <c r="S20" s="1">
-        <v>90</v>
-      </c>
-      <c r="T20" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1">
-        <v>11</v>
-      </c>
-      <c r="C21" s="1">
-        <v>21</v>
-      </c>
-      <c r="D21" s="1">
-        <v>31</v>
-      </c>
-      <c r="E21" s="1">
-        <v>41</v>
-      </c>
-      <c r="F21" s="1">
-        <v>51</v>
-      </c>
-      <c r="G21" s="1">
-        <v>61</v>
-      </c>
-      <c r="H21" s="1">
-        <v>71</v>
-      </c>
-      <c r="I21" s="1">
-        <v>81</v>
-      </c>
-      <c r="J21" s="1">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>2</v>
-      </c>
-      <c r="J22" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>3</v>
-      </c>
-      <c r="J23" s="1">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>4</v>
-      </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="1">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>5</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="1">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>6</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>7</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="J27" s="1">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>8</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="5"/>
-      <c r="J28" s="1">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>9</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="J29" s="1">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>10</v>
-      </c>
-      <c r="B30" s="1">
-        <v>20</v>
-      </c>
-      <c r="C30" s="1">
-        <v>30</v>
-      </c>
-      <c r="D30" s="1">
-        <v>40</v>
-      </c>
-      <c r="E30" s="1">
-        <v>50</v>
-      </c>
-      <c r="F30" s="1">
-        <v>60</v>
-      </c>
-      <c r="G30" s="1">
-        <v>70</v>
-      </c>
-      <c r="H30" s="1">
-        <v>80</v>
-      </c>
-      <c r="I30" s="1">
-        <v>90</v>
-      </c>
-      <c r="J30" s="1">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3586,87 +4077,91 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="15.75" thickBot="1">
       <c r="A2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="5"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
+      <c r="M3" s="5"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="O3" s="6"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="15.75" thickTop="1">
       <c r="A4" s="1"/>
       <c r="C4" s="2"/>
       <c r="E4" s="2"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="N4" s="5"/>
+      <c r="M4" s="2"/>
+      <c r="O4" s="2"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20">
       <c r="A5" s="1"/>
-      <c r="C5" s="5"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="6"/>
+      <c r="G5" s="2"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20">
       <c r="A6" s="1"/>
-      <c r="C6" s="4"/>
       <c r="E6" s="2"/>
       <c r="G6" s="2"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="M6" s="4"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
       <c r="Q6" s="5"/>
-      <c r="S6" s="5"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="15.75" thickBot="1">
       <c r="A7" s="1"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
       <c r="G7" s="5"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
+      <c r="O7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="2"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="1"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="4"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="15.75" thickTop="1">
       <c r="A9" s="1"/>
+      <c r="E9" s="4"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3688,7 +4183,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -3710,87 +4205,91 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20">
       <c r="A12" s="1"/>
+      <c r="G12" s="4"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20">
       <c r="A13" s="1"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="G13" s="5"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="6"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20">
       <c r="A14" s="1"/>
-      <c r="B14" s="4"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="2"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="N14" s="2"/>
-      <c r="P14" s="7"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="5"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="15.75" thickBot="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="5"/>
+      <c r="C15" s="2"/>
       <c r="E15" s="3"/>
-      <c r="G15" s="6"/>
+      <c r="G15" s="2"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="C16" s="6"/>
+      <c r="G16" s="5"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="N16" s="2"/>
-      <c r="P16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="6"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="15.75" thickTop="1">
       <c r="A17" s="1"/>
-      <c r="G17" s="5"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="5"/>
+      <c r="L17" s="5"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="5"/>
       <c r="O18" s="4"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -3812,7 +4311,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -3824,54 +4323,57 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20">
       <c r="A22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20">
       <c r="A23" s="1"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="6"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24" s="1"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="5"/>
+      <c r="G24" s="2"/>
+      <c r="I24" s="4"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="15.75" thickBot="1">
       <c r="A25" s="1"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="3"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="5"/>
+      <c r="I25" s="8"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
       <c r="A26" s="1"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="15.75" thickTop="1">
       <c r="A27" s="1"/>
-      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20">
       <c r="A28" s="1"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="2"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20">
       <c r="A29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -3888,17 +4390,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3920,91 +4422,95 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20">
       <c r="A2" s="1"/>
+      <c r="B2" s="4"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="5"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="5"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20">
       <c r="A3" s="1"/>
-      <c r="C3" s="5"/>
-      <c r="E3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="E3" s="5"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="6"/>
+      <c r="L3" s="2"/>
+      <c r="R3" s="2"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1">
       <c r="A4" s="1"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="E4" s="2"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="M4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="R4" s="2"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="1"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
+      <c r="L5" s="2"/>
       <c r="M5" s="2"/>
+      <c r="N5" s="5"/>
       <c r="O5" s="3"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="4"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="15.75" thickTop="1">
       <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="G6" s="2"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="M6" s="5"/>
+      <c r="L6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="5"/>
+      <c r="R6" s="2"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20">
       <c r="A7" s="1"/>
-      <c r="E7" s="2"/>
-      <c r="G7" s="5"/>
+      <c r="B7" s="2"/>
+      <c r="E7" s="5"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="O7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="L7" s="5"/>
+      <c r="R7" s="5"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20">
       <c r="A8" s="1"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
+      <c r="B8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="5"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="4"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" s="1"/>
-      <c r="E9" s="4"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -4026,7 +4532,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="15.75" thickBot="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -4048,91 +4554,95 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="1"/>
-      <c r="G12" s="4"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="5"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="2"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="15.75" thickTop="1">
       <c r="A13" s="1"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="G13" s="5"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
+      <c r="O13" s="2"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="15.75" thickBot="1">
       <c r="A14" s="1"/>
       <c r="C14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="G14" s="2"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="5"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="5"/>
+      <c r="S14" s="5"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="1"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="3"/>
-      <c r="G15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="5"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
+      <c r="L15" s="2"/>
       <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
       <c r="O15" s="3"/>
-      <c r="Q15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="15.75" thickTop="1">
       <c r="A16" s="1"/>
-      <c r="C16" s="6"/>
-      <c r="G16" s="5"/>
+      <c r="B16" s="4"/>
+      <c r="D16" s="2"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="6"/>
+      <c r="L16" s="5"/>
+      <c r="O16" s="2"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20">
       <c r="A17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="D17" s="2"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="5"/>
+      <c r="O17" s="2"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18" s="1"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="5"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="4"/>
+      <c r="O18" s="2"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="4"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -4154,7 +4664,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -4166,57 +4676,59 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20">
       <c r="A22" s="1"/>
+      <c r="C22" s="4"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20">
       <c r="A23" s="1"/>
-      <c r="G23" s="2"/>
+      <c r="C23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="5"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24" s="1"/>
+      <c r="C24" s="2"/>
+      <c r="E24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="I24" s="4"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20">
       <c r="A25" s="1"/>
-      <c r="D25" s="5"/>
+      <c r="C25" s="2"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="5"/>
-      <c r="I25" s="8"/>
+      <c r="G25" s="2"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20">
       <c r="A26" s="1"/>
-      <c r="B26" s="5"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="G26" s="2"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="15.75" thickBot="1">
       <c r="A27" s="1"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="C27" s="2"/>
       <c r="G27" s="2"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
       <c r="A28" s="1"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="5"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="15.75" thickTop="1">
       <c r="A29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -4231,359 +4743,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="4"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="5"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="T2" s="1"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="E3" s="5"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="T3" s="1"/>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="T4" s="1"/>
-    </row>
-    <row r="5" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="1"/>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="T6" s="1"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="E7" s="5"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="T7" s="1"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="5"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="T8" s="1"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="T9" s="1"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-    </row>
-    <row r="12" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="5"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="2"/>
-      <c r="T12" s="1"/>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="O13" s="2"/>
-      <c r="T13" s="1"/>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="O14" s="2"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="1"/>
-    </row>
-    <row r="15" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="5"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="1"/>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="4"/>
-      <c r="D16" s="2"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="5"/>
-      <c r="O16" s="2"/>
-      <c r="T16" s="1"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="O17" s="2"/>
-      <c r="T17" s="1"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="5"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="O18" s="2"/>
-      <c r="T18" s="1"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="4"/>
-      <c r="T19" s="1"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="C22" s="4"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="C23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="5"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="C24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="C25" s="2"/>
-      <c r="E25" s="3"/>
-      <c r="G25" s="2"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="5"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/TonTunaDungeon/src/pisosproyecto.xlsx
+++ b/TonTunaDungeon/src/pisosproyecto.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>//El tipo de contenido se utiliza con un entero:</t>
   </si>
@@ -530,7 +530,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1295,7 +1295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
@@ -1596,22 +1596,20 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5703125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="4" width="5.140625" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" customWidth="1"/>
+    <col min="9" max="9" width="3.85546875" customWidth="1"/>
+    <col min="10" max="11" width="4.5703125" customWidth="1"/>
     <col min="12" max="13" width="5.42578125" customWidth="1"/>
     <col min="14" max="14" width="4.7109375" customWidth="1"/>
     <col min="15" max="15" width="6.42578125" customWidth="1"/>
@@ -2030,6 +2028,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -2038,32 +2037,94 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection sqref="A1:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="4" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" customWidth="1"/>
+    <col min="15" max="15" width="5" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" customWidth="1"/>
+    <col min="17" max="17" width="5.42578125" customWidth="1"/>
+    <col min="18" max="18" width="5" customWidth="1"/>
+    <col min="19" max="19" width="4.7109375" customWidth="1"/>
+    <col min="20" max="20" width="5.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1">
+        <v>4</v>
+      </c>
+      <c r="P1" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>6</v>
+      </c>
+      <c r="R1" s="1">
+        <v>7</v>
+      </c>
+      <c r="S1" s="1">
+        <v>8</v>
+      </c>
+      <c r="T1" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="1"/>
@@ -2159,26 +2220,66 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1">
+        <v>8</v>
+      </c>
+      <c r="J11" s="1">
+        <v>9</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2</v>
+      </c>
+      <c r="N11" s="1">
+        <v>3</v>
+      </c>
+      <c r="O11" s="1">
+        <v>4</v>
+      </c>
+      <c r="P11" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>6</v>
+      </c>
+      <c r="R11" s="1">
+        <v>7</v>
+      </c>
+      <c r="S11" s="1">
+        <v>8</v>
+      </c>
+      <c r="T11" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="1"/>
@@ -2275,20 +2376,43 @@
       <c r="T20" s="1"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1">
+        <v>6</v>
+      </c>
+      <c r="H21" s="1">
+        <v>7</v>
+      </c>
+      <c r="I21" s="1">
+        <v>8</v>
+      </c>
+      <c r="J21" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="1"/>
       <c r="J22" s="1"/>
+      <c r="L22" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="1"/>
@@ -2296,11 +2420,17 @@
       <c r="E23" s="5"/>
       <c r="F23" s="2"/>
       <c r="J23" s="1"/>
+      <c r="L23" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="1"/>
       <c r="E24" s="2"/>
       <c r="J24" s="1"/>
+      <c r="L24" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="1"/>
@@ -2311,16 +2441,25 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="J25" s="1"/>
+      <c r="L25" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="1"/>
       <c r="G26" s="5"/>
       <c r="J26" s="1"/>
+      <c r="L26" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="1"/>
       <c r="G27" s="2"/>
       <c r="J27" s="1"/>
+      <c r="L27" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="1"/>
@@ -2351,7 +2490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -3031,7 +3170,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:K20"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/TonTunaDungeon/src/pisosproyecto.xlsx
+++ b/TonTunaDungeon/src/pisosproyecto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Piso1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
   <si>
     <t>//El tipo de contenido se utiliza con un entero:</t>
   </si>
@@ -52,7 +52,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +100,49 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -206,7 +249,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -218,6 +261,12 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="4" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Buena" xfId="1" builtinId="26"/>
@@ -530,7 +579,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1595,7 +1644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -2037,22 +2086,22 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J10"/>
+      <selection activeCell="L22" sqref="L22:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" customWidth="1"/>
-    <col min="3" max="3" width="4" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" customWidth="1"/>
-    <col min="7" max="7" width="4.5703125" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" customWidth="1"/>
-    <col min="10" max="10" width="4.85546875" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="4" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="4.85546875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="4.85546875" customWidth="1"/>
     <col min="13" max="13" width="4.5703125" customWidth="1"/>
     <col min="14" max="14" width="4.85546875" customWidth="1"/>
@@ -2491,7 +2540,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="L22" sqref="L22:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3058,6 +3107,9 @@
       <c r="J22" s="1">
         <v>92</v>
       </c>
+      <c r="L22" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:20" ht="15.75" thickBot="1">
       <c r="A23" s="1">
@@ -3071,6 +3123,9 @@
       <c r="J23" s="1">
         <v>93</v>
       </c>
+      <c r="L23" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="1">
@@ -3081,6 +3136,9 @@
       <c r="G24" s="6"/>
       <c r="J24" s="1">
         <v>94</v>
+      </c>
+      <c r="L24" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" thickTop="1">
@@ -3094,6 +3152,9 @@
       <c r="J25" s="1">
         <v>95</v>
       </c>
+      <c r="L25" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="1">
@@ -3103,6 +3164,9 @@
       <c r="J26" s="1">
         <v>96</v>
       </c>
+      <c r="L26" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="1">
@@ -3110,6 +3174,9 @@
       </c>
       <c r="J27" s="1">
         <v>97</v>
+      </c>
+      <c r="L27" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -3169,684 +3236,1068 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" customWidth="1"/>
+    <col min="12" max="13" width="4.7109375" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" customWidth="1"/>
+    <col min="19" max="19" width="5.5703125" customWidth="1"/>
+    <col min="20" max="20" width="4.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="1">
+    <row r="1" spans="1:20" ht="18.75">
+      <c r="A1" s="11">
         <v>1</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="11">
         <v>11</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="11">
         <v>21</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="11">
         <v>31</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="11">
         <v>41</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="11">
         <v>51</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="11">
         <v>61</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="11">
         <v>71</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="11">
         <v>81</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="11">
         <v>91</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="11">
         <v>1</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="11">
         <v>11</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="11">
         <v>21</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="11">
         <v>31</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="11">
         <v>41</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="11">
         <v>51</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="11">
         <v>61</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="11">
         <v>71</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="11">
         <v>81</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="11">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="1">
+    <row r="2" spans="1:20" ht="18.75">
+      <c r="A2" s="11">
         <v>2</v>
       </c>
-      <c r="J2" s="1">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="11">
         <v>92</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="11">
         <v>2</v>
       </c>
-      <c r="T2" s="1">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="11">
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="1">
+    <row r="3" spans="1:20" ht="18.75">
+      <c r="A3" s="11">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="4"/>
-      <c r="J3" s="1">
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="11">
         <v>93</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="11">
         <v>3</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="2"/>
-      <c r="T3" s="1">
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="11">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="1">
+    <row r="4" spans="1:20" ht="18.75">
+      <c r="A4" s="11">
         <v>4</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="J4" s="1">
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="11">
         <v>94</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="11">
         <v>4</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="T4" s="1">
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="11">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="1">
+    <row r="5" spans="1:20" ht="18.75">
+      <c r="A5" s="11">
         <v>5</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2"/>
-      <c r="J5" s="1">
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="11">
         <v>95</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="11">
         <v>5</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="4"/>
-      <c r="T5" s="1">
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="11">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="1">
+    <row r="6" spans="1:20" ht="18.75">
+      <c r="A6" s="11">
         <v>6</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="F6" s="2"/>
-      <c r="J6" s="1">
+      <c r="B6" s="12"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="11">
         <v>96</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="11">
         <v>6</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="T6" s="1">
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="11">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="1">
+    <row r="7" spans="1:20" ht="18.75">
+      <c r="A7" s="11">
         <v>7</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="5"/>
-      <c r="J7" s="1">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="11">
         <v>97</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="11">
         <v>7</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="2"/>
-      <c r="T7" s="1">
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="11">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="1">
+    <row r="8" spans="1:20" ht="18.75">
+      <c r="A8" s="11">
         <v>8</v>
       </c>
-      <c r="J8" s="1">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="11">
         <v>98</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="11">
         <v>8</v>
       </c>
-      <c r="T8" s="1">
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="11">
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="1">
+    <row r="9" spans="1:20" ht="18.75">
+      <c r="A9" s="11">
         <v>9</v>
       </c>
-      <c r="J9" s="1">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="11">
         <v>99</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="11">
         <v>9</v>
       </c>
-      <c r="T9" s="1">
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="11">
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="1">
+    <row r="10" spans="1:20" ht="18.75">
+      <c r="A10" s="11">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="11">
         <v>20</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="11">
         <v>30</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="11">
         <v>40</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="11">
         <v>50</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="11">
         <v>60</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="11">
         <v>70</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="11">
         <v>80</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="11">
         <v>90</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="11">
         <v>100</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="11">
         <v>10</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="11">
         <v>20</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="11">
         <v>30</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="11">
         <v>40</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="11">
         <v>50</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="11">
         <v>60</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="11">
         <v>70</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="11">
         <v>80</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="11">
         <v>90</v>
       </c>
-      <c r="T10" s="1">
+      <c r="T10" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="1">
+    <row r="11" spans="1:20" ht="18.75">
+      <c r="A11" s="11">
         <v>1</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="11">
         <v>11</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="11">
         <v>21</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="11">
         <v>31</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="11">
         <v>41</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="11">
         <v>51</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="11">
         <v>61</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="11">
         <v>71</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="11">
         <v>81</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="11">
         <v>91</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="11">
         <v>1</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="11">
         <v>11</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="11">
         <v>21</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="11">
         <v>31</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="11">
         <v>41</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="11">
         <v>51</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="11">
         <v>61</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="11">
         <v>71</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="11">
         <v>81</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T11" s="11">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="1">
+    <row r="12" spans="1:20" ht="18.75">
+      <c r="A12" s="11">
         <v>2</v>
       </c>
-      <c r="J12" s="1">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="11">
         <v>92</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="11">
         <v>2</v>
       </c>
-      <c r="T12" s="1">
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="11">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="1">
+    <row r="13" spans="1:20" ht="18.75">
+      <c r="A13" s="11">
         <v>3</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="2"/>
-      <c r="J13" s="1">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="11">
         <v>93</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="11">
         <v>3</v>
       </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="T13" s="1">
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="11">
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="1">
+    <row r="14" spans="1:20" ht="18.75">
+      <c r="A14" s="11">
         <v>4</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="J14" s="1">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="11">
         <v>94</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="11">
         <v>4</v>
       </c>
-      <c r="O14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="T14" s="1">
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="11">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="1">
+    <row r="15" spans="1:20" ht="18.75">
+      <c r="A15" s="11">
         <v>5</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="5"/>
-      <c r="J15" s="1">
+      <c r="B15" s="12"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="11">
         <v>95</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="11">
         <v>5</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="5"/>
-      <c r="T15" s="1">
+      <c r="L15" s="12"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="11">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="1">
+    <row r="16" spans="1:20" ht="18.75">
+      <c r="A16" s="11">
         <v>6</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="J16" s="1">
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="11">
         <v>96</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="11">
         <v>6</v>
       </c>
-      <c r="O16" s="2"/>
-      <c r="T16" s="1">
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="11">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="1">
+    <row r="17" spans="1:20" ht="18.75">
+      <c r="A17" s="11">
         <v>7</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="J17" s="1">
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="11">
         <v>97</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="11">
         <v>7</v>
       </c>
-      <c r="O17" s="2"/>
-      <c r="T17" s="1">
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="11">
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="1">
+    <row r="18" spans="1:20" ht="18.75">
+      <c r="A18" s="11">
         <v>8</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="J18" s="1">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="11">
         <v>98</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="11">
         <v>8</v>
       </c>
-      <c r="O18" s="2"/>
-      <c r="T18" s="1">
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="11">
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
-      <c r="A19" s="1">
+    <row r="19" spans="1:20" ht="18.75">
+      <c r="A19" s="11">
         <v>9</v>
       </c>
-      <c r="J19" s="1">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="11">
         <v>99</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="11">
         <v>9</v>
       </c>
-      <c r="O19" s="4"/>
-      <c r="T19" s="1">
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="11">
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="1">
+    <row r="20" spans="1:20" ht="18.75">
+      <c r="A20" s="11">
         <v>10</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="11">
         <v>20</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="11">
         <v>30</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="11">
         <v>40</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="11">
         <v>50</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="11">
         <v>60</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="11">
         <v>70</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="11">
         <v>80</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="11">
         <v>90</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="11">
         <v>100</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="11">
         <v>10</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="11">
         <v>20</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="11">
         <v>30</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20" s="11">
         <v>40</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="11">
         <v>50</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="11">
         <v>60</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="11">
         <v>70</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="11">
         <v>80</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="11">
         <v>90</v>
       </c>
-      <c r="T20" s="1">
+      <c r="T20" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
-      <c r="A21" s="1">
+    <row r="21" spans="1:20" ht="18.75">
+      <c r="A21" s="11">
         <v>1</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="11">
         <v>11</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="11">
         <v>21</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="11">
         <v>31</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="11">
         <v>41</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="11">
         <v>51</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="11">
         <v>61</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="11">
         <v>71</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="11">
         <v>81</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="11">
         <v>91</v>
       </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="1">
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+    </row>
+    <row r="22" spans="1:20" ht="18.75">
+      <c r="A22" s="11">
         <v>2</v>
       </c>
-      <c r="J22" s="1">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="11">
         <v>92</v>
       </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" s="1">
+      <c r="K22" s="12"/>
+      <c r="L22" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+    </row>
+    <row r="23" spans="1:20" ht="18.75">
+      <c r="A23" s="11">
         <v>3</v>
       </c>
-      <c r="J23" s="1">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="11">
         <v>93</v>
       </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" s="1">
+      <c r="K23" s="12"/>
+      <c r="L23" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+    </row>
+    <row r="24" spans="1:20" ht="18.75">
+      <c r="A24" s="11">
         <v>4</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="1">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="11">
         <v>94</v>
       </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" s="1">
+      <c r="K24" s="12"/>
+      <c r="L24" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+    </row>
+    <row r="25" spans="1:20" ht="18.75">
+      <c r="A25" s="11">
         <v>5</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="1">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="11">
         <v>95</v>
       </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="1">
+      <c r="K25" s="12"/>
+      <c r="L25" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+    </row>
+    <row r="26" spans="1:20" ht="18.75">
+      <c r="A26" s="11">
         <v>6</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="1">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="11">
         <v>96</v>
       </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" s="1">
+      <c r="K26" s="12"/>
+      <c r="L26" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+    </row>
+    <row r="27" spans="1:20" ht="18.75">
+      <c r="A27" s="11">
         <v>7</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="J27" s="1">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="11">
         <v>97</v>
       </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" s="1">
+      <c r="K27" s="12"/>
+      <c r="L27" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+    </row>
+    <row r="28" spans="1:20" ht="18.75">
+      <c r="A28" s="11">
         <v>8</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="5"/>
-      <c r="J28" s="1">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="11">
         <v>98</v>
       </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" s="1">
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+    </row>
+    <row r="29" spans="1:20" ht="18.75">
+      <c r="A29" s="11">
         <v>9</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="J29" s="1">
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="11">
         <v>99</v>
       </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" s="1">
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+    </row>
+    <row r="30" spans="1:20" ht="18.75">
+      <c r="A30" s="11">
         <v>10</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="11">
         <v>20</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="11">
         <v>30</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="11">
         <v>40</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="11">
         <v>50</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="11">
         <v>60</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="11">
         <v>70</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="11">
         <v>80</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="11">
         <v>90</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="11">
         <v>100</v>
       </c>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 

--- a/TonTunaDungeon/src/pisosproyecto.xlsx
+++ b/TonTunaDungeon/src/pisosproyecto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Piso1" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,8 @@
     <sheet name="Piso3" sheetId="3" r:id="rId3"/>
     <sheet name="Piso4" sheetId="4" r:id="rId4"/>
     <sheet name="Piso5" sheetId="5" r:id="rId5"/>
-    <sheet name="Piso6" sheetId="6" r:id="rId6"/>
-    <sheet name="Piso7" sheetId="7" r:id="rId7"/>
+    <sheet name="Piso7" sheetId="7" r:id="rId6"/>
+    <sheet name="Piso6" sheetId="6" r:id="rId7"/>
     <sheet name="Piso8" sheetId="8" r:id="rId8"/>
     <sheet name="Piso9" sheetId="9" r:id="rId9"/>
     <sheet name="Piso10" sheetId="10" r:id="rId10"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
   <si>
     <t>//El tipo de contenido se utiliza con un entero:</t>
   </si>
@@ -52,7 +52,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +143,13 @@
     <font>
       <sz val="14"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -249,7 +256,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -257,7 +264,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="6"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
@@ -267,6 +273,14 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Buena" xfId="1" builtinId="26"/>
@@ -579,7 +593,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -963,16 +977,16 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="9"/>
+      <c r="A1" s="8"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="9"/>
+      <c r="D1" s="8"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="9"/>
+      <c r="G1" s="8"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="9"/>
+      <c r="J1" s="8"/>
       <c r="K1" s="1">
         <v>1</v>
       </c>
@@ -1011,7 +1025,7 @@
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="9"/>
+      <c r="A3" s="8"/>
       <c r="D3" s="2"/>
       <c r="E3" s="5"/>
       <c r="F3" s="2"/>
@@ -1037,7 +1051,7 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="9"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
       <c r="D5" s="2"/>
@@ -1068,7 +1082,7 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A7" s="9"/>
+      <c r="A7" s="8"/>
       <c r="D7" s="2"/>
       <c r="E7" s="5"/>
       <c r="F7" s="2"/>
@@ -1092,10 +1106,10 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickTop="1">
-      <c r="A9" s="9"/>
-      <c r="D9" s="10"/>
+      <c r="A9" s="8"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="10"/>
+      <c r="F9" s="9"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="T9" s="1"/>
@@ -3234,10 +3248,1404 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="9" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="16">
+        <v>1</v>
+      </c>
+      <c r="B1" s="16">
+        <v>11</v>
+      </c>
+      <c r="C1" s="16">
+        <v>21</v>
+      </c>
+      <c r="D1" s="16">
+        <v>31</v>
+      </c>
+      <c r="E1" s="16">
+        <v>41</v>
+      </c>
+      <c r="F1" s="16">
+        <v>51</v>
+      </c>
+      <c r="G1" s="16">
+        <v>61</v>
+      </c>
+      <c r="H1" s="16">
+        <v>71</v>
+      </c>
+      <c r="I1" s="16">
+        <v>81</v>
+      </c>
+      <c r="J1" s="16">
+        <v>91</v>
+      </c>
+      <c r="K1" s="16">
+        <v>1</v>
+      </c>
+      <c r="L1" s="16">
+        <v>11</v>
+      </c>
+      <c r="M1" s="16">
+        <v>21</v>
+      </c>
+      <c r="N1" s="16">
+        <v>31</v>
+      </c>
+      <c r="O1" s="16">
+        <v>41</v>
+      </c>
+      <c r="P1" s="16">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="16">
+        <v>61</v>
+      </c>
+      <c r="R1" s="16">
+        <v>71</v>
+      </c>
+      <c r="S1" s="16">
+        <v>81</v>
+      </c>
+      <c r="T1" s="16">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="16">
+        <v>2</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="16">
+        <v>92</v>
+      </c>
+      <c r="K2" s="16">
+        <v>2</v>
+      </c>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="16">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="16">
+        <v>3</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="16">
+        <v>93</v>
+      </c>
+      <c r="K3" s="16">
+        <v>3</v>
+      </c>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="16">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A4" s="16">
+        <v>4</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="16">
+        <v>94</v>
+      </c>
+      <c r="K4" s="16">
+        <v>4</v>
+      </c>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="16">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A5" s="16">
+        <v>5</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="16">
+        <v>95</v>
+      </c>
+      <c r="K5" s="16">
+        <v>5</v>
+      </c>
+      <c r="L5" s="17"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="16">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A6" s="16">
+        <v>6</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="16">
+        <v>96</v>
+      </c>
+      <c r="K6" s="16">
+        <v>6</v>
+      </c>
+      <c r="L6" s="17"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="16">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A7" s="16">
+        <v>7</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="16">
+        <v>97</v>
+      </c>
+      <c r="K7" s="16">
+        <v>7</v>
+      </c>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="16">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" thickTop="1">
+      <c r="A8" s="16">
+        <v>8</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="16">
+        <v>98</v>
+      </c>
+      <c r="K8" s="16">
+        <v>8</v>
+      </c>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="16">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="16">
+        <v>9</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="16">
+        <v>99</v>
+      </c>
+      <c r="K9" s="16">
+        <v>9</v>
+      </c>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="16">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="16">
+        <v>10</v>
+      </c>
+      <c r="B10" s="16">
+        <v>20</v>
+      </c>
+      <c r="C10" s="16">
+        <v>30</v>
+      </c>
+      <c r="D10" s="16">
+        <v>40</v>
+      </c>
+      <c r="E10" s="16">
+        <v>50</v>
+      </c>
+      <c r="F10" s="16">
+        <v>60</v>
+      </c>
+      <c r="G10" s="16">
+        <v>70</v>
+      </c>
+      <c r="H10" s="16">
+        <v>80</v>
+      </c>
+      <c r="I10" s="16">
+        <v>90</v>
+      </c>
+      <c r="J10" s="16">
+        <v>100</v>
+      </c>
+      <c r="K10" s="16">
+        <v>10</v>
+      </c>
+      <c r="L10" s="16">
+        <v>20</v>
+      </c>
+      <c r="M10" s="16">
+        <v>30</v>
+      </c>
+      <c r="N10" s="16">
+        <v>40</v>
+      </c>
+      <c r="O10" s="16">
+        <v>50</v>
+      </c>
+      <c r="P10" s="16">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>70</v>
+      </c>
+      <c r="R10" s="16">
+        <v>80</v>
+      </c>
+      <c r="S10" s="16">
+        <v>90</v>
+      </c>
+      <c r="T10" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="16">
+        <v>1</v>
+      </c>
+      <c r="B11" s="16">
+        <v>11</v>
+      </c>
+      <c r="C11" s="16">
+        <v>21</v>
+      </c>
+      <c r="D11" s="16">
+        <v>31</v>
+      </c>
+      <c r="E11" s="16">
+        <v>41</v>
+      </c>
+      <c r="F11" s="16">
+        <v>51</v>
+      </c>
+      <c r="G11" s="16">
+        <v>61</v>
+      </c>
+      <c r="H11" s="16">
+        <v>71</v>
+      </c>
+      <c r="I11" s="16">
+        <v>81</v>
+      </c>
+      <c r="J11" s="16">
+        <v>91</v>
+      </c>
+      <c r="K11" s="16">
+        <v>1</v>
+      </c>
+      <c r="L11" s="16">
+        <v>11</v>
+      </c>
+      <c r="M11" s="16">
+        <v>21</v>
+      </c>
+      <c r="N11" s="16">
+        <v>31</v>
+      </c>
+      <c r="O11" s="16">
+        <v>41</v>
+      </c>
+      <c r="P11" s="16">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>61</v>
+      </c>
+      <c r="R11" s="16">
+        <v>71</v>
+      </c>
+      <c r="S11" s="16">
+        <v>81</v>
+      </c>
+      <c r="T11" s="16">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A12" s="16">
+        <v>2</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="16">
+        <v>92</v>
+      </c>
+      <c r="K12" s="16">
+        <v>2</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="16">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A13" s="16">
+        <v>3</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="16">
+        <v>93</v>
+      </c>
+      <c r="K13" s="16">
+        <v>3</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="16">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A14" s="16">
+        <v>4</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="16">
+        <v>94</v>
+      </c>
+      <c r="K14" s="16">
+        <v>4</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="16">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A15" s="16">
+        <v>5</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="16">
+        <v>95</v>
+      </c>
+      <c r="K15" s="16">
+        <v>5</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="16">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" thickTop="1">
+      <c r="A16" s="16">
+        <v>6</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="16">
+        <v>96</v>
+      </c>
+      <c r="K16" s="16">
+        <v>6</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="16">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="16">
+        <v>7</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="16">
+        <v>97</v>
+      </c>
+      <c r="K17" s="16">
+        <v>7</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="16">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="16">
+        <v>8</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="16">
+        <v>98</v>
+      </c>
+      <c r="K18" s="16">
+        <v>8</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="16">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="16">
+        <v>9</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="16">
+        <v>99</v>
+      </c>
+      <c r="K19" s="16">
+        <v>9</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="16">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="16">
+        <v>10</v>
+      </c>
+      <c r="B20" s="16">
+        <v>20</v>
+      </c>
+      <c r="C20" s="16">
+        <v>30</v>
+      </c>
+      <c r="D20" s="16">
+        <v>40</v>
+      </c>
+      <c r="E20" s="16">
+        <v>50</v>
+      </c>
+      <c r="F20" s="16">
+        <v>60</v>
+      </c>
+      <c r="G20" s="16">
+        <v>70</v>
+      </c>
+      <c r="H20" s="16">
+        <v>80</v>
+      </c>
+      <c r="I20" s="16">
+        <v>90</v>
+      </c>
+      <c r="J20" s="16">
+        <v>100</v>
+      </c>
+      <c r="K20" s="16">
+        <v>10</v>
+      </c>
+      <c r="L20" s="16">
+        <v>20</v>
+      </c>
+      <c r="M20" s="16">
+        <v>30</v>
+      </c>
+      <c r="N20" s="16">
+        <v>40</v>
+      </c>
+      <c r="O20" s="16">
+        <v>50</v>
+      </c>
+      <c r="P20" s="16">
+        <v>60</v>
+      </c>
+      <c r="Q20" s="16">
+        <v>70</v>
+      </c>
+      <c r="R20" s="16">
+        <v>80</v>
+      </c>
+      <c r="S20" s="16">
+        <v>90</v>
+      </c>
+      <c r="T20" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="16">
+        <v>1</v>
+      </c>
+      <c r="B21" s="16">
+        <v>11</v>
+      </c>
+      <c r="C21" s="16">
+        <v>21</v>
+      </c>
+      <c r="D21" s="16">
+        <v>31</v>
+      </c>
+      <c r="E21" s="16">
+        <v>41</v>
+      </c>
+      <c r="F21" s="16">
+        <v>51</v>
+      </c>
+      <c r="G21" s="16">
+        <v>61</v>
+      </c>
+      <c r="H21" s="16">
+        <v>71</v>
+      </c>
+      <c r="I21" s="16">
+        <v>81</v>
+      </c>
+      <c r="J21" s="16">
+        <v>91</v>
+      </c>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+    </row>
+    <row r="22" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A22" s="16">
+        <v>2</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="16">
+        <v>92</v>
+      </c>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+    </row>
+    <row r="23" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A23" s="16">
+        <v>3</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="16">
+        <v>93</v>
+      </c>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+    </row>
+    <row r="24" spans="1:20" ht="15.75" thickTop="1">
+      <c r="A24" s="16">
+        <v>4</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="16">
+        <v>94</v>
+      </c>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="16">
+        <v>5</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="16">
+        <v>95</v>
+      </c>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="16">
+        <v>6</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="16">
+        <v>96</v>
+      </c>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="16">
+        <v>7</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="16">
+        <v>97</v>
+      </c>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="16">
+        <v>8</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="16">
+        <v>98</v>
+      </c>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="16">
+        <v>9</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="16">
+        <v>99</v>
+      </c>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="16">
+        <v>10</v>
+      </c>
+      <c r="B30" s="16">
+        <v>20</v>
+      </c>
+      <c r="C30" s="16">
+        <v>30</v>
+      </c>
+      <c r="D30" s="16">
+        <v>40</v>
+      </c>
+      <c r="E30" s="16">
+        <v>50</v>
+      </c>
+      <c r="F30" s="16">
+        <v>60</v>
+      </c>
+      <c r="G30" s="16">
+        <v>70</v>
+      </c>
+      <c r="H30" s="16">
+        <v>80</v>
+      </c>
+      <c r="I30" s="16">
+        <v>90</v>
+      </c>
+      <c r="J30" s="16">
+        <v>100</v>
+      </c>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17"/>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3260,1378 +4668,1044 @@
     <col min="17" max="17" width="5.140625" customWidth="1"/>
     <col min="18" max="18" width="4.85546875" customWidth="1"/>
     <col min="19" max="19" width="5.5703125" customWidth="1"/>
-    <col min="20" max="20" width="4.42578125" customWidth="1"/>
+    <col min="20" max="20" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18.75">
-      <c r="A1" s="11">
+      <c r="A1" s="10">
         <v>1</v>
       </c>
-      <c r="B1" s="11">
+      <c r="B1" s="10">
         <v>11</v>
       </c>
-      <c r="C1" s="11">
+      <c r="C1" s="10">
         <v>21</v>
       </c>
-      <c r="D1" s="11">
+      <c r="D1" s="10">
         <v>31</v>
       </c>
-      <c r="E1" s="11">
+      <c r="E1" s="10">
         <v>41</v>
       </c>
-      <c r="F1" s="11">
+      <c r="F1" s="10">
         <v>51</v>
       </c>
-      <c r="G1" s="11">
+      <c r="G1" s="10">
         <v>61</v>
       </c>
-      <c r="H1" s="11">
+      <c r="H1" s="10">
         <v>71</v>
       </c>
-      <c r="I1" s="11">
+      <c r="I1" s="10">
         <v>81</v>
       </c>
-      <c r="J1" s="11">
+      <c r="J1" s="10">
         <v>91</v>
       </c>
-      <c r="K1" s="11">
+      <c r="K1" s="10">
         <v>1</v>
       </c>
-      <c r="L1" s="11">
+      <c r="L1" s="10">
         <v>11</v>
       </c>
-      <c r="M1" s="11">
+      <c r="M1" s="10">
         <v>21</v>
       </c>
-      <c r="N1" s="11">
+      <c r="N1" s="10">
         <v>31</v>
       </c>
-      <c r="O1" s="11">
+      <c r="O1" s="10">
         <v>41</v>
       </c>
-      <c r="P1" s="11">
+      <c r="P1" s="10">
         <v>51</v>
       </c>
-      <c r="Q1" s="11">
+      <c r="Q1" s="10">
         <v>61</v>
       </c>
-      <c r="R1" s="11">
+      <c r="R1" s="10">
         <v>71</v>
       </c>
-      <c r="S1" s="11">
+      <c r="S1" s="10">
         <v>81</v>
       </c>
-      <c r="T1" s="11">
+      <c r="T1" s="10">
         <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="18.75">
-      <c r="A2" s="11">
+      <c r="A2" s="10">
         <v>2</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="11">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="10">
         <v>92</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="10">
         <v>2</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="11">
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="10">
         <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="18.75">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>3</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="11">
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="10">
         <v>93</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="10">
         <v>3</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="11">
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="10">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="18.75">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>4</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="11">
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="10">
         <v>94</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <v>4</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="11">
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="10">
         <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="18.75">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>5</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="11">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="10">
         <v>95</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <v>5</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="11">
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="10">
         <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="18.75">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>6</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="11">
+      <c r="B6" s="11"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="10">
         <v>96</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <v>6</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="11">
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="10">
         <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="18.75">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>7</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="11">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="10">
         <v>97</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <v>7</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="11">
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="10">
         <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="18.75">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>8</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="11">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="10">
         <v>98</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="10">
         <v>8</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="11">
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="10">
         <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="18.75">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>9</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="11">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="10">
         <v>99</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>9</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="11">
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="10">
         <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="18.75">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>10</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>20</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>30</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>40</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>50</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>60</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>70</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <v>80</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <v>90</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="10">
         <v>100</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="10">
         <v>10</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="10">
         <v>20</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="10">
         <v>30</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="10">
         <v>40</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="10">
         <v>50</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="10">
         <v>60</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="10">
         <v>70</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R10" s="10">
         <v>80</v>
       </c>
-      <c r="S10" s="11">
+      <c r="S10" s="10">
         <v>90</v>
       </c>
-      <c r="T10" s="11">
+      <c r="T10" s="10">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="18.75">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>1</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>11</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>21</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>31</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>41</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>51</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>61</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <v>71</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="10">
         <v>81</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="10">
         <v>91</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="10">
         <v>1</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="10">
         <v>11</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="10">
         <v>21</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="10">
         <v>31</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="10">
         <v>41</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="10">
         <v>51</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="10">
         <v>61</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="10">
         <v>71</v>
       </c>
-      <c r="S11" s="11">
+      <c r="S11" s="10">
         <v>81</v>
       </c>
-      <c r="T11" s="11">
+      <c r="T11" s="10">
         <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="18.75">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>2</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="11">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="10">
         <v>92</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="10">
         <v>2</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="11">
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="10">
         <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="18.75">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>3</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="11">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="10">
         <v>93</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="10">
         <v>3</v>
       </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="11">
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="10">
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="18.75">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>4</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="11">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="10">
         <v>94</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="10">
         <v>4</v>
       </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="11">
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="10">
         <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="18.75">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>5</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="11">
+      <c r="B15" s="11"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="10">
         <v>95</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="10">
         <v>5</v>
       </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="11">
+      <c r="L15" s="11"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="10">
         <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="18.75">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>6</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="11">
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="10">
         <v>96</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="10">
         <v>6</v>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="11">
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="10">
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="18.75">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>7</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="11">
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="10">
         <v>97</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="10">
         <v>7</v>
       </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="11">
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="10">
         <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="18.75">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <v>8</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="11">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="10">
         <v>98</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="10">
         <v>8</v>
       </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="11">
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="10">
         <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="18.75">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <v>9</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="11">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="10">
         <v>99</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="10">
         <v>9</v>
       </c>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="11">
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="10">
         <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="18.75">
-      <c r="A20" s="11">
+      <c r="A20" s="10">
         <v>10</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <v>20</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <v>30</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="10">
         <v>40</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>50</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <v>60</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="10">
         <v>70</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="10">
         <v>80</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="10">
         <v>90</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="10">
         <v>100</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="10">
         <v>10</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="10">
         <v>20</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="10">
         <v>30</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N20" s="10">
         <v>40</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O20" s="10">
         <v>50</v>
       </c>
-      <c r="P20" s="11">
+      <c r="P20" s="10">
         <v>60</v>
       </c>
-      <c r="Q20" s="11">
+      <c r="Q20" s="10">
         <v>70</v>
       </c>
-      <c r="R20" s="11">
+      <c r="R20" s="10">
         <v>80</v>
       </c>
-      <c r="S20" s="11">
+      <c r="S20" s="10">
         <v>90</v>
       </c>
-      <c r="T20" s="11">
+      <c r="T20" s="10">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="18.75">
-      <c r="A21" s="11">
+      <c r="A21" s="10">
         <v>1</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <v>11</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <v>21</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <v>31</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>41</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <v>51</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="10">
         <v>61</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="10">
         <v>71</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="10">
         <v>81</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="10">
         <v>91</v>
       </c>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
     </row>
     <row r="22" spans="1:20" ht="18.75">
-      <c r="A22" s="11">
+      <c r="A22" s="10">
         <v>2</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="11">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="10">
         <v>92</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12" t="s">
+      <c r="K22" s="11"/>
+      <c r="L22" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
     </row>
     <row r="23" spans="1:20" ht="18.75">
-      <c r="A23" s="11">
+      <c r="A23" s="10">
         <v>3</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="11">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="10">
         <v>93</v>
       </c>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12" t="s">
+      <c r="K23" s="11"/>
+      <c r="L23" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
     </row>
     <row r="24" spans="1:20" ht="18.75">
-      <c r="A24" s="11">
+      <c r="A24" s="10">
         <v>4</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="11">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="10">
         <v>94</v>
       </c>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12" t="s">
+      <c r="K24" s="11"/>
+      <c r="L24" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
     </row>
     <row r="25" spans="1:20" ht="18.75">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <v>5</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="11">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="10">
         <v>95</v>
       </c>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12" t="s">
+      <c r="K25" s="11"/>
+      <c r="L25" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
     </row>
     <row r="26" spans="1:20" ht="18.75">
-      <c r="A26" s="11">
+      <c r="A26" s="10">
         <v>6</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="11">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="10">
         <v>96</v>
       </c>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12" t="s">
+      <c r="K26" s="11"/>
+      <c r="L26" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
     </row>
     <row r="27" spans="1:20" ht="18.75">
-      <c r="A27" s="11">
+      <c r="A27" s="10">
         <v>7</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="11">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="10">
         <v>97</v>
       </c>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12" t="s">
+      <c r="K27" s="11"/>
+      <c r="L27" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
     </row>
     <row r="28" spans="1:20" ht="18.75">
-      <c r="A28" s="11">
+      <c r="A28" s="10">
         <v>8</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="11">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="10">
         <v>98</v>
       </c>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
     </row>
     <row r="29" spans="1:20" ht="18.75">
-      <c r="A29" s="11">
+      <c r="A29" s="10">
         <v>9</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="11">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="10">
         <v>99</v>
       </c>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
     </row>
     <row r="30" spans="1:20" ht="18.75">
-      <c r="A30" s="11">
+      <c r="A30" s="10">
         <v>10</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="10">
         <v>20</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="10">
         <v>30</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="10">
         <v>40</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="10">
         <v>50</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <v>60</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="10">
         <v>70</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="10">
         <v>80</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="10">
         <v>90</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J30" s="10">
         <v>100</v>
       </c>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="T2" s="1"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="1"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="T3" s="1"/>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="N4" s="5"/>
-      <c r="T4" s="1"/>
-    </row>
-    <row r="5" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="1"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="6"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="1"/>
-    </row>
-    <row r="6" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="1"/>
-      <c r="C6" s="4"/>
-      <c r="E6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="M6" s="4"/>
-      <c r="Q6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="1"/>
-    </row>
-    <row r="7" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="1"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="5"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="1"/>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" thickTop="1">
-      <c r="A8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="T8" s="1"/>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="T9" s="1"/>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="T12" s="1"/>
-    </row>
-    <row r="13" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="6"/>
-      <c r="T13" s="1"/>
-    </row>
-    <row r="14" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="4"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="2"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="N14" s="2"/>
-      <c r="P14" s="7"/>
-      <c r="T14" s="1"/>
-    </row>
-    <row r="15" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="5"/>
-      <c r="E15" s="3"/>
-      <c r="G15" s="6"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="T15" s="1"/>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" thickTop="1">
-      <c r="A16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="N16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="T16" s="1"/>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="1"/>
-      <c r="G17" s="5"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="5"/>
-      <c r="T17" s="1"/>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="O18" s="4"/>
-      <c r="T18" s="1"/>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="T19" s="1"/>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="1"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="6"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:20" ht="15.75" thickTop="1">
-      <c r="A24" s="1"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="5"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" s="1"/>
-      <c r="E25" s="3"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="1"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" s="1"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="2"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4639,344 +5713,729 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="9" width="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="A1" s="16">
+        <v>1</v>
+      </c>
+      <c r="B1" s="16">
+        <v>11</v>
+      </c>
+      <c r="C1" s="16">
+        <v>21</v>
+      </c>
+      <c r="D1" s="16">
+        <v>31</v>
+      </c>
+      <c r="E1" s="16">
+        <v>41</v>
+      </c>
+      <c r="F1" s="16">
+        <v>51</v>
+      </c>
+      <c r="G1" s="16">
+        <v>61</v>
+      </c>
+      <c r="H1" s="16">
+        <v>71</v>
+      </c>
+      <c r="I1" s="16">
+        <v>81</v>
+      </c>
+      <c r="J1" s="16">
+        <v>91</v>
+      </c>
+      <c r="K1" s="16">
+        <v>1</v>
+      </c>
+      <c r="L1" s="16">
+        <v>11</v>
+      </c>
+      <c r="M1" s="16">
+        <v>21</v>
+      </c>
+      <c r="N1" s="16">
+        <v>31</v>
+      </c>
+      <c r="O1" s="16">
+        <v>41</v>
+      </c>
+      <c r="P1" s="16">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="16">
+        <v>61</v>
+      </c>
+      <c r="R1" s="16">
+        <v>71</v>
+      </c>
+      <c r="S1" s="16">
+        <v>81</v>
+      </c>
+      <c r="T1" s="16">
+        <v>91</v>
+      </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A2" s="1"/>
+      <c r="A2" s="16">
+        <v>2</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="5"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="J2" s="16">
+        <v>92</v>
+      </c>
+      <c r="K2" s="16">
+        <v>2</v>
+      </c>
+      <c r="T2" s="16">
+        <v>92</v>
+      </c>
     </row>
     <row r="3" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A3" s="1"/>
+      <c r="A3" s="16">
+        <v>3</v>
+      </c>
       <c r="C3" s="5"/>
       <c r="E3" s="2"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="J3" s="16">
+        <v>93</v>
+      </c>
+      <c r="K3" s="16">
+        <v>3</v>
+      </c>
       <c r="M3" s="5"/>
       <c r="N3" s="2"/>
       <c r="O3" s="6"/>
-      <c r="T3" s="1"/>
+      <c r="T3" s="16">
+        <v>93</v>
+      </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickTop="1">
-      <c r="A4" s="1"/>
+      <c r="A4" s="16">
+        <v>4</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="J4" s="16">
+        <v>94</v>
+      </c>
+      <c r="K4" s="16">
+        <v>4</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="T4" s="1"/>
+      <c r="T4" s="16">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="1"/>
+      <c r="A5" s="16">
+        <v>5</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="J5" s="16">
+        <v>95</v>
+      </c>
+      <c r="K5" s="16">
+        <v>5</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="O5" s="3"/>
-      <c r="T5" s="1"/>
+      <c r="T5" s="16">
+        <v>95</v>
+      </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="1"/>
+      <c r="A6" s="16">
+        <v>6</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="J6" s="16">
+        <v>96</v>
+      </c>
+      <c r="K6" s="16">
+        <v>6</v>
+      </c>
       <c r="M6" s="5"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="5"/>
-      <c r="T6" s="1"/>
+      <c r="T6" s="16">
+        <v>96</v>
+      </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A7" s="1"/>
+      <c r="A7" s="16">
+        <v>7</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="5"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="J7" s="16">
+        <v>97</v>
+      </c>
+      <c r="K7" s="16">
+        <v>7</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="T7" s="1"/>
+      <c r="T7" s="16">
+        <v>97</v>
+      </c>
     </row>
     <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="1"/>
+      <c r="A8" s="16">
+        <v>8</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="J8" s="16">
+        <v>98</v>
+      </c>
+      <c r="K8" s="16">
+        <v>8</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="4"/>
-      <c r="T8" s="1"/>
+      <c r="T8" s="16">
+        <v>98</v>
+      </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickTop="1">
-      <c r="A9" s="1"/>
+      <c r="A9" s="16">
+        <v>9</v>
+      </c>
       <c r="E9" s="4"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="T9" s="1"/>
+      <c r="J9" s="16">
+        <v>99</v>
+      </c>
+      <c r="K9" s="16">
+        <v>9</v>
+      </c>
+      <c r="T9" s="16">
+        <v>99</v>
+      </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
+      <c r="A10" s="16">
+        <v>10</v>
+      </c>
+      <c r="B10" s="16">
+        <v>20</v>
+      </c>
+      <c r="C10" s="16">
+        <v>30</v>
+      </c>
+      <c r="D10" s="16">
+        <v>40</v>
+      </c>
+      <c r="E10" s="16">
+        <v>50</v>
+      </c>
+      <c r="F10" s="16">
+        <v>60</v>
+      </c>
+      <c r="G10" s="16">
+        <v>70</v>
+      </c>
+      <c r="H10" s="16">
+        <v>80</v>
+      </c>
+      <c r="I10" s="16">
+        <v>90</v>
+      </c>
+      <c r="J10" s="16">
+        <v>100</v>
+      </c>
+      <c r="K10" s="16">
+        <v>10</v>
+      </c>
+      <c r="L10" s="16">
+        <v>20</v>
+      </c>
+      <c r="M10" s="16">
+        <v>30</v>
+      </c>
+      <c r="N10" s="16">
+        <v>40</v>
+      </c>
+      <c r="O10" s="16">
+        <v>50</v>
+      </c>
+      <c r="P10" s="16">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>70</v>
+      </c>
+      <c r="R10" s="16">
+        <v>80</v>
+      </c>
+      <c r="S10" s="16">
+        <v>90</v>
+      </c>
+      <c r="T10" s="16">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
+      <c r="A11" s="16">
+        <v>1</v>
+      </c>
+      <c r="B11" s="16">
+        <v>11</v>
+      </c>
+      <c r="C11" s="16">
+        <v>21</v>
+      </c>
+      <c r="D11" s="16">
+        <v>31</v>
+      </c>
+      <c r="E11" s="16">
+        <v>41</v>
+      </c>
+      <c r="F11" s="16">
+        <v>51</v>
+      </c>
+      <c r="G11" s="16">
+        <v>61</v>
+      </c>
+      <c r="H11" s="16">
+        <v>71</v>
+      </c>
+      <c r="I11" s="16">
+        <v>81</v>
+      </c>
+      <c r="J11" s="16">
+        <v>91</v>
+      </c>
+      <c r="K11" s="16">
+        <v>1</v>
+      </c>
+      <c r="L11" s="16">
+        <v>11</v>
+      </c>
+      <c r="M11" s="16">
+        <v>21</v>
+      </c>
+      <c r="N11" s="16">
+        <v>31</v>
+      </c>
+      <c r="O11" s="16">
+        <v>41</v>
+      </c>
+      <c r="P11" s="16">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>61</v>
+      </c>
+      <c r="R11" s="16">
+        <v>71</v>
+      </c>
+      <c r="S11" s="16">
+        <v>81</v>
+      </c>
+      <c r="T11" s="16">
+        <v>91</v>
+      </c>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="1"/>
+      <c r="A12" s="16">
+        <v>2</v>
+      </c>
       <c r="G12" s="4"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="T12" s="1"/>
+      <c r="J12" s="16">
+        <v>92</v>
+      </c>
+      <c r="K12" s="16">
+        <v>2</v>
+      </c>
+      <c r="T12" s="16">
+        <v>92</v>
+      </c>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="1"/>
+      <c r="A13" s="16">
+        <v>3</v>
+      </c>
       <c r="C13" s="5"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="G13" s="5"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="T13" s="1"/>
+      <c r="J13" s="16">
+        <v>93</v>
+      </c>
+      <c r="K13" s="16">
+        <v>3</v>
+      </c>
+      <c r="T13" s="16">
+        <v>93</v>
+      </c>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="1"/>
+      <c r="A14" s="16">
+        <v>4</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="E14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="J14" s="16">
+        <v>94</v>
+      </c>
+      <c r="K14" s="16">
+        <v>4</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="5"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="5"/>
-      <c r="T14" s="1"/>
+      <c r="T14" s="16">
+        <v>94</v>
+      </c>
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A15" s="1"/>
+      <c r="A15" s="16">
+        <v>5</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="E15" s="3"/>
       <c r="G15" s="2"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="J15" s="16">
+        <v>95</v>
+      </c>
+      <c r="K15" s="16">
+        <v>5</v>
+      </c>
       <c r="M15" s="2"/>
       <c r="O15" s="3"/>
       <c r="Q15" s="2"/>
-      <c r="T15" s="1"/>
+      <c r="T15" s="16">
+        <v>95</v>
+      </c>
     </row>
     <row r="16" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="1"/>
+      <c r="A16" s="16">
+        <v>6</v>
+      </c>
       <c r="C16" s="6"/>
       <c r="G16" s="5"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="J16" s="16">
+        <v>96</v>
+      </c>
+      <c r="K16" s="16">
+        <v>6</v>
+      </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="6"/>
-      <c r="T16" s="1"/>
+      <c r="T16" s="16">
+        <v>96</v>
+      </c>
     </row>
     <row r="17" spans="1:20" ht="15.75" thickTop="1">
-      <c r="A17" s="1"/>
+      <c r="A17" s="16">
+        <v>7</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="5"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="J17" s="16">
+        <v>97</v>
+      </c>
+      <c r="K17" s="16">
+        <v>7</v>
+      </c>
       <c r="L17" s="5"/>
-      <c r="T17" s="1"/>
+      <c r="T17" s="16">
+        <v>97</v>
+      </c>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="A18" s="16">
+        <v>8</v>
+      </c>
+      <c r="J18" s="16">
+        <v>98</v>
+      </c>
+      <c r="K18" s="16">
+        <v>8</v>
+      </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="5"/>
       <c r="O18" s="4"/>
-      <c r="T18" s="1"/>
+      <c r="T18" s="16">
+        <v>98</v>
+      </c>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="T19" s="1"/>
+      <c r="A19" s="16">
+        <v>9</v>
+      </c>
+      <c r="J19" s="16">
+        <v>99</v>
+      </c>
+      <c r="K19" s="16">
+        <v>9</v>
+      </c>
+      <c r="T19" s="16">
+        <v>99</v>
+      </c>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
+      <c r="A20" s="16">
+        <v>10</v>
+      </c>
+      <c r="B20" s="16">
+        <v>20</v>
+      </c>
+      <c r="C20" s="16">
+        <v>30</v>
+      </c>
+      <c r="D20" s="16">
+        <v>40</v>
+      </c>
+      <c r="E20" s="16">
+        <v>50</v>
+      </c>
+      <c r="F20" s="16">
+        <v>60</v>
+      </c>
+      <c r="G20" s="16">
+        <v>70</v>
+      </c>
+      <c r="H20" s="16">
+        <v>80</v>
+      </c>
+      <c r="I20" s="16">
+        <v>90</v>
+      </c>
+      <c r="J20" s="16">
+        <v>100</v>
+      </c>
+      <c r="K20" s="16">
+        <v>10</v>
+      </c>
+      <c r="L20" s="16">
+        <v>20</v>
+      </c>
+      <c r="M20" s="16">
+        <v>30</v>
+      </c>
+      <c r="N20" s="16">
+        <v>40</v>
+      </c>
+      <c r="O20" s="16">
+        <v>50</v>
+      </c>
+      <c r="P20" s="16">
+        <v>60</v>
+      </c>
+      <c r="Q20" s="16">
+        <v>70</v>
+      </c>
+      <c r="R20" s="16">
+        <v>80</v>
+      </c>
+      <c r="S20" s="16">
+        <v>90</v>
+      </c>
+      <c r="T20" s="16">
+        <v>100</v>
+      </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="A21" s="16">
+        <v>1</v>
+      </c>
+      <c r="B21" s="16">
+        <v>11</v>
+      </c>
+      <c r="C21" s="16">
+        <v>21</v>
+      </c>
+      <c r="D21" s="16">
+        <v>31</v>
+      </c>
+      <c r="E21" s="16">
+        <v>41</v>
+      </c>
+      <c r="F21" s="16">
+        <v>51</v>
+      </c>
+      <c r="G21" s="16">
+        <v>61</v>
+      </c>
+      <c r="H21" s="16">
+        <v>71</v>
+      </c>
+      <c r="I21" s="16">
+        <v>81</v>
+      </c>
+      <c r="J21" s="16">
+        <v>91</v>
+      </c>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="A22" s="16">
+        <v>2</v>
+      </c>
+      <c r="J22" s="16">
+        <v>92</v>
+      </c>
+      <c r="L22" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="1"/>
+      <c r="A23" s="16">
+        <v>3</v>
+      </c>
       <c r="G23" s="2"/>
-      <c r="J23" s="1"/>
+      <c r="J23" s="16">
+        <v>93</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="1"/>
+      <c r="A24" s="16">
+        <v>4</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="1"/>
+      <c r="J24" s="16">
+        <v>94</v>
+      </c>
+      <c r="L24" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A25" s="1"/>
+      <c r="A25" s="16">
+        <v>5</v>
+      </c>
       <c r="D25" s="5"/>
       <c r="E25" s="3"/>
       <c r="F25" s="2"/>
       <c r="G25" s="5"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="1"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="16">
+        <v>95</v>
+      </c>
+      <c r="L25" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="1"/>
+      <c r="A26" s="16">
+        <v>6</v>
+      </c>
       <c r="B26" s="5"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="G26" s="6"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="1"/>
+      <c r="J26" s="16">
+        <v>96</v>
+      </c>
+      <c r="L26" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="27" spans="1:20" ht="15.75" thickTop="1">
-      <c r="A27" s="1"/>
+      <c r="A27" s="16">
+        <v>7</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="J27" s="1"/>
+      <c r="J27" s="16">
+        <v>97</v>
+      </c>
+      <c r="L27" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="A28" s="16">
+        <v>8</v>
+      </c>
+      <c r="J28" s="16">
+        <v>98</v>
+      </c>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="A29" s="16">
+        <v>9</v>
+      </c>
+      <c r="J29" s="16">
+        <v>99</v>
+      </c>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="A30" s="16">
+        <v>10</v>
+      </c>
+      <c r="B30" s="16">
+        <v>20</v>
+      </c>
+      <c r="C30" s="16">
+        <v>30</v>
+      </c>
+      <c r="D30" s="16">
+        <v>40</v>
+      </c>
+      <c r="E30" s="16">
+        <v>50</v>
+      </c>
+      <c r="F30" s="16">
+        <v>60</v>
+      </c>
+      <c r="G30" s="16">
+        <v>70</v>
+      </c>
+      <c r="H30" s="16">
+        <v>80</v>
+      </c>
+      <c r="I30" s="16">
+        <v>90</v>
+      </c>
+      <c r="J30" s="16">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -4984,74 +6443,150 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11:T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="9" width="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="A1" s="16">
+        <v>1</v>
+      </c>
+      <c r="B1" s="16">
+        <v>11</v>
+      </c>
+      <c r="C1" s="16">
+        <v>21</v>
+      </c>
+      <c r="D1" s="16">
+        <v>31</v>
+      </c>
+      <c r="E1" s="16">
+        <v>41</v>
+      </c>
+      <c r="F1" s="16">
+        <v>51</v>
+      </c>
+      <c r="G1" s="16">
+        <v>61</v>
+      </c>
+      <c r="H1" s="16">
+        <v>71</v>
+      </c>
+      <c r="I1" s="16">
+        <v>81</v>
+      </c>
+      <c r="J1" s="16">
+        <v>91</v>
+      </c>
+      <c r="K1" s="16">
+        <v>1</v>
+      </c>
+      <c r="L1" s="16">
+        <v>11</v>
+      </c>
+      <c r="M1" s="16">
+        <v>21</v>
+      </c>
+      <c r="N1" s="16">
+        <v>31</v>
+      </c>
+      <c r="O1" s="16">
+        <v>41</v>
+      </c>
+      <c r="P1" s="16">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="16">
+        <v>61</v>
+      </c>
+      <c r="R1" s="16">
+        <v>71</v>
+      </c>
+      <c r="S1" s="16">
+        <v>81</v>
+      </c>
+      <c r="T1" s="16">
+        <v>91</v>
+      </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="1"/>
+      <c r="A2" s="16">
+        <v>2</v>
+      </c>
       <c r="B2" s="4"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="5"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="J2" s="16">
+        <v>92</v>
+      </c>
+      <c r="K2" s="16">
+        <v>2</v>
+      </c>
+      <c r="T2" s="16">
+        <v>92</v>
+      </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="1"/>
+      <c r="A3" s="16">
+        <v>3</v>
+      </c>
       <c r="B3" s="2"/>
       <c r="E3" s="5"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="J3" s="16">
+        <v>93</v>
+      </c>
+      <c r="K3" s="16">
+        <v>3</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="R3" s="2"/>
-      <c r="T3" s="1"/>
+      <c r="T3" s="16">
+        <v>93</v>
+      </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A4" s="1"/>
+      <c r="A4" s="16">
+        <v>4</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="J4" s="16">
+        <v>94</v>
+      </c>
+      <c r="K4" s="16">
+        <v>4</v>
+      </c>
       <c r="L4" s="2"/>
       <c r="N4" s="2"/>
       <c r="P4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="T4" s="1"/>
+      <c r="T4" s="16">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="1"/>
+      <c r="A5" s="16">
+        <v>5</v>
+      </c>
       <c r="B5" s="2"/>
       <c r="C5" s="6"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="J5" s="16">
+        <v>95</v>
+      </c>
+      <c r="K5" s="16">
+        <v>5</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="5"/>
@@ -5060,130 +6595,274 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="6"/>
       <c r="S5" s="4"/>
-      <c r="T5" s="1"/>
+      <c r="T5" s="16">
+        <v>95</v>
+      </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickTop="1">
-      <c r="A6" s="1"/>
+      <c r="A6" s="16">
+        <v>6</v>
+      </c>
       <c r="B6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="J6" s="16">
+        <v>96</v>
+      </c>
+      <c r="K6" s="16">
+        <v>6</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="N6" s="2"/>
       <c r="P6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="T6" s="1"/>
+      <c r="T6" s="16">
+        <v>96</v>
+      </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="1"/>
+      <c r="A7" s="16">
+        <v>7</v>
+      </c>
       <c r="B7" s="2"/>
       <c r="E7" s="5"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="J7" s="16">
+        <v>97</v>
+      </c>
+      <c r="K7" s="16">
+        <v>7</v>
+      </c>
       <c r="L7" s="5"/>
       <c r="R7" s="5"/>
-      <c r="T7" s="1"/>
+      <c r="T7" s="16">
+        <v>97</v>
+      </c>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="1"/>
+      <c r="A8" s="16">
+        <v>8</v>
+      </c>
       <c r="B8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="5"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="T8" s="1"/>
+      <c r="J8" s="16">
+        <v>98</v>
+      </c>
+      <c r="K8" s="16">
+        <v>8</v>
+      </c>
+      <c r="T8" s="16">
+        <v>98</v>
+      </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="T9" s="1"/>
+      <c r="A9" s="16">
+        <v>9</v>
+      </c>
+      <c r="J9" s="16">
+        <v>99</v>
+      </c>
+      <c r="K9" s="16">
+        <v>9</v>
+      </c>
+      <c r="T9" s="16">
+        <v>99</v>
+      </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
+      <c r="A10" s="16">
+        <v>10</v>
+      </c>
+      <c r="B10" s="16">
+        <v>20</v>
+      </c>
+      <c r="C10" s="16">
+        <v>30</v>
+      </c>
+      <c r="D10" s="16">
+        <v>40</v>
+      </c>
+      <c r="E10" s="16">
+        <v>50</v>
+      </c>
+      <c r="F10" s="16">
+        <v>60</v>
+      </c>
+      <c r="G10" s="16">
+        <v>70</v>
+      </c>
+      <c r="H10" s="16">
+        <v>80</v>
+      </c>
+      <c r="I10" s="16">
+        <v>90</v>
+      </c>
+      <c r="J10" s="16">
+        <v>100</v>
+      </c>
+      <c r="K10" s="16">
+        <v>10</v>
+      </c>
+      <c r="L10" s="16">
+        <v>20</v>
+      </c>
+      <c r="M10" s="16">
+        <v>30</v>
+      </c>
+      <c r="N10" s="16">
+        <v>40</v>
+      </c>
+      <c r="O10" s="16">
+        <v>50</v>
+      </c>
+      <c r="P10" s="16">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>70</v>
+      </c>
+      <c r="R10" s="16">
+        <v>80</v>
+      </c>
+      <c r="S10" s="16">
+        <v>90</v>
+      </c>
+      <c r="T10" s="16">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
+      <c r="A11" s="16">
+        <v>1</v>
+      </c>
+      <c r="B11" s="16">
+        <v>11</v>
+      </c>
+      <c r="C11" s="16">
+        <v>21</v>
+      </c>
+      <c r="D11" s="16">
+        <v>31</v>
+      </c>
+      <c r="E11" s="16">
+        <v>41</v>
+      </c>
+      <c r="F11" s="16">
+        <v>51</v>
+      </c>
+      <c r="G11" s="16">
+        <v>61</v>
+      </c>
+      <c r="H11" s="16">
+        <v>71</v>
+      </c>
+      <c r="I11" s="16">
+        <v>81</v>
+      </c>
+      <c r="J11" s="16">
+        <v>91</v>
+      </c>
+      <c r="K11" s="16">
+        <v>1</v>
+      </c>
+      <c r="L11" s="16">
+        <v>11</v>
+      </c>
+      <c r="M11" s="16">
+        <v>21</v>
+      </c>
+      <c r="N11" s="16">
+        <v>31</v>
+      </c>
+      <c r="O11" s="16">
+        <v>41</v>
+      </c>
+      <c r="P11" s="16">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>61</v>
+      </c>
+      <c r="R11" s="16">
+        <v>71</v>
+      </c>
+      <c r="S11" s="16">
+        <v>81</v>
+      </c>
+      <c r="T11" s="16">
+        <v>91</v>
+      </c>
     </row>
     <row r="12" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="1"/>
+      <c r="A12" s="16">
+        <v>2</v>
+      </c>
       <c r="C12" s="6"/>
       <c r="D12" s="2"/>
       <c r="E12" s="5"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="J12" s="16">
+        <v>92</v>
+      </c>
+      <c r="K12" s="16">
+        <v>2</v>
+      </c>
       <c r="N12" s="5"/>
       <c r="O12" s="2"/>
-      <c r="T12" s="1"/>
+      <c r="T12" s="16">
+        <v>92</v>
+      </c>
     </row>
     <row r="13" spans="1:20" ht="15.75" thickTop="1">
-      <c r="A13" s="1"/>
+      <c r="A13" s="16">
+        <v>3</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="J13" s="16">
+        <v>93</v>
+      </c>
+      <c r="K13" s="16">
+        <v>3</v>
+      </c>
       <c r="O13" s="2"/>
-      <c r="T13" s="1"/>
+      <c r="T13" s="16">
+        <v>93</v>
+      </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A14" s="1"/>
+      <c r="A14" s="16">
+        <v>4</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="J14" s="16">
+        <v>94</v>
+      </c>
+      <c r="K14" s="16">
+        <v>4</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="S14" s="5"/>
-      <c r="T14" s="1"/>
+      <c r="T14" s="16">
+        <v>94</v>
+      </c>
     </row>
     <row r="15" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="1"/>
+      <c r="A15" s="16">
+        <v>5</v>
+      </c>
       <c r="B15" s="5"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3"/>
       <c r="F15" s="2"/>
       <c r="G15" s="5"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="J15" s="16">
+        <v>95</v>
+      </c>
+      <c r="K15" s="16">
+        <v>5</v>
+      </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -5192,143 +6871,289 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
-      <c r="T15" s="1"/>
+      <c r="T15" s="16">
+        <v>95</v>
+      </c>
     </row>
     <row r="16" spans="1:20" ht="15.75" thickTop="1">
-      <c r="A16" s="1"/>
+      <c r="A16" s="16">
+        <v>6</v>
+      </c>
       <c r="B16" s="4"/>
       <c r="D16" s="2"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="J16" s="16">
+        <v>96</v>
+      </c>
+      <c r="K16" s="16">
+        <v>6</v>
+      </c>
       <c r="L16" s="5"/>
       <c r="O16" s="2"/>
-      <c r="T16" s="1"/>
+      <c r="T16" s="16">
+        <v>96</v>
+      </c>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="1"/>
+      <c r="A17" s="16">
+        <v>7</v>
+      </c>
       <c r="D17" s="2"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="J17" s="16">
+        <v>97</v>
+      </c>
+      <c r="K17" s="16">
+        <v>7</v>
+      </c>
       <c r="O17" s="2"/>
-      <c r="T17" s="1"/>
+      <c r="T17" s="16">
+        <v>97</v>
+      </c>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="1"/>
+      <c r="A18" s="16">
+        <v>8</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="5"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="J18" s="16">
+        <v>98</v>
+      </c>
+      <c r="K18" s="16">
+        <v>8</v>
+      </c>
       <c r="O18" s="2"/>
-      <c r="T18" s="1"/>
+      <c r="T18" s="16">
+        <v>98</v>
+      </c>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="A19" s="16">
+        <v>9</v>
+      </c>
+      <c r="J19" s="16">
+        <v>99</v>
+      </c>
+      <c r="K19" s="16">
+        <v>9</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="4"/>
-      <c r="T19" s="1"/>
+      <c r="T19" s="16">
+        <v>99</v>
+      </c>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
+      <c r="A20" s="16">
+        <v>10</v>
+      </c>
+      <c r="B20" s="16">
+        <v>20</v>
+      </c>
+      <c r="C20" s="16">
+        <v>30</v>
+      </c>
+      <c r="D20" s="16">
+        <v>40</v>
+      </c>
+      <c r="E20" s="16">
+        <v>50</v>
+      </c>
+      <c r="F20" s="16">
+        <v>60</v>
+      </c>
+      <c r="G20" s="16">
+        <v>70</v>
+      </c>
+      <c r="H20" s="16">
+        <v>80</v>
+      </c>
+      <c r="I20" s="16">
+        <v>90</v>
+      </c>
+      <c r="J20" s="16">
+        <v>100</v>
+      </c>
+      <c r="K20" s="16">
+        <v>10</v>
+      </c>
+      <c r="L20" s="16">
+        <v>20</v>
+      </c>
+      <c r="M20" s="16">
+        <v>30</v>
+      </c>
+      <c r="N20" s="16">
+        <v>40</v>
+      </c>
+      <c r="O20" s="16">
+        <v>50</v>
+      </c>
+      <c r="P20" s="16">
+        <v>60</v>
+      </c>
+      <c r="Q20" s="16">
+        <v>70</v>
+      </c>
+      <c r="R20" s="16">
+        <v>80</v>
+      </c>
+      <c r="S20" s="16">
+        <v>90</v>
+      </c>
+      <c r="T20" s="16">
+        <v>100</v>
+      </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="A21" s="16">
+        <v>1</v>
+      </c>
+      <c r="B21" s="16">
+        <v>11</v>
+      </c>
+      <c r="C21" s="16">
+        <v>21</v>
+      </c>
+      <c r="D21" s="16">
+        <v>31</v>
+      </c>
+      <c r="E21" s="16">
+        <v>41</v>
+      </c>
+      <c r="F21" s="16">
+        <v>51</v>
+      </c>
+      <c r="G21" s="16">
+        <v>61</v>
+      </c>
+      <c r="H21" s="16">
+        <v>71</v>
+      </c>
+      <c r="I21" s="16">
+        <v>81</v>
+      </c>
+      <c r="J21" s="16">
+        <v>91</v>
+      </c>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="1"/>
+      <c r="A22" s="16">
+        <v>2</v>
+      </c>
       <c r="C22" s="4"/>
-      <c r="J22" s="1"/>
+      <c r="J22" s="16">
+        <v>92</v>
+      </c>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="1"/>
+      <c r="A23" s="16">
+        <v>3</v>
+      </c>
       <c r="C23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="2"/>
       <c r="G23" s="5"/>
-      <c r="J23" s="1"/>
+      <c r="J23" s="16">
+        <v>93</v>
+      </c>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="1"/>
+      <c r="A24" s="16">
+        <v>4</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="E24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="J24" s="1"/>
+      <c r="J24" s="16">
+        <v>94</v>
+      </c>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="1"/>
+      <c r="A25" s="16">
+        <v>5</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="E25" s="3"/>
       <c r="G25" s="2"/>
-      <c r="J25" s="1"/>
+      <c r="J25" s="16">
+        <v>95</v>
+      </c>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="1"/>
+      <c r="A26" s="16">
+        <v>6</v>
+      </c>
       <c r="C26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="J26" s="1"/>
+      <c r="J26" s="16">
+        <v>96</v>
+      </c>
     </row>
     <row r="27" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A27" s="1"/>
+      <c r="A27" s="16">
+        <v>7</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="J27" s="1"/>
+      <c r="J27" s="16">
+        <v>97</v>
+      </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="1"/>
+      <c r="A28" s="16">
+        <v>8</v>
+      </c>
       <c r="C28" s="6"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="5"/>
-      <c r="J28" s="1"/>
+      <c r="J28" s="16">
+        <v>98</v>
+      </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickTop="1">
-      <c r="A29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="A29" s="16">
+        <v>9</v>
+      </c>
+      <c r="J29" s="16">
+        <v>99</v>
+      </c>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="A30" s="16">
+        <v>10</v>
+      </c>
+      <c r="B30" s="16">
+        <v>20</v>
+      </c>
+      <c r="C30" s="16">
+        <v>30</v>
+      </c>
+      <c r="D30" s="16">
+        <v>40</v>
+      </c>
+      <c r="E30" s="16">
+        <v>50</v>
+      </c>
+      <c r="F30" s="16">
+        <v>60</v>
+      </c>
+      <c r="G30" s="16">
+        <v>70</v>
+      </c>
+      <c r="H30" s="16">
+        <v>80</v>
+      </c>
+      <c r="I30" s="16">
+        <v>90</v>
+      </c>
+      <c r="J30" s="16">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TonTunaDungeon/src/pisosproyecto.xlsx
+++ b/TonTunaDungeon/src/pisosproyecto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Piso1" sheetId="1" r:id="rId1"/>
@@ -256,7 +256,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -265,7 +265,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="6"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -593,7 +592,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -970,88 +969,140 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="9" width="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="8"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="1">
+      <c r="A1" s="15">
         <v>1</v>
       </c>
-      <c r="L1" s="1">
+      <c r="B1" s="15">
+        <v>11</v>
+      </c>
+      <c r="C1" s="15">
+        <v>21</v>
+      </c>
+      <c r="D1" s="15">
+        <v>31</v>
+      </c>
+      <c r="E1" s="15">
+        <v>41</v>
+      </c>
+      <c r="F1" s="15">
+        <v>51</v>
+      </c>
+      <c r="G1" s="15">
+        <v>61</v>
+      </c>
+      <c r="H1" s="15">
+        <v>71</v>
+      </c>
+      <c r="I1" s="15">
+        <v>81</v>
+      </c>
+      <c r="J1" s="15">
+        <v>91</v>
+      </c>
+      <c r="K1" s="15">
+        <v>1</v>
+      </c>
+      <c r="L1" s="15">
+        <v>11</v>
+      </c>
+      <c r="M1" s="15">
+        <v>21</v>
+      </c>
+      <c r="N1" s="15">
+        <v>31</v>
+      </c>
+      <c r="O1" s="15">
+        <v>41</v>
+      </c>
+      <c r="P1" s="15">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="15">
+        <v>61</v>
+      </c>
+      <c r="R1" s="15">
+        <v>71</v>
+      </c>
+      <c r="S1" s="15">
+        <v>81</v>
+      </c>
+      <c r="T1" s="15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="15">
         <v>2</v>
       </c>
-      <c r="M1" s="1">
+      <c r="J2" s="15">
+        <v>92</v>
+      </c>
+      <c r="K2" s="15">
+        <v>2</v>
+      </c>
+      <c r="T2" s="15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="15">
         <v>3</v>
       </c>
-      <c r="N1" s="1">
-        <v>4</v>
-      </c>
-      <c r="O1" s="1">
-        <v>5</v>
-      </c>
-      <c r="P1" s="1">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>7</v>
-      </c>
-      <c r="R1" s="1">
-        <v>8</v>
-      </c>
-      <c r="S1" s="1">
-        <v>9</v>
-      </c>
-      <c r="T1" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="T2" s="1"/>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="8"/>
       <c r="D3" s="2"/>
       <c r="E3" s="5"/>
       <c r="F3" s="2"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="J3" s="15">
+        <v>93</v>
+      </c>
+      <c r="K3" s="15">
+        <v>3</v>
+      </c>
       <c r="M3" s="2"/>
       <c r="N3" s="5"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="5"/>
-      <c r="T3" s="1"/>
+      <c r="T3" s="15">
+        <v>93</v>
+      </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A4" s="1"/>
+      <c r="A4" s="15">
+        <v>4</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="J4" s="15">
+        <v>94</v>
+      </c>
+      <c r="K4" s="15">
+        <v>4</v>
+      </c>
       <c r="M4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="T4" s="1"/>
+      <c r="T4" s="15">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="8"/>
+      <c r="A5" s="15">
+        <v>5</v>
+      </c>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
       <c r="D5" s="2"/>
@@ -1060,294 +1111,588 @@
       <c r="G5" s="5"/>
       <c r="H5" s="2"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="J5" s="15">
+        <v>95</v>
+      </c>
+      <c r="K5" s="15">
+        <v>5</v>
+      </c>
       <c r="M5" s="2"/>
       <c r="O5" s="3"/>
       <c r="Q5" s="2"/>
-      <c r="T5" s="1"/>
+      <c r="T5" s="15">
+        <v>95</v>
+      </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickTop="1">
-      <c r="A6" s="1"/>
+      <c r="A6" s="15">
+        <v>6</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="J6" s="15">
+        <v>96</v>
+      </c>
+      <c r="K6" s="15">
+        <v>6</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="5"/>
       <c r="O6" s="2"/>
       <c r="Q6" s="2"/>
-      <c r="T6" s="1"/>
+      <c r="T6" s="15">
+        <v>96</v>
+      </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A7" s="8"/>
+      <c r="A7" s="15">
+        <v>7</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="5"/>
       <c r="F7" s="2"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="J7" s="15">
+        <v>97</v>
+      </c>
+      <c r="K7" s="15">
+        <v>7</v>
+      </c>
       <c r="L7" s="4"/>
       <c r="Q7" s="5"/>
-      <c r="T7" s="1"/>
+      <c r="T7" s="15">
+        <v>97</v>
+      </c>
     </row>
     <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="1"/>
+      <c r="A8" s="15">
+        <v>8</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="J8" s="15">
+        <v>98</v>
+      </c>
+      <c r="K8" s="15">
+        <v>8</v>
+      </c>
       <c r="L8" s="5"/>
       <c r="M8" s="2"/>
       <c r="N8" s="6"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="T8" s="1"/>
+      <c r="T8" s="15">
+        <v>98</v>
+      </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickTop="1">
-      <c r="A9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="A9" s="15">
+        <v>9</v>
+      </c>
+      <c r="D9" s="8"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="9"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="T9" s="1"/>
+      <c r="F9" s="8"/>
+      <c r="J9" s="15">
+        <v>99</v>
+      </c>
+      <c r="K9" s="15">
+        <v>9</v>
+      </c>
+      <c r="T9" s="15">
+        <v>99</v>
+      </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
+      <c r="A10" s="15">
+        <v>10</v>
+      </c>
+      <c r="B10" s="15">
+        <v>20</v>
+      </c>
+      <c r="C10" s="15">
+        <v>30</v>
+      </c>
+      <c r="D10" s="15">
+        <v>40</v>
+      </c>
+      <c r="E10" s="15">
+        <v>50</v>
+      </c>
+      <c r="F10" s="15">
+        <v>60</v>
+      </c>
+      <c r="G10" s="15">
+        <v>70</v>
+      </c>
+      <c r="H10" s="15">
+        <v>80</v>
+      </c>
+      <c r="I10" s="15">
+        <v>90</v>
+      </c>
+      <c r="J10" s="15">
+        <v>100</v>
+      </c>
+      <c r="K10" s="15">
+        <v>10</v>
+      </c>
+      <c r="L10" s="15">
+        <v>20</v>
+      </c>
+      <c r="M10" s="15">
+        <v>30</v>
+      </c>
+      <c r="N10" s="15">
+        <v>40</v>
+      </c>
+      <c r="O10" s="15">
+        <v>50</v>
+      </c>
+      <c r="P10" s="15">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>70</v>
+      </c>
+      <c r="R10" s="15">
+        <v>80</v>
+      </c>
+      <c r="S10" s="15">
+        <v>90</v>
+      </c>
+      <c r="T10" s="15">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
+      <c r="A11" s="15">
+        <v>1</v>
+      </c>
+      <c r="B11" s="15">
+        <v>11</v>
+      </c>
+      <c r="C11" s="15">
+        <v>21</v>
+      </c>
+      <c r="D11" s="15">
+        <v>31</v>
+      </c>
+      <c r="E11" s="15">
+        <v>41</v>
+      </c>
+      <c r="F11" s="15">
+        <v>51</v>
+      </c>
+      <c r="G11" s="15">
+        <v>61</v>
+      </c>
+      <c r="H11" s="15">
+        <v>71</v>
+      </c>
+      <c r="I11" s="15">
+        <v>81</v>
+      </c>
+      <c r="J11" s="15">
+        <v>91</v>
+      </c>
+      <c r="K11" s="15">
+        <v>1</v>
+      </c>
+      <c r="L11" s="15">
+        <v>11</v>
+      </c>
+      <c r="M11" s="15">
+        <v>21</v>
+      </c>
+      <c r="N11" s="15">
+        <v>31</v>
+      </c>
+      <c r="O11" s="15">
+        <v>41</v>
+      </c>
+      <c r="P11" s="15">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>61</v>
+      </c>
+      <c r="R11" s="15">
+        <v>71</v>
+      </c>
+      <c r="S11" s="15">
+        <v>81</v>
+      </c>
+      <c r="T11" s="15">
+        <v>91</v>
+      </c>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="1"/>
+      <c r="A12" s="15">
+        <v>2</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="H12" s="2"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="J12" s="15">
+        <v>92</v>
+      </c>
+      <c r="K12" s="15">
+        <v>2</v>
+      </c>
       <c r="M12" s="2"/>
-      <c r="T12" s="1"/>
+      <c r="T12" s="15">
+        <v>92</v>
+      </c>
     </row>
     <row r="13" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A13" s="1"/>
+      <c r="A13" s="15">
+        <v>3</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="J13" s="15">
+        <v>93</v>
+      </c>
+      <c r="K13" s="15">
+        <v>3</v>
+      </c>
       <c r="M13" s="2"/>
       <c r="O13" s="5"/>
-      <c r="T13" s="1"/>
+      <c r="T13" s="15">
+        <v>93</v>
+      </c>
     </row>
     <row r="14" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="1"/>
+      <c r="A14" s="15">
+        <v>4</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="6"/>
       <c r="H14" s="2"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="J14" s="15">
+        <v>94</v>
+      </c>
+      <c r="K14" s="15">
+        <v>4</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="5"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="5"/>
-      <c r="T14" s="1"/>
+      <c r="T14" s="15">
+        <v>94</v>
+      </c>
     </row>
     <row r="15" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="1"/>
+      <c r="A15" s="15">
+        <v>5</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="H15" s="5"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="J15" s="15">
+        <v>95</v>
+      </c>
+      <c r="K15" s="15">
+        <v>5</v>
+      </c>
       <c r="L15" s="2"/>
       <c r="M15" s="6"/>
       <c r="O15" s="3"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
-      <c r="T15" s="1"/>
+      <c r="T15" s="15">
+        <v>95</v>
+      </c>
     </row>
     <row r="16" spans="1:20" ht="15.75" thickTop="1">
-      <c r="A16" s="1"/>
+      <c r="A16" s="15">
+        <v>6</v>
+      </c>
       <c r="C16" s="4"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="5"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="J16" s="15">
+        <v>96</v>
+      </c>
+      <c r="K16" s="15">
+        <v>6</v>
+      </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="5"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-      <c r="T16" s="1"/>
+      <c r="T16" s="15">
+        <v>96</v>
+      </c>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="1"/>
+      <c r="A17" s="15">
+        <v>7</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="J17" s="15">
+        <v>97</v>
+      </c>
+      <c r="K17" s="15">
+        <v>7</v>
+      </c>
       <c r="Q17" s="5"/>
-      <c r="T17" s="1"/>
+      <c r="T17" s="15">
+        <v>97</v>
+      </c>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="1"/>
+      <c r="A18" s="15">
+        <v>8</v>
+      </c>
       <c r="E18" s="5"/>
       <c r="H18" s="2"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="J18" s="15">
+        <v>98</v>
+      </c>
+      <c r="K18" s="15">
+        <v>8</v>
+      </c>
       <c r="Q18" s="2"/>
-      <c r="T18" s="1"/>
+      <c r="T18" s="15">
+        <v>98</v>
+      </c>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="A19" s="15">
+        <v>9</v>
+      </c>
+      <c r="J19" s="15">
+        <v>99</v>
+      </c>
+      <c r="K19" s="15">
+        <v>9</v>
+      </c>
       <c r="Q19" s="4"/>
-      <c r="T19" s="1"/>
+      <c r="T19" s="15">
+        <v>99</v>
+      </c>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
+      <c r="A20" s="15">
+        <v>10</v>
+      </c>
+      <c r="B20" s="15">
+        <v>20</v>
+      </c>
+      <c r="C20" s="15">
+        <v>30</v>
+      </c>
+      <c r="D20" s="15">
+        <v>40</v>
+      </c>
+      <c r="E20" s="15">
+        <v>50</v>
+      </c>
+      <c r="F20" s="15">
+        <v>60</v>
+      </c>
+      <c r="G20" s="15">
+        <v>70</v>
+      </c>
+      <c r="H20" s="15">
+        <v>80</v>
+      </c>
+      <c r="I20" s="15">
+        <v>90</v>
+      </c>
+      <c r="J20" s="15">
+        <v>100</v>
+      </c>
+      <c r="K20" s="15">
+        <v>10</v>
+      </c>
+      <c r="L20" s="15">
+        <v>20</v>
+      </c>
+      <c r="M20" s="15">
+        <v>30</v>
+      </c>
+      <c r="N20" s="15">
+        <v>40</v>
+      </c>
+      <c r="O20" s="15">
+        <v>50</v>
+      </c>
+      <c r="P20" s="15">
+        <v>60</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>70</v>
+      </c>
+      <c r="R20" s="15">
+        <v>80</v>
+      </c>
+      <c r="S20" s="15">
+        <v>90</v>
+      </c>
+      <c r="T20" s="15">
+        <v>100</v>
+      </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="A21" s="15">
+        <v>1</v>
+      </c>
+      <c r="B21" s="15">
+        <v>11</v>
+      </c>
+      <c r="C21" s="15">
+        <v>21</v>
+      </c>
+      <c r="D21" s="15">
+        <v>31</v>
+      </c>
+      <c r="E21" s="15">
+        <v>41</v>
+      </c>
+      <c r="F21" s="15">
+        <v>51</v>
+      </c>
+      <c r="G21" s="15">
+        <v>61</v>
+      </c>
+      <c r="H21" s="15">
+        <v>71</v>
+      </c>
+      <c r="I21" s="15">
+        <v>81</v>
+      </c>
+      <c r="J21" s="15">
+        <v>91</v>
+      </c>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="1"/>
+      <c r="A22" s="15">
+        <v>2</v>
+      </c>
       <c r="I22" s="4"/>
-      <c r="J22" s="1"/>
+      <c r="J22" s="15">
+        <v>92</v>
+      </c>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="1"/>
+      <c r="A23" s="15">
+        <v>3</v>
+      </c>
       <c r="I23" s="5"/>
-      <c r="J23" s="1"/>
+      <c r="J23" s="15">
+        <v>93</v>
+      </c>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="1"/>
+      <c r="A24" s="15">
+        <v>4</v>
+      </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="1"/>
+      <c r="J24" s="15">
+        <v>94</v>
+      </c>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="1"/>
+      <c r="A25" s="15">
+        <v>5</v>
+      </c>
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
       <c r="E25" s="3"/>
       <c r="F25" s="2"/>
       <c r="G25" s="5"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="1"/>
+      <c r="J25" s="15">
+        <v>95</v>
+      </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A26" s="1"/>
+      <c r="A26" s="15">
+        <v>6</v>
+      </c>
       <c r="B26" s="5"/>
       <c r="C26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="5"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="1"/>
+      <c r="J26" s="15">
+        <v>96</v>
+      </c>
     </row>
     <row r="27" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="1"/>
+      <c r="A27" s="15">
+        <v>7</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="6"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="1"/>
+      <c r="J27" s="15">
+        <v>97</v>
+      </c>
     </row>
     <row r="28" spans="1:20" ht="15.75" thickTop="1">
-      <c r="A28" s="1"/>
+      <c r="A28" s="15">
+        <v>8</v>
+      </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="1"/>
+      <c r="J28" s="15">
+        <v>98</v>
+      </c>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="1"/>
+      <c r="A29" s="15">
+        <v>9</v>
+      </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="1"/>
+      <c r="J29" s="15">
+        <v>99</v>
+      </c>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="A30" s="15">
+        <v>10</v>
+      </c>
+      <c r="B30" s="15">
+        <v>20</v>
+      </c>
+      <c r="C30" s="15">
+        <v>30</v>
+      </c>
+      <c r="D30" s="15">
+        <v>40</v>
+      </c>
+      <c r="E30" s="15">
+        <v>50</v>
+      </c>
+      <c r="F30" s="15">
+        <v>60</v>
+      </c>
+      <c r="G30" s="15">
+        <v>70</v>
+      </c>
+      <c r="H30" s="15">
+        <v>80</v>
+      </c>
+      <c r="I30" s="15">
+        <v>90</v>
+      </c>
+      <c r="J30" s="15">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3263,1376 +3608,1376 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="16">
+      <c r="A1" s="15">
         <v>1</v>
       </c>
-      <c r="B1" s="16">
+      <c r="B1" s="15">
         <v>11</v>
       </c>
-      <c r="C1" s="16">
+      <c r="C1" s="15">
         <v>21</v>
       </c>
-      <c r="D1" s="16">
+      <c r="D1" s="15">
         <v>31</v>
       </c>
-      <c r="E1" s="16">
+      <c r="E1" s="15">
         <v>41</v>
       </c>
-      <c r="F1" s="16">
+      <c r="F1" s="15">
         <v>51</v>
       </c>
-      <c r="G1" s="16">
+      <c r="G1" s="15">
         <v>61</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="15">
         <v>71</v>
       </c>
-      <c r="I1" s="16">
+      <c r="I1" s="15">
         <v>81</v>
       </c>
-      <c r="J1" s="16">
+      <c r="J1" s="15">
         <v>91</v>
       </c>
-      <c r="K1" s="16">
+      <c r="K1" s="15">
         <v>1</v>
       </c>
-      <c r="L1" s="16">
+      <c r="L1" s="15">
         <v>11</v>
       </c>
-      <c r="M1" s="16">
+      <c r="M1" s="15">
         <v>21</v>
       </c>
-      <c r="N1" s="16">
+      <c r="N1" s="15">
         <v>31</v>
       </c>
-      <c r="O1" s="16">
+      <c r="O1" s="15">
         <v>41</v>
       </c>
-      <c r="P1" s="16">
+      <c r="P1" s="15">
         <v>51</v>
       </c>
-      <c r="Q1" s="16">
+      <c r="Q1" s="15">
         <v>61</v>
       </c>
-      <c r="R1" s="16">
+      <c r="R1" s="15">
         <v>71</v>
       </c>
-      <c r="S1" s="16">
+      <c r="S1" s="15">
         <v>81</v>
       </c>
-      <c r="T1" s="16">
+      <c r="T1" s="15">
         <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="16">
+      <c r="A2" s="15">
         <v>2</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="16">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="15">
         <v>92</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="15">
         <v>2</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="16">
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="15">
         <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>3</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="16">
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="15">
         <v>93</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="15">
         <v>3</v>
       </c>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="16">
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="15">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>4</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="16">
+      <c r="B4" s="16"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="15">
         <v>94</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <v>4</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="16">
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="15">
         <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>5</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="16">
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="15">
         <v>95</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="15">
         <v>5</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="16">
+      <c r="L5" s="16"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="15">
         <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>6</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="16">
+      <c r="B6" s="16"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="15">
         <v>96</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="15">
         <v>6</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="16">
+      <c r="L6" s="16"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="15">
         <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>7</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="16">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="15">
         <v>97</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="15">
         <v>7</v>
       </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="16">
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="15">
         <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickTop="1">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>8</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="16">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="15">
         <v>98</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="15">
         <v>8</v>
       </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="16">
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="15">
         <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>9</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="16">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="15">
         <v>99</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="15">
         <v>9</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="16">
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="15">
         <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>10</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <v>20</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>30</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <v>40</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>50</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>60</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="15">
         <v>70</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="15">
         <v>80</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="15">
         <v>90</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="15">
         <v>100</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="15">
         <v>10</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="15">
         <v>20</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="15">
         <v>30</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10" s="15">
         <v>40</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10" s="15">
         <v>50</v>
       </c>
-      <c r="P10" s="16">
+      <c r="P10" s="15">
         <v>60</v>
       </c>
-      <c r="Q10" s="16">
+      <c r="Q10" s="15">
         <v>70</v>
       </c>
-      <c r="R10" s="16">
+      <c r="R10" s="15">
         <v>80</v>
       </c>
-      <c r="S10" s="16">
+      <c r="S10" s="15">
         <v>90</v>
       </c>
-      <c r="T10" s="16">
+      <c r="T10" s="15">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>1</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="15">
         <v>11</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>21</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>31</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>41</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>51</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <v>61</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <v>71</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="15">
         <v>81</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="15">
         <v>91</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="15">
         <v>1</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="15">
         <v>11</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="15">
         <v>21</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="15">
         <v>31</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O11" s="15">
         <v>41</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11" s="15">
         <v>51</v>
       </c>
-      <c r="Q11" s="16">
+      <c r="Q11" s="15">
         <v>61</v>
       </c>
-      <c r="R11" s="16">
+      <c r="R11" s="15">
         <v>71</v>
       </c>
-      <c r="S11" s="16">
+      <c r="S11" s="15">
         <v>81</v>
       </c>
-      <c r="T11" s="16">
+      <c r="T11" s="15">
         <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>2</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="16">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="15">
         <v>92</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="15">
         <v>2</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="16">
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="15">
         <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>3</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="16">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="15">
         <v>93</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="15">
         <v>3</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="16">
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="15">
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>4</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="16">
+      <c r="B14" s="21"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="15">
         <v>94</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="15">
         <v>4</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="16">
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="15">
         <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <v>5</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="16">
+      <c r="B15" s="18"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="15">
         <v>95</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="15">
         <v>5</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="16">
+      <c r="L15" s="16"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="15">
         <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15.75" thickTop="1">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <v>6</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="16">
+      <c r="B16" s="16"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="15">
         <v>96</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="15">
         <v>6</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="16">
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="15">
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="16">
+      <c r="A17" s="15">
         <v>7</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="16">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="15">
         <v>97</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="15">
         <v>7</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="16">
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="15">
         <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="16">
+      <c r="A18" s="15">
         <v>8</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="16">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="15">
         <v>98</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="15">
         <v>8</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="16">
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="15">
         <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="16">
+      <c r="A19" s="15">
         <v>9</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="16">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="15">
         <v>99</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="15">
         <v>9</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="16">
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="15">
         <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="16">
+      <c r="A20" s="15">
         <v>10</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="15">
         <v>20</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="15">
         <v>30</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="15">
         <v>40</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="15">
         <v>50</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="15">
         <v>60</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="15">
         <v>70</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="15">
         <v>80</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="15">
         <v>90</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="15">
         <v>100</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="15">
         <v>10</v>
       </c>
-      <c r="L20" s="16">
+      <c r="L20" s="15">
         <v>20</v>
       </c>
-      <c r="M20" s="16">
+      <c r="M20" s="15">
         <v>30</v>
       </c>
-      <c r="N20" s="16">
+      <c r="N20" s="15">
         <v>40</v>
       </c>
-      <c r="O20" s="16">
+      <c r="O20" s="15">
         <v>50</v>
       </c>
-      <c r="P20" s="16">
+      <c r="P20" s="15">
         <v>60</v>
       </c>
-      <c r="Q20" s="16">
+      <c r="Q20" s="15">
         <v>70</v>
       </c>
-      <c r="R20" s="16">
+      <c r="R20" s="15">
         <v>80</v>
       </c>
-      <c r="S20" s="16">
+      <c r="S20" s="15">
         <v>90</v>
       </c>
-      <c r="T20" s="16">
+      <c r="T20" s="15">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="16">
+      <c r="A21" s="15">
         <v>1</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="15">
         <v>11</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="15">
         <v>21</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="15">
         <v>31</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="15">
         <v>41</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="15">
         <v>51</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="15">
         <v>61</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="15">
         <v>71</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="15">
         <v>81</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="15">
         <v>91</v>
       </c>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
     </row>
     <row r="22" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A22" s="16">
+      <c r="A22" s="15">
         <v>2</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="16">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="15">
         <v>92</v>
       </c>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
     </row>
     <row r="23" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="16">
+      <c r="A23" s="15">
         <v>3</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="16">
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="15">
         <v>93</v>
       </c>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
     </row>
     <row r="24" spans="1:20" ht="15.75" thickTop="1">
-      <c r="A24" s="16">
+      <c r="A24" s="15">
         <v>4</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="16">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="15">
         <v>94</v>
       </c>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="16">
+      <c r="A25" s="15">
         <v>5</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="16">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="15">
         <v>95</v>
       </c>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="16">
+      <c r="A26" s="15">
         <v>6</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="16">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="15">
         <v>96</v>
       </c>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
     </row>
     <row r="27" spans="1:20">
-      <c r="A27" s="16">
+      <c r="A27" s="15">
         <v>7</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="16">
+      <c r="B27" s="16"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="15">
         <v>97</v>
       </c>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="16">
+      <c r="A28" s="15">
         <v>8</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="16">
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="15">
         <v>98</v>
       </c>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="16">
+      <c r="A29" s="15">
         <v>9</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="16">
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="15">
         <v>99</v>
       </c>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="16">
+      <c r="A30" s="15">
         <v>10</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="15">
         <v>20</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="15">
         <v>30</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="15">
         <v>40</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="15">
         <v>50</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="15">
         <v>60</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="15">
         <v>70</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H30" s="15">
         <v>80</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I30" s="15">
         <v>90</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J30" s="15">
         <v>100</v>
       </c>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
     </row>
     <row r="33" spans="1:20">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
     </row>
     <row r="34" spans="1:20">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
     </row>
     <row r="35" spans="1:20">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
     </row>
     <row r="36" spans="1:20">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
     </row>
     <row r="37" spans="1:20">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
     </row>
     <row r="38" spans="1:20">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="17"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
     </row>
     <row r="39" spans="1:20">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="17"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
     </row>
     <row r="41" spans="1:20">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="17"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
     </row>
     <row r="42" spans="1:20">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
     </row>
     <row r="43" spans="1:20">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="17"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
     </row>
     <row r="44" spans="1:20">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="17"/>
-      <c r="S44" s="17"/>
-      <c r="T44" s="17"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
     </row>
     <row r="45" spans="1:20">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="17"/>
-      <c r="S45" s="17"/>
-      <c r="T45" s="17"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="16"/>
     </row>
     <row r="46" spans="1:20">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
-      <c r="S46" s="17"/>
-      <c r="T46" s="17"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16"/>
+      <c r="S46" s="16"/>
+      <c r="T46" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4672,1036 +5017,1036 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18.75">
-      <c r="A1" s="10">
+      <c r="A1" s="9">
         <v>1</v>
       </c>
-      <c r="B1" s="10">
+      <c r="B1" s="9">
         <v>11</v>
       </c>
-      <c r="C1" s="10">
+      <c r="C1" s="9">
         <v>21</v>
       </c>
-      <c r="D1" s="10">
+      <c r="D1" s="9">
         <v>31</v>
       </c>
-      <c r="E1" s="10">
+      <c r="E1" s="9">
         <v>41</v>
       </c>
-      <c r="F1" s="10">
+      <c r="F1" s="9">
         <v>51</v>
       </c>
-      <c r="G1" s="10">
+      <c r="G1" s="9">
         <v>61</v>
       </c>
-      <c r="H1" s="10">
+      <c r="H1" s="9">
         <v>71</v>
       </c>
-      <c r="I1" s="10">
+      <c r="I1" s="9">
         <v>81</v>
       </c>
-      <c r="J1" s="10">
+      <c r="J1" s="9">
         <v>91</v>
       </c>
-      <c r="K1" s="10">
+      <c r="K1" s="9">
         <v>1</v>
       </c>
-      <c r="L1" s="10">
+      <c r="L1" s="9">
         <v>11</v>
       </c>
-      <c r="M1" s="10">
+      <c r="M1" s="9">
         <v>21</v>
       </c>
-      <c r="N1" s="10">
+      <c r="N1" s="9">
         <v>31</v>
       </c>
-      <c r="O1" s="10">
+      <c r="O1" s="9">
         <v>41</v>
       </c>
-      <c r="P1" s="10">
+      <c r="P1" s="9">
         <v>51</v>
       </c>
-      <c r="Q1" s="10">
+      <c r="Q1" s="9">
         <v>61</v>
       </c>
-      <c r="R1" s="10">
+      <c r="R1" s="9">
         <v>71</v>
       </c>
-      <c r="S1" s="10">
+      <c r="S1" s="9">
         <v>81</v>
       </c>
-      <c r="T1" s="10">
+      <c r="T1" s="9">
         <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="18.75">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>2</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="10">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="9">
         <v>92</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="9">
         <v>2</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="10">
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="9">
         <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="18.75">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>3</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="10">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="9">
         <v>93</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <v>3</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="10">
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="9">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="18.75">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>4</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="10">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="9">
         <v>94</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="9">
         <v>4</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="10">
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="9">
         <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="18.75">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>5</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="10">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="9">
         <v>95</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="9">
         <v>5</v>
       </c>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="10">
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="9">
         <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="18.75">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>6</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="10">
+      <c r="B6" s="10"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="9">
         <v>96</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="9">
         <v>6</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="10">
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="9">
         <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="18.75">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>7</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="10">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="9">
         <v>97</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <v>7</v>
       </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="10">
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="9">
         <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="18.75">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>8</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="10">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="9">
         <v>98</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="9">
         <v>8</v>
       </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="10">
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="9">
         <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="18.75">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>9</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="10">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="9">
         <v>99</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <v>9</v>
       </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="10">
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="9">
         <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="18.75">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>10</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>20</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>30</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>40</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>50</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>60</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>70</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>80</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <v>90</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <v>100</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="9">
         <v>10</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="9">
         <v>20</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="9">
         <v>30</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="9">
         <v>40</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="9">
         <v>50</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="9">
         <v>60</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="9">
         <v>70</v>
       </c>
-      <c r="R10" s="10">
+      <c r="R10" s="9">
         <v>80</v>
       </c>
-      <c r="S10" s="10">
+      <c r="S10" s="9">
         <v>90</v>
       </c>
-      <c r="T10" s="10">
+      <c r="T10" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="18.75">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>1</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>11</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>21</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>31</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>41</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>51</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>61</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <v>71</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <v>81</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <v>91</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <v>1</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="9">
         <v>11</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="9">
         <v>21</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="9">
         <v>31</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="9">
         <v>41</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="9">
         <v>51</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="9">
         <v>61</v>
       </c>
-      <c r="R11" s="10">
+      <c r="R11" s="9">
         <v>71</v>
       </c>
-      <c r="S11" s="10">
+      <c r="S11" s="9">
         <v>81</v>
       </c>
-      <c r="T11" s="10">
+      <c r="T11" s="9">
         <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="18.75">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>2</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="10">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="9">
         <v>92</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="9">
         <v>2</v>
       </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="10">
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="9">
         <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="18.75">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>3</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="10">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="9">
         <v>93</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="9">
         <v>3</v>
       </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="10">
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="9">
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="18.75">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>4</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="10">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="9">
         <v>94</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="9">
         <v>4</v>
       </c>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="10">
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="9">
         <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="18.75">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>5</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="10">
+      <c r="B15" s="10"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="9">
         <v>95</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="9">
         <v>5</v>
       </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="10">
+      <c r="L15" s="10"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="9">
         <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="18.75">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <v>6</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="10">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="9">
         <v>96</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="9">
         <v>6</v>
       </c>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="10">
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="9">
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="18.75">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <v>7</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="10">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="9">
         <v>97</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="9">
         <v>7</v>
       </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="10">
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="9">
         <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="18.75">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <v>8</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="10">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="9">
         <v>98</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="9">
         <v>8</v>
       </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="10">
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="9">
         <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="18.75">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <v>9</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="10">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="9">
         <v>99</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="9">
         <v>9</v>
       </c>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="10">
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="9">
         <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="18.75">
-      <c r="A20" s="10">
+      <c r="A20" s="9">
         <v>10</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>20</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <v>30</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>40</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <v>50</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <v>60</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="9">
         <v>70</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="9">
         <v>80</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="9">
         <v>90</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="9">
         <v>100</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="9">
         <v>10</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="9">
         <v>20</v>
       </c>
-      <c r="M20" s="10">
+      <c r="M20" s="9">
         <v>30</v>
       </c>
-      <c r="N20" s="10">
+      <c r="N20" s="9">
         <v>40</v>
       </c>
-      <c r="O20" s="10">
+      <c r="O20" s="9">
         <v>50</v>
       </c>
-      <c r="P20" s="10">
+      <c r="P20" s="9">
         <v>60</v>
       </c>
-      <c r="Q20" s="10">
+      <c r="Q20" s="9">
         <v>70</v>
       </c>
-      <c r="R20" s="10">
+      <c r="R20" s="9">
         <v>80</v>
       </c>
-      <c r="S20" s="10">
+      <c r="S20" s="9">
         <v>90</v>
       </c>
-      <c r="T20" s="10">
+      <c r="T20" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="18.75">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <v>1</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>11</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="9">
         <v>21</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>31</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="9">
         <v>41</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <v>51</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="9">
         <v>61</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="9">
         <v>71</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="9">
         <v>81</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="9">
         <v>91</v>
       </c>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
     </row>
     <row r="22" spans="1:20" ht="18.75">
-      <c r="A22" s="10">
+      <c r="A22" s="9">
         <v>2</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="10">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="9">
         <v>92</v>
       </c>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11" t="s">
+      <c r="K22" s="10"/>
+      <c r="L22" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
     </row>
     <row r="23" spans="1:20" ht="18.75">
-      <c r="A23" s="10">
+      <c r="A23" s="9">
         <v>3</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="10">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="9">
         <v>93</v>
       </c>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11" t="s">
+      <c r="K23" s="10"/>
+      <c r="L23" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
     </row>
     <row r="24" spans="1:20" ht="18.75">
-      <c r="A24" s="10">
+      <c r="A24" s="9">
         <v>4</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="10">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="9">
         <v>94</v>
       </c>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11" t="s">
+      <c r="K24" s="10"/>
+      <c r="L24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
     </row>
     <row r="25" spans="1:20" ht="18.75">
-      <c r="A25" s="10">
+      <c r="A25" s="9">
         <v>5</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="10">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="9">
         <v>95</v>
       </c>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11" t="s">
+      <c r="K25" s="10"/>
+      <c r="L25" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
     </row>
     <row r="26" spans="1:20" ht="18.75">
-      <c r="A26" s="10">
+      <c r="A26" s="9">
         <v>6</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="10">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="9">
         <v>96</v>
       </c>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11" t="s">
+      <c r="K26" s="10"/>
+      <c r="L26" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
     </row>
     <row r="27" spans="1:20" ht="18.75">
-      <c r="A27" s="10">
+      <c r="A27" s="9">
         <v>7</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="10">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="9">
         <v>97</v>
       </c>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11" t="s">
+      <c r="K27" s="10"/>
+      <c r="L27" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
     </row>
     <row r="28" spans="1:20" ht="18.75">
-      <c r="A28" s="10">
+      <c r="A28" s="9">
         <v>8</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="10">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="9">
         <v>98</v>
       </c>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
     </row>
     <row r="29" spans="1:20" ht="18.75">
-      <c r="A29" s="10">
+      <c r="A29" s="9">
         <v>9</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="10">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="9">
         <v>99</v>
       </c>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
     </row>
     <row r="30" spans="1:20" ht="18.75">
-      <c r="A30" s="10">
+      <c r="A30" s="9">
         <v>10</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <v>20</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="9">
         <v>30</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="9">
         <v>40</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="9">
         <v>50</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="9">
         <v>60</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="9">
         <v>70</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <v>80</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
         <v>90</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="9">
         <v>100</v>
       </c>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5726,122 +6071,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="16">
+      <c r="A1" s="15">
         <v>1</v>
       </c>
-      <c r="B1" s="16">
+      <c r="B1" s="15">
         <v>11</v>
       </c>
-      <c r="C1" s="16">
+      <c r="C1" s="15">
         <v>21</v>
       </c>
-      <c r="D1" s="16">
+      <c r="D1" s="15">
         <v>31</v>
       </c>
-      <c r="E1" s="16">
+      <c r="E1" s="15">
         <v>41</v>
       </c>
-      <c r="F1" s="16">
+      <c r="F1" s="15">
         <v>51</v>
       </c>
-      <c r="G1" s="16">
+      <c r="G1" s="15">
         <v>61</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="15">
         <v>71</v>
       </c>
-      <c r="I1" s="16">
+      <c r="I1" s="15">
         <v>81</v>
       </c>
-      <c r="J1" s="16">
+      <c r="J1" s="15">
         <v>91</v>
       </c>
-      <c r="K1" s="16">
+      <c r="K1" s="15">
         <v>1</v>
       </c>
-      <c r="L1" s="16">
+      <c r="L1" s="15">
         <v>11</v>
       </c>
-      <c r="M1" s="16">
+      <c r="M1" s="15">
         <v>21</v>
       </c>
-      <c r="N1" s="16">
+      <c r="N1" s="15">
         <v>31</v>
       </c>
-      <c r="O1" s="16">
+      <c r="O1" s="15">
         <v>41</v>
       </c>
-      <c r="P1" s="16">
+      <c r="P1" s="15">
         <v>51</v>
       </c>
-      <c r="Q1" s="16">
+      <c r="Q1" s="15">
         <v>61</v>
       </c>
-      <c r="R1" s="16">
+      <c r="R1" s="15">
         <v>71</v>
       </c>
-      <c r="S1" s="16">
+      <c r="S1" s="15">
         <v>81</v>
       </c>
-      <c r="T1" s="16">
+      <c r="T1" s="15">
         <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A2" s="16">
+      <c r="A2" s="15">
         <v>2</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="5"/>
-      <c r="J2" s="16">
+      <c r="J2" s="15">
         <v>92</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="15">
         <v>2</v>
       </c>
-      <c r="T2" s="16">
+      <c r="T2" s="15">
         <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>3</v>
       </c>
       <c r="C3" s="5"/>
       <c r="E3" s="2"/>
-      <c r="J3" s="16">
+      <c r="J3" s="15">
         <v>93</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="15">
         <v>3</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="2"/>
       <c r="O3" s="6"/>
-      <c r="T3" s="16">
+      <c r="T3" s="15">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickTop="1">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>4</v>
       </c>
       <c r="C4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <v>94</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <v>4</v>
       </c>
       <c r="M4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="T4" s="16">
+      <c r="T4" s="15">
         <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>5</v>
       </c>
       <c r="C5" s="2"/>
@@ -5849,28 +6194,28 @@
       <c r="E5" s="3"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="J5" s="16">
+      <c r="J5" s="15">
         <v>95</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="15">
         <v>5</v>
       </c>
       <c r="M5" s="2"/>
       <c r="O5" s="3"/>
-      <c r="T5" s="16">
+      <c r="T5" s="15">
         <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>6</v>
       </c>
       <c r="E6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="J6" s="16">
+      <c r="J6" s="15">
         <v>96</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="15">
         <v>6</v>
       </c>
       <c r="M6" s="5"/>
@@ -5878,231 +6223,231 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="5"/>
-      <c r="T6" s="16">
+      <c r="T6" s="15">
         <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>7</v>
       </c>
       <c r="E7" s="2"/>
       <c r="G7" s="5"/>
-      <c r="J7" s="16">
+      <c r="J7" s="15">
         <v>97</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="15">
         <v>7</v>
       </c>
       <c r="O7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="T7" s="16">
+      <c r="T7" s="15">
         <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>8</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
-      <c r="J8" s="16">
+      <c r="J8" s="15">
         <v>98</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="15">
         <v>8</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="4"/>
-      <c r="T8" s="16">
+      <c r="T8" s="15">
         <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickTop="1">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>9</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="J9" s="16">
+      <c r="J9" s="15">
         <v>99</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="15">
         <v>9</v>
       </c>
-      <c r="T9" s="16">
+      <c r="T9" s="15">
         <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>10</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <v>20</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>30</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <v>40</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>50</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>60</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="15">
         <v>70</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="15">
         <v>80</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="15">
         <v>90</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="15">
         <v>100</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="15">
         <v>10</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="15">
         <v>20</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="15">
         <v>30</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10" s="15">
         <v>40</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10" s="15">
         <v>50</v>
       </c>
-      <c r="P10" s="16">
+      <c r="P10" s="15">
         <v>60</v>
       </c>
-      <c r="Q10" s="16">
+      <c r="Q10" s="15">
         <v>70</v>
       </c>
-      <c r="R10" s="16">
+      <c r="R10" s="15">
         <v>80</v>
       </c>
-      <c r="S10" s="16">
+      <c r="S10" s="15">
         <v>90</v>
       </c>
-      <c r="T10" s="16">
+      <c r="T10" s="15">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>1</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="15">
         <v>11</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>21</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>31</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>41</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>51</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <v>61</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <v>71</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="15">
         <v>81</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="15">
         <v>91</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="15">
         <v>1</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="15">
         <v>11</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="15">
         <v>21</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="15">
         <v>31</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O11" s="15">
         <v>41</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11" s="15">
         <v>51</v>
       </c>
-      <c r="Q11" s="16">
+      <c r="Q11" s="15">
         <v>61</v>
       </c>
-      <c r="R11" s="16">
+      <c r="R11" s="15">
         <v>71</v>
       </c>
-      <c r="S11" s="16">
+      <c r="S11" s="15">
         <v>81</v>
       </c>
-      <c r="T11" s="16">
+      <c r="T11" s="15">
         <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>2</v>
       </c>
       <c r="G12" s="4"/>
-      <c r="J12" s="16">
+      <c r="J12" s="15">
         <v>92</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="15">
         <v>2</v>
       </c>
-      <c r="T12" s="16">
+      <c r="T12" s="15">
         <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>3</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="G13" s="5"/>
-      <c r="J13" s="16">
+      <c r="J13" s="15">
         <v>93</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="15">
         <v>3</v>
       </c>
-      <c r="T13" s="16">
+      <c r="T13" s="15">
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>4</v>
       </c>
       <c r="C14" s="2"/>
       <c r="E14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="J14" s="16">
+      <c r="J14" s="15">
         <v>94</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="15">
         <v>4</v>
       </c>
       <c r="M14" s="2"/>
@@ -6110,40 +6455,40 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="5"/>
-      <c r="T14" s="16">
+      <c r="T14" s="15">
         <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <v>5</v>
       </c>
       <c r="C15" s="2"/>
       <c r="E15" s="3"/>
       <c r="G15" s="2"/>
-      <c r="J15" s="16">
+      <c r="J15" s="15">
         <v>95</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="15">
         <v>5</v>
       </c>
       <c r="M15" s="2"/>
       <c r="O15" s="3"/>
       <c r="Q15" s="2"/>
-      <c r="T15" s="16">
+      <c r="T15" s="15">
         <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <v>6</v>
       </c>
       <c r="C16" s="6"/>
       <c r="G16" s="5"/>
-      <c r="J16" s="16">
+      <c r="J16" s="15">
         <v>96</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="15">
         <v>6</v>
       </c>
       <c r="L16" s="2"/>
@@ -6151,12 +6496,12 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="6"/>
-      <c r="T16" s="16">
+      <c r="T16" s="15">
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="15.75" thickTop="1">
-      <c r="A17" s="16">
+      <c r="A17" s="15">
         <v>7</v>
       </c>
       <c r="C17" s="2"/>
@@ -6164,148 +6509,148 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="J17" s="16">
+      <c r="J17" s="15">
         <v>97</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="15">
         <v>7</v>
       </c>
       <c r="L17" s="5"/>
-      <c r="T17" s="16">
+      <c r="T17" s="15">
         <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="16">
+      <c r="A18" s="15">
         <v>8</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="15">
         <v>98</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="15">
         <v>8</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="5"/>
       <c r="O18" s="4"/>
-      <c r="T18" s="16">
+      <c r="T18" s="15">
         <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="16">
+      <c r="A19" s="15">
         <v>9</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="15">
         <v>99</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="15">
         <v>9</v>
       </c>
-      <c r="T19" s="16">
+      <c r="T19" s="15">
         <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="16">
+      <c r="A20" s="15">
         <v>10</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="15">
         <v>20</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="15">
         <v>30</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="15">
         <v>40</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="15">
         <v>50</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="15">
         <v>60</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="15">
         <v>70</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="15">
         <v>80</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="15">
         <v>90</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="15">
         <v>100</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="15">
         <v>10</v>
       </c>
-      <c r="L20" s="16">
+      <c r="L20" s="15">
         <v>20</v>
       </c>
-      <c r="M20" s="16">
+      <c r="M20" s="15">
         <v>30</v>
       </c>
-      <c r="N20" s="16">
+      <c r="N20" s="15">
         <v>40</v>
       </c>
-      <c r="O20" s="16">
+      <c r="O20" s="15">
         <v>50</v>
       </c>
-      <c r="P20" s="16">
+      <c r="P20" s="15">
         <v>60</v>
       </c>
-      <c r="Q20" s="16">
+      <c r="Q20" s="15">
         <v>70</v>
       </c>
-      <c r="R20" s="16">
+      <c r="R20" s="15">
         <v>80</v>
       </c>
-      <c r="S20" s="16">
+      <c r="S20" s="15">
         <v>90</v>
       </c>
-      <c r="T20" s="16">
+      <c r="T20" s="15">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="16">
+      <c r="A21" s="15">
         <v>1</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="15">
         <v>11</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="15">
         <v>21</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="15">
         <v>31</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="15">
         <v>41</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="15">
         <v>51</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="15">
         <v>61</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="15">
         <v>71</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="15">
         <v>81</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="15">
         <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="16">
+      <c r="A22" s="15">
         <v>2</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22" s="15">
         <v>92</v>
       </c>
       <c r="L22" t="s">
@@ -6313,11 +6658,11 @@
       </c>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="16">
+      <c r="A23" s="15">
         <v>3</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="J23" s="16">
+      <c r="J23" s="15">
         <v>93</v>
       </c>
       <c r="L23" t="s">
@@ -6325,12 +6670,12 @@
       </c>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="16">
+      <c r="A24" s="15">
         <v>4</v>
       </c>
       <c r="G24" s="2"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="16">
+      <c r="J24" s="15">
         <v>94</v>
       </c>
       <c r="L24" t="s">
@@ -6338,7 +6683,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A25" s="16">
+      <c r="A25" s="15">
         <v>5</v>
       </c>
       <c r="D25" s="5"/>
@@ -6346,7 +6691,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="5"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="16">
+      <c r="J25" s="15">
         <v>95</v>
       </c>
       <c r="L25" t="s">
@@ -6354,7 +6699,7 @@
       </c>
     </row>
     <row r="26" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="16">
+      <c r="A26" s="15">
         <v>6</v>
       </c>
       <c r="B26" s="5"/>
@@ -6363,7 +6708,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="16">
+      <c r="J26" s="15">
         <v>96</v>
       </c>
       <c r="L26" t="s">
@@ -6371,14 +6716,14 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="15.75" thickTop="1">
-      <c r="A27" s="16">
+      <c r="A27" s="15">
         <v>7</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="J27" s="16">
+      <c r="J27" s="15">
         <v>97</v>
       </c>
       <c r="L27" t="s">
@@ -6386,50 +6731,50 @@
       </c>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="16">
+      <c r="A28" s="15">
         <v>8</v>
       </c>
-      <c r="J28" s="16">
+      <c r="J28" s="15">
         <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="16">
+      <c r="A29" s="15">
         <v>9</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J29" s="15">
         <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="16">
+      <c r="A30" s="15">
         <v>10</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="15">
         <v>20</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="15">
         <v>30</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="15">
         <v>40</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="15">
         <v>50</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="15">
         <v>60</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="15">
         <v>70</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H30" s="15">
         <v>80</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I30" s="15">
         <v>90</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J30" s="15">
         <v>100</v>
       </c>
     </row>
@@ -6443,8 +6788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11:T19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6456,135 +6801,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="16">
+      <c r="A1" s="15">
         <v>1</v>
       </c>
-      <c r="B1" s="16">
+      <c r="B1" s="15">
         <v>11</v>
       </c>
-      <c r="C1" s="16">
+      <c r="C1" s="15">
         <v>21</v>
       </c>
-      <c r="D1" s="16">
+      <c r="D1" s="15">
         <v>31</v>
       </c>
-      <c r="E1" s="16">
+      <c r="E1" s="15">
         <v>41</v>
       </c>
-      <c r="F1" s="16">
+      <c r="F1" s="15">
         <v>51</v>
       </c>
-      <c r="G1" s="16">
+      <c r="G1" s="15">
         <v>61</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="15">
         <v>71</v>
       </c>
-      <c r="I1" s="16">
+      <c r="I1" s="15">
         <v>81</v>
       </c>
-      <c r="J1" s="16">
+      <c r="J1" s="15">
         <v>91</v>
       </c>
-      <c r="K1" s="16">
+      <c r="K1" s="15">
         <v>1</v>
       </c>
-      <c r="L1" s="16">
+      <c r="L1" s="15">
         <v>11</v>
       </c>
-      <c r="M1" s="16">
+      <c r="M1" s="15">
         <v>21</v>
       </c>
-      <c r="N1" s="16">
+      <c r="N1" s="15">
         <v>31</v>
       </c>
-      <c r="O1" s="16">
+      <c r="O1" s="15">
         <v>41</v>
       </c>
-      <c r="P1" s="16">
+      <c r="P1" s="15">
         <v>51</v>
       </c>
-      <c r="Q1" s="16">
+      <c r="Q1" s="15">
         <v>61</v>
       </c>
-      <c r="R1" s="16">
+      <c r="R1" s="15">
         <v>71</v>
       </c>
-      <c r="S1" s="16">
+      <c r="S1" s="15">
         <v>81</v>
       </c>
-      <c r="T1" s="16">
+      <c r="T1" s="15">
         <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="16">
+      <c r="A2" s="15">
         <v>2</v>
       </c>
       <c r="B2" s="4"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="5"/>
-      <c r="J2" s="16">
+      <c r="J2" s="15">
         <v>92</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="15">
         <v>2</v>
       </c>
-      <c r="T2" s="16">
+      <c r="T2" s="15">
         <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>3</v>
       </c>
       <c r="B3" s="2"/>
       <c r="E3" s="5"/>
-      <c r="J3" s="16">
+      <c r="J3" s="15">
         <v>93</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="15">
         <v>3</v>
       </c>
       <c r="L3" s="2"/>
       <c r="R3" s="2"/>
-      <c r="T3" s="16">
+      <c r="T3" s="15">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <v>94</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <v>4</v>
       </c>
       <c r="L4" s="2"/>
       <c r="N4" s="2"/>
       <c r="P4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="T4" s="16">
+      <c r="T4" s="15">
         <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>5</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="6"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
-      <c r="J5" s="16">
+      <c r="J5" s="15">
         <v>95</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="15">
         <v>5</v>
       </c>
       <c r="L5" s="2"/>
@@ -6595,260 +6940,260 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="6"/>
       <c r="S5" s="4"/>
-      <c r="T5" s="16">
+      <c r="T5" s="15">
         <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="15.75" thickTop="1">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>6</v>
       </c>
       <c r="B6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="J6" s="16">
+      <c r="J6" s="15">
         <v>96</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="15">
         <v>6</v>
       </c>
       <c r="L6" s="2"/>
       <c r="N6" s="2"/>
       <c r="P6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="T6" s="16">
+      <c r="T6" s="15">
         <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>7</v>
       </c>
       <c r="B7" s="2"/>
       <c r="E7" s="5"/>
-      <c r="J7" s="16">
+      <c r="J7" s="15">
         <v>97</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="15">
         <v>7</v>
       </c>
       <c r="L7" s="5"/>
       <c r="R7" s="5"/>
-      <c r="T7" s="16">
+      <c r="T7" s="15">
         <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>8</v>
       </c>
       <c r="B8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="5"/>
-      <c r="J8" s="16">
+      <c r="J8" s="15">
         <v>98</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="15">
         <v>8</v>
       </c>
-      <c r="T8" s="16">
+      <c r="T8" s="15">
         <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>9</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="15">
         <v>99</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="15">
         <v>9</v>
       </c>
-      <c r="T9" s="16">
+      <c r="T9" s="15">
         <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>10</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <v>20</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>30</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <v>40</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>50</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>60</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="15">
         <v>70</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="15">
         <v>80</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="15">
         <v>90</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="15">
         <v>100</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="15">
         <v>10</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="15">
         <v>20</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="15">
         <v>30</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10" s="15">
         <v>40</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10" s="15">
         <v>50</v>
       </c>
-      <c r="P10" s="16">
+      <c r="P10" s="15">
         <v>60</v>
       </c>
-      <c r="Q10" s="16">
+      <c r="Q10" s="15">
         <v>70</v>
       </c>
-      <c r="R10" s="16">
+      <c r="R10" s="15">
         <v>80</v>
       </c>
-      <c r="S10" s="16">
+      <c r="S10" s="15">
         <v>90</v>
       </c>
-      <c r="T10" s="16">
+      <c r="T10" s="15">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>1</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="15">
         <v>11</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>21</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>31</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>41</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>51</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <v>61</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <v>71</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="15">
         <v>81</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="15">
         <v>91</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="15">
         <v>1</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="15">
         <v>11</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="15">
         <v>21</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="15">
         <v>31</v>
       </c>
-      <c r="O11" s="16">
+      <c r="O11" s="15">
         <v>41</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11" s="15">
         <v>51</v>
       </c>
-      <c r="Q11" s="16">
+      <c r="Q11" s="15">
         <v>61</v>
       </c>
-      <c r="R11" s="16">
+      <c r="R11" s="15">
         <v>71</v>
       </c>
-      <c r="S11" s="16">
+      <c r="S11" s="15">
         <v>81</v>
       </c>
-      <c r="T11" s="16">
+      <c r="T11" s="15">
         <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>2</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="2"/>
       <c r="E12" s="5"/>
-      <c r="J12" s="16">
+      <c r="J12" s="15">
         <v>92</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="15">
         <v>2</v>
       </c>
       <c r="N12" s="5"/>
       <c r="O12" s="2"/>
-      <c r="T12" s="16">
+      <c r="T12" s="15">
         <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15.75" thickTop="1">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>3</v>
       </c>
       <c r="C13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="J13" s="16">
+      <c r="J13" s="15">
         <v>93</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="15">
         <v>3</v>
       </c>
       <c r="O13" s="2"/>
-      <c r="T13" s="16">
+      <c r="T13" s="15">
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>4</v>
       </c>
       <c r="C14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="J14" s="16">
+      <c r="J14" s="15">
         <v>94</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="15">
         <v>4</v>
       </c>
       <c r="O14" s="2"/>
       <c r="S14" s="5"/>
-      <c r="T14" s="16">
+      <c r="T14" s="15">
         <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <v>5</v>
       </c>
       <c r="B15" s="5"/>
@@ -6857,10 +7202,10 @@
       <c r="E15" s="3"/>
       <c r="F15" s="2"/>
       <c r="G15" s="5"/>
-      <c r="J15" s="16">
+      <c r="J15" s="15">
         <v>95</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="15">
         <v>5</v>
       </c>
       <c r="L15" s="2"/>
@@ -6871,239 +7216,239 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
-      <c r="T15" s="16">
+      <c r="T15" s="15">
         <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15.75" thickTop="1">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <v>6</v>
       </c>
       <c r="B16" s="4"/>
       <c r="D16" s="2"/>
-      <c r="J16" s="16">
+      <c r="J16" s="15">
         <v>96</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="15">
         <v>6</v>
       </c>
       <c r="L16" s="5"/>
       <c r="O16" s="2"/>
-      <c r="T16" s="16">
+      <c r="T16" s="15">
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="16">
+      <c r="A17" s="15">
         <v>7</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="J17" s="16">
+      <c r="J17" s="15">
         <v>97</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="15">
         <v>7</v>
       </c>
       <c r="O17" s="2"/>
-      <c r="T17" s="16">
+      <c r="T17" s="15">
         <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="16">
+      <c r="A18" s="15">
         <v>8</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="5"/>
-      <c r="J18" s="16">
+      <c r="J18" s="15">
         <v>98</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="15">
         <v>8</v>
       </c>
       <c r="O18" s="2"/>
-      <c r="T18" s="16">
+      <c r="T18" s="15">
         <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="16">
+      <c r="A19" s="15">
         <v>9</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="15">
         <v>99</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="15">
         <v>9</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="4"/>
-      <c r="T19" s="16">
+      <c r="T19" s="15">
         <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="16">
+      <c r="A20" s="15">
         <v>10</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="15">
         <v>20</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="15">
         <v>30</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="15">
         <v>40</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="15">
         <v>50</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="15">
         <v>60</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="15">
         <v>70</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="15">
         <v>80</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="15">
         <v>90</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="15">
         <v>100</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="15">
         <v>10</v>
       </c>
-      <c r="L20" s="16">
+      <c r="L20" s="15">
         <v>20</v>
       </c>
-      <c r="M20" s="16">
+      <c r="M20" s="15">
         <v>30</v>
       </c>
-      <c r="N20" s="16">
+      <c r="N20" s="15">
         <v>40</v>
       </c>
-      <c r="O20" s="16">
+      <c r="O20" s="15">
         <v>50</v>
       </c>
-      <c r="P20" s="16">
+      <c r="P20" s="15">
         <v>60</v>
       </c>
-      <c r="Q20" s="16">
+      <c r="Q20" s="15">
         <v>70</v>
       </c>
-      <c r="R20" s="16">
+      <c r="R20" s="15">
         <v>80</v>
       </c>
-      <c r="S20" s="16">
+      <c r="S20" s="15">
         <v>90</v>
       </c>
-      <c r="T20" s="16">
+      <c r="T20" s="15">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="16">
+      <c r="A21" s="15">
         <v>1</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="15">
         <v>11</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="15">
         <v>21</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="15">
         <v>31</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="15">
         <v>41</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="15">
         <v>51</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="15">
         <v>61</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="15">
         <v>71</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="15">
         <v>81</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="15">
         <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="16">
+      <c r="A22" s="15">
         <v>2</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="J22" s="16">
+      <c r="J22" s="15">
         <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="16">
+      <c r="A23" s="15">
         <v>3</v>
       </c>
       <c r="C23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="2"/>
       <c r="G23" s="5"/>
-      <c r="J23" s="16">
+      <c r="J23" s="15">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="16">
+      <c r="A24" s="15">
         <v>4</v>
       </c>
       <c r="C24" s="2"/>
       <c r="E24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="J24" s="16">
+      <c r="J24" s="15">
         <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="16">
+      <c r="A25" s="15">
         <v>5</v>
       </c>
       <c r="C25" s="2"/>
       <c r="E25" s="3"/>
       <c r="G25" s="2"/>
-      <c r="J25" s="16">
+      <c r="J25" s="15">
         <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="16">
+      <c r="A26" s="15">
         <v>6</v>
       </c>
       <c r="C26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="J26" s="16">
+      <c r="J26" s="15">
         <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A27" s="16">
+      <c r="A27" s="15">
         <v>7</v>
       </c>
       <c r="C27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="J27" s="16">
+      <c r="J27" s="15">
         <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A28" s="16">
+      <c r="A28" s="15">
         <v>8</v>
       </c>
       <c r="C28" s="6"/>
@@ -7111,47 +7456,47 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="5"/>
-      <c r="J28" s="16">
+      <c r="J28" s="15">
         <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickTop="1">
-      <c r="A29" s="16">
+      <c r="A29" s="15">
         <v>9</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J29" s="15">
         <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="16">
+      <c r="A30" s="15">
         <v>10</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="15">
         <v>20</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="15">
         <v>30</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="15">
         <v>40</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="15">
         <v>50</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="15">
         <v>60</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="15">
         <v>70</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H30" s="15">
         <v>80</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I30" s="15">
         <v>90</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J30" s="15">
         <v>100</v>
       </c>
     </row>

--- a/TonTunaDungeon/src/pisosproyecto.xlsx
+++ b/TonTunaDungeon/src/pisosproyecto.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940"/>
   </bookViews>
   <sheets>
     <sheet name="Piso1" sheetId="1" r:id="rId1"/>
@@ -592,7 +592,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -602,11 +602,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="9" width="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1">
@@ -639,16 +645,36 @@
       <c r="J1" s="1">
         <v>91</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="K1" s="1">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1">
+        <v>31</v>
+      </c>
+      <c r="O1" s="1">
+        <v>41</v>
+      </c>
+      <c r="P1" s="1">
+        <v>51</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>61</v>
+      </c>
+      <c r="R1" s="1">
+        <v>71</v>
+      </c>
+      <c r="S1" s="1">
+        <v>81</v>
+      </c>
+      <c r="T1" s="1">
+        <v>91</v>
+      </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="1">
@@ -657,8 +683,12 @@
       <c r="J2" s="1">
         <v>92</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="K2" s="1">
+        <v>2</v>
+      </c>
+      <c r="T2" s="1">
+        <v>92</v>
+      </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="1">
@@ -667,8 +697,12 @@
       <c r="J3" s="1">
         <v>93</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="T3" s="1"/>
+      <c r="K3" s="1">
+        <v>3</v>
+      </c>
+      <c r="T3" s="1">
+        <v>93</v>
+      </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="1">
@@ -677,8 +711,12 @@
       <c r="J4" s="1">
         <v>94</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="T4" s="1"/>
+      <c r="K4" s="1">
+        <v>4</v>
+      </c>
+      <c r="T4" s="1">
+        <v>94</v>
+      </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="1">
@@ -690,10 +728,14 @@
       <c r="J5" s="1">
         <v>95</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1">
+        <v>5</v>
+      </c>
       <c r="O5" s="3"/>
       <c r="P5" s="2"/>
-      <c r="T5" s="1"/>
+      <c r="T5" s="1">
+        <v>95</v>
+      </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="1">
@@ -704,11 +746,15 @@
       <c r="J6" s="1">
         <v>96</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1">
+        <v>6</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="T6" s="1"/>
+      <c r="T6" s="1">
+        <v>96</v>
+      </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="1">
@@ -720,11 +766,15 @@
       <c r="J7" s="1">
         <v>97</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1">
+        <v>7</v>
+      </c>
       <c r="N7" s="2"/>
       <c r="O7" s="5"/>
       <c r="P7" s="2"/>
-      <c r="T7" s="1"/>
+      <c r="T7" s="1">
+        <v>97</v>
+      </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="1">
@@ -733,8 +783,12 @@
       <c r="J8" s="1">
         <v>98</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="T8" s="1"/>
+      <c r="K8" s="1">
+        <v>8</v>
+      </c>
+      <c r="T8" s="1">
+        <v>98</v>
+      </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="1">
@@ -743,8 +797,12 @@
       <c r="J9" s="1">
         <v>99</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="T9" s="1"/>
+      <c r="K9" s="1">
+        <v>9</v>
+      </c>
+      <c r="T9" s="1">
+        <v>99</v>
+      </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="1">
@@ -777,188 +835,424 @@
       <c r="J10" s="1">
         <v>100</v>
       </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
+      <c r="K10" s="1">
+        <v>10</v>
+      </c>
+      <c r="L10" s="1">
+        <v>20</v>
+      </c>
+      <c r="M10" s="1">
+        <v>30</v>
+      </c>
+      <c r="N10" s="1">
+        <v>40</v>
+      </c>
+      <c r="O10" s="1">
+        <v>50</v>
+      </c>
+      <c r="P10" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>70</v>
+      </c>
+      <c r="R10" s="1">
+        <v>80</v>
+      </c>
+      <c r="S10" s="1">
+        <v>90</v>
+      </c>
+      <c r="T10" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1">
+        <v>51</v>
+      </c>
+      <c r="G11" s="1">
+        <v>61</v>
+      </c>
+      <c r="H11" s="1">
+        <v>71</v>
+      </c>
+      <c r="I11" s="1">
+        <v>81</v>
+      </c>
+      <c r="J11" s="1">
+        <v>91</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>11</v>
+      </c>
+      <c r="M11" s="1">
+        <v>21</v>
+      </c>
+      <c r="N11" s="1">
+        <v>31</v>
+      </c>
+      <c r="O11" s="1">
+        <v>41</v>
+      </c>
+      <c r="P11" s="1">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>61</v>
+      </c>
+      <c r="R11" s="1">
+        <v>71</v>
+      </c>
+      <c r="S11" s="1">
+        <v>81</v>
+      </c>
+      <c r="T11" s="1">
+        <v>91</v>
+      </c>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="T12" s="1"/>
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>92</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+      <c r="T12" s="1">
+        <v>92</v>
+      </c>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="5"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="T13" s="1"/>
+      <c r="J13" s="1">
+        <v>93</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3</v>
+      </c>
+      <c r="T13" s="1">
+        <v>93</v>
+      </c>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
       <c r="E14" s="2"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="J14" s="1">
+        <v>94</v>
+      </c>
+      <c r="K14" s="1">
+        <v>4</v>
+      </c>
       <c r="O14" s="2"/>
-      <c r="T14" s="1"/>
+      <c r="T14" s="1">
+        <v>94</v>
+      </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>5</v>
+      </c>
       <c r="E15" s="3"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="J15" s="1">
+        <v>95</v>
+      </c>
+      <c r="K15" s="1">
+        <v>5</v>
+      </c>
       <c r="N15" s="5"/>
       <c r="O15" s="3"/>
       <c r="P15" s="2"/>
-      <c r="T15" s="1"/>
+      <c r="T15" s="1">
+        <v>95</v>
+      </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1">
+        <v>6</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="J16" s="1">
+        <v>96</v>
+      </c>
+      <c r="K16" s="1">
+        <v>6</v>
+      </c>
       <c r="O16" s="2"/>
-      <c r="T16" s="1"/>
+      <c r="T16" s="1">
+        <v>96</v>
+      </c>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="A17" s="1">
+        <v>7</v>
+      </c>
+      <c r="J17" s="1">
+        <v>97</v>
+      </c>
+      <c r="K17" s="1">
+        <v>7</v>
+      </c>
       <c r="O17" s="2"/>
-      <c r="T17" s="1"/>
+      <c r="T17" s="1">
+        <v>97</v>
+      </c>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="A18" s="1">
+        <v>8</v>
+      </c>
+      <c r="J18" s="1">
+        <v>98</v>
+      </c>
+      <c r="K18" s="1">
+        <v>8</v>
+      </c>
       <c r="O18" s="2"/>
-      <c r="T18" s="1"/>
+      <c r="T18" s="1">
+        <v>98</v>
+      </c>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="A19" s="1">
+        <v>9</v>
+      </c>
+      <c r="J19" s="1">
+        <v>99</v>
+      </c>
+      <c r="K19" s="1">
+        <v>9</v>
+      </c>
       <c r="O19" s="4"/>
-      <c r="T19" s="1"/>
+      <c r="T19" s="1">
+        <v>99</v>
+      </c>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
+      <c r="A20" s="1">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1">
+        <v>40</v>
+      </c>
+      <c r="E20" s="1">
+        <v>50</v>
+      </c>
+      <c r="F20" s="1">
+        <v>60</v>
+      </c>
+      <c r="G20" s="1">
+        <v>70</v>
+      </c>
+      <c r="H20" s="1">
+        <v>80</v>
+      </c>
+      <c r="I20" s="1">
+        <v>90</v>
+      </c>
+      <c r="J20" s="1">
+        <v>100</v>
+      </c>
+      <c r="K20" s="1">
+        <v>10</v>
+      </c>
+      <c r="L20" s="1">
+        <v>20</v>
+      </c>
+      <c r="M20" s="1">
+        <v>30</v>
+      </c>
+      <c r="N20" s="1">
+        <v>40</v>
+      </c>
+      <c r="O20" s="1">
+        <v>50</v>
+      </c>
+      <c r="P20" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>70</v>
+      </c>
+      <c r="R20" s="1">
+        <v>80</v>
+      </c>
+      <c r="S20" s="1">
+        <v>90</v>
+      </c>
+      <c r="T20" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1">
+        <v>21</v>
+      </c>
+      <c r="D21" s="1">
+        <v>31</v>
+      </c>
+      <c r="E21" s="1">
+        <v>41</v>
+      </c>
+      <c r="F21" s="1">
+        <v>51</v>
+      </c>
+      <c r="G21" s="1">
+        <v>61</v>
+      </c>
+      <c r="H21" s="1">
+        <v>71</v>
+      </c>
+      <c r="I21" s="1">
+        <v>81</v>
+      </c>
+      <c r="J21" s="1">
+        <v>91</v>
+      </c>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1">
+        <v>92</v>
+      </c>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="A23" s="1">
+        <v>3</v>
+      </c>
+      <c r="J23" s="1">
+        <v>93</v>
+      </c>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1">
+        <v>4</v>
+      </c>
       <c r="B24" s="5"/>
       <c r="C24" s="2"/>
-      <c r="J24" s="1"/>
+      <c r="J24" s="1">
+        <v>94</v>
+      </c>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1">
+        <v>5</v>
+      </c>
       <c r="B25" s="4"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="3"/>
-      <c r="J25" s="1"/>
+      <c r="J25" s="1">
+        <v>95</v>
+      </c>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1">
+        <v>6</v>
+      </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="J26" s="1"/>
+      <c r="J26" s="1">
+        <v>96</v>
+      </c>
     </row>
     <row r="27" spans="1:20">
-      <c r="A27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="A27" s="1">
+        <v>7</v>
+      </c>
+      <c r="J27" s="1">
+        <v>97</v>
+      </c>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="A28" s="1">
+        <v>8</v>
+      </c>
+      <c r="J28" s="1">
+        <v>98</v>
+      </c>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="A29" s="1">
+        <v>9</v>
+      </c>
+      <c r="J29" s="1">
+        <v>99</v>
+      </c>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="A30" s="1">
+        <v>10</v>
+      </c>
+      <c r="B30" s="1">
+        <v>20</v>
+      </c>
+      <c r="C30" s="1">
+        <v>30</v>
+      </c>
+      <c r="D30" s="1">
+        <v>40</v>
+      </c>
+      <c r="E30" s="1">
+        <v>50</v>
+      </c>
+      <c r="F30" s="1">
+        <v>60</v>
+      </c>
+      <c r="G30" s="1">
+        <v>70</v>
+      </c>
+      <c r="H30" s="1">
+        <v>80</v>
+      </c>
+      <c r="I30" s="1">
+        <v>90</v>
+      </c>
+      <c r="J30" s="1">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -969,7 +1263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
